--- a/TaxaList.xlsx
+++ b/TaxaList.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tannerfrank/Dropbox/Work/Devonian terr ecosystems/EcolNetworks/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tannerfrank/Dropbox/Work/Devonian terr ecosystems/EcolNetworks/RhynieWebRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AECD50E-EA78-C941-BFFA-DB88F4A9578F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7F6340-06A2-5744-AA06-7C7C92CB08D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="680" windowWidth="14400" windowHeight="15880" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="680" windowWidth="14400" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1258" uniqueCount="515">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="512">
   <si>
     <t>taxon</t>
   </si>
@@ -213,22 +213,7 @@
     <t>Rhynie/Windyfield?</t>
   </si>
   <si>
-    <t>Paraprotacarus hirsti</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Dubinin VB. 1962 Class Acaromorpha: mites or gnathosomic chelicerate arthropods. In Fundamentals of paleontology (ed. Rodendorf BB), pp. 447–473. Moscow, Russia: Academy of Science. </t>
-  </si>
-  <si>
-    <t>Palaeotydeus devonicus/Paraprotacarus hirsti</t>
-  </si>
-  <si>
     <t>Protacarus crani</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Hirst 1923 but see Dubinin VB. 1962 Class Acaromorpha: mites or gnathosomic chelicerate arthropods. In Fundamentals of paleontology (ed. Rodendorf BB), pp. 447–473. Moscow, Russia: Academy of Science. </t>
-  </si>
-  <si>
-    <t>Protospeleorchestes pseudoprotacarus</t>
   </si>
   <si>
     <t>Pseudoprotacarus scoticus</t>
@@ -956,15 +941,6 @@
   </si>
   <si>
     <t>Microdecemplex?</t>
-  </si>
-  <si>
-    <t>Acari, Trombidiformes, Tydeidae</t>
-  </si>
-  <si>
-    <t>Acari, Sarcoptiformes, Alycidae</t>
-  </si>
-  <si>
-    <t>Acari, Sarcoptiformes, Nanorchestidae</t>
   </si>
   <si>
     <t>Acari, Sarcoptiformes, Alicorhagiidae</t>
@@ -1587,6 +1563,21 @@
   </si>
   <si>
     <t>Windyfield, Rhynie</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Klimov et al. 2025 and Hirst 1923, also see Dubinin VB. 1962 Class Acaromorpha: mites or gnathosomic chelicerate arthropods. In Fundamentals of paleontology (ed. Rodendorf BB), pp. 447–473. Moscow, Russia: Academy of Science. </t>
+  </si>
+  <si>
+    <t>Combined with Protospeleorchestes pseudoprotacarus (Dubinin 1962), Paraprotacarus hirstii (Dubinin 1962), Palaeotydeus devonicus (Dubinin 1962)</t>
+  </si>
+  <si>
+    <t>Acari, Sarcoptiformes, Endeostigmata</t>
+  </si>
+  <si>
+    <t>Endeostigmata are a broad (probably paraphyletic) group of soil mites that feed on a variety of things, from detritus, nematodes (Dunlop &amp; Garwood 2018), plant fluids (nanorchestidae)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">(note this taxon is considered incertae sedis by Klimov et al 2025) Dubinin VB. 1962 Class Acaromorpha: mites or gnathosomic chelicerate arthropods. In Fundamentals of paleontology (ed. Rodendorf BB), pp. 447–473. Moscow, Russia: Academy of Science. </t>
   </si>
 </sst>
 </file>
@@ -1894,11 +1885,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB1065"/>
+  <dimension ref="A1:AB1062"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F10" sqref="F10"/>
+      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1911,7 +1902,9 @@
     <col min="6" max="6" width="39.83203125" customWidth="1"/>
     <col min="7" max="7" width="7.5" customWidth="1"/>
     <col min="8" max="8" width="9" customWidth="1"/>
-    <col min="9" max="28" width="7.5" customWidth="1"/>
+    <col min="9" max="9" width="7.5" customWidth="1"/>
+    <col min="10" max="10" width="10.5" customWidth="1"/>
+    <col min="11" max="28" width="7.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -1919,19 +1912,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>509</v>
+        <v>501</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>510</v>
+        <v>502</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>511</v>
+        <v>503</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>507</v>
+        <v>499</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -1966,10 +1959,10 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>512</v>
+        <v>504</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>406</v>
+        <v>398</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>10</v>
@@ -1998,10 +1991,10 @@
         <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>513</v>
+        <v>505</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
@@ -2029,7 +2022,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>10</v>
@@ -2082,7 +2075,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>440</v>
+        <v>432</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>26</v>
@@ -2102,7 +2095,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>311</v>
+        <v>303</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2127,7 +2120,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>305</v>
+        <v>300</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2144,7 +2137,7 @@
         <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2163,7 +2156,7 @@
         <v>31</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>12</v>
@@ -2180,7 +2173,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>442</v>
+        <v>434</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2194,12 +2187,12 @@
         <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>441</v>
+        <v>433</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>504</v>
+        <v>496</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
@@ -2369,7 +2362,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="17" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
         <v>54</v>
       </c>
@@ -2394,7 +2387,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="18" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
         <v>55</v>
       </c>
@@ -2419,7 +2412,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
         <v>57</v>
       </c>
@@ -2444,7 +2437,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="20" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
         <v>59</v>
       </c>
@@ -2452,12 +2445,12 @@
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>307</v>
+        <v>509</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>315</v>
+        <v>510</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>31</v>
@@ -2468,24 +2461,27 @@
       <c r="I20" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J20" s="2" t="s">
+      <c r="J20" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="K20" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="1" t="s">
         <v>60</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="1" t="s">
-        <v>61</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>307</v>
+        <v>302</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>31</v>
@@ -2496,25 +2492,22 @@
       <c r="I21" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J21" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="22" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J21" s="1" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>308</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1"/>
       <c r="E22" s="1"/>
-      <c r="F22" s="1" t="s">
-        <v>312</v>
-      </c>
       <c r="G22" s="1" t="s">
         <v>31</v>
       </c>
@@ -2524,27 +2517,27 @@
       <c r="I22" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J22" s="1" t="s">
+      <c r="J22" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="23" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
         <v>64</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>8</v>
+        <v>65</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>309</v>
+        <v>66</v>
       </c>
       <c r="D23" s="1"/>
       <c r="E23" s="1"/>
       <c r="F23" s="1" t="s">
-        <v>314</v>
+        <v>67</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>31</v>
+        <v>435</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>11</v>
@@ -2553,26 +2546,23 @@
         <v>12</v>
       </c>
       <c r="J23" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>310</v>
+        <v>71</v>
       </c>
       <c r="D24" s="1"/>
       <c r="E24" s="1"/>
-      <c r="F24" s="1" t="s">
-        <v>313</v>
-      </c>
       <c r="G24" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>11</v>
@@ -2581,21 +2571,24 @@
         <v>12</v>
       </c>
       <c r="J24" s="2" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>66</v>
+        <v>448</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>8</v>
+        <v>73</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>67</v>
+        <v>449</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
+      <c r="F25" s="1" t="s">
+        <v>454</v>
+      </c>
       <c r="G25" s="1" t="s">
         <v>31</v>
       </c>
@@ -2605,27 +2598,27 @@
       <c r="I25" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J25" s="2" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J25" s="1" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>69</v>
+        <v>450</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>71</v>
+        <v>449</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>72</v>
+        <v>457</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>443</v>
+        <v>31</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>11</v>
@@ -2633,24 +2626,27 @@
       <c r="I26" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J26" s="2" t="s">
+      <c r="J26" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="1" t="s">
+        <v>451</v>
+      </c>
+      <c r="B27" s="1" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="27" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="B27" s="1" t="s">
-        <v>75</v>
-      </c>
       <c r="C27" s="1" t="s">
-        <v>76</v>
+        <v>449</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
+      <c r="F27" s="1" t="s">
+        <v>457</v>
+      </c>
       <c r="G27" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H27" s="1" t="s">
         <v>11</v>
@@ -2658,24 +2654,24 @@
       <c r="I27" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J27" s="2" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J27" s="1" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>31</v>
@@ -2687,23 +2683,23 @@
         <v>12</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>463</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>457</v>
+        <v>449</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>465</v>
+        <v>384</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>31</v>
@@ -2715,26 +2711,26 @@
         <v>12</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>459</v>
+        <v>439</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>465</v>
+        <v>46</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>11</v>
@@ -2743,26 +2739,27 @@
         <v>12</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>334</v>
+      </c>
+      <c r="K30" s="7"/>
+    </row>
+    <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>460</v>
+        <v>335</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>457</v>
+        <v>440</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
       <c r="F31" s="1" t="s">
-        <v>466</v>
+        <v>46</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H31" s="1" t="s">
         <v>11</v>
@@ -2771,83 +2768,83 @@
         <v>12</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>464</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>336</v>
+      </c>
+      <c r="K31" s="7"/>
+    </row>
+    <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>461</v>
+        <v>329</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>457</v>
+        <v>379</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>392</v>
+        <v>331</v>
       </c>
       <c r="G32" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>464</v>
-      </c>
+        <v>380</v>
+      </c>
+      <c r="K32" s="1"/>
     </row>
     <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>447</v>
+        <v>330</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>448</v>
+        <v>379</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>46</v>
+        <v>332</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H33" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I33" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>342</v>
-      </c>
-      <c r="K33" s="7"/>
+        <v>333</v>
+      </c>
+      <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>343</v>
+        <v>381</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>448</v>
+        <v>379</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1" t="s">
-        <v>46</v>
-      </c>
+      <c r="F34" s="1"/>
       <c r="G34" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H34" s="1" t="s">
         <v>11</v>
@@ -2855,82 +2852,79 @@
       <c r="I34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J34" s="1" t="s">
-        <v>344</v>
-      </c>
-      <c r="K34" s="7"/>
-    </row>
-    <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J34" s="4" t="s">
+        <v>382</v>
+      </c>
+      <c r="K34" s="1"/>
+    </row>
+    <row r="35" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>337</v>
+        <v>74</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>387</v>
+        <v>75</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
-      <c r="F35" s="1" t="s">
-        <v>339</v>
-      </c>
       <c r="G35" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H35" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I35" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J35" s="1" t="s">
-        <v>388</v>
-      </c>
-      <c r="K35" s="1"/>
+        <v>308</v>
+      </c>
     </row>
     <row r="36" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>338</v>
+        <v>76</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>387</v>
+        <v>77</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
       <c r="F36" s="1" t="s">
-        <v>340</v>
+        <v>78</v>
       </c>
       <c r="G36" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H36" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I36" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>341</v>
-      </c>
-      <c r="K36" s="1"/>
+        <v>79</v>
+      </c>
     </row>
     <row r="37" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>389</v>
+        <v>81</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>387</v>
+        <v>80</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
-      <c r="F37" s="1"/>
+      <c r="F37" s="1" t="s">
+        <v>82</v>
+      </c>
       <c r="G37" s="1" t="s">
         <v>31</v>
       </c>
@@ -2940,23 +2934,25 @@
       <c r="I37" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J37" s="4" t="s">
-        <v>390</v>
-      </c>
-      <c r="K37" s="1"/>
-    </row>
-    <row r="38" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J37" s="1" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>79</v>
+        <v>375</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>80</v>
       </c>
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
+      <c r="F38" s="1" t="s">
+        <v>376</v>
+      </c>
       <c r="G38" s="1" t="s">
         <v>31</v>
       </c>
@@ -2967,26 +2963,29 @@
         <v>12</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>316</v>
+        <v>377</v>
+      </c>
+      <c r="K38" s="1" t="s">
+        <v>378</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>81</v>
+        <v>84</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>11</v>
@@ -2995,15 +2994,15 @@
         <v>12</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C40" s="1" t="s">
         <v>85</v>
@@ -3011,10 +3010,10 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="H40" s="1" t="s">
         <v>11</v>
@@ -3023,15 +3022,15 @@
         <v>12</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>383</v>
+        <v>91</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C41" s="1" t="s">
         <v>85</v>
@@ -3039,10 +3038,10 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>384</v>
+        <v>92</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="H41" s="1" t="s">
         <v>11</v>
@@ -3051,29 +3050,26 @@
         <v>12</v>
       </c>
       <c r="J41" s="1" t="s">
-        <v>385</v>
-      </c>
-      <c r="K41" s="1" t="s">
-        <v>386</v>
+        <v>90</v>
       </c>
     </row>
     <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>89</v>
+        <v>94</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C42" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>91</v>
+        <v>95</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>11</v>
@@ -3082,26 +3078,26 @@
         <v>12</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>92</v>
+        <v>96</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>93</v>
+        <v>97</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>94</v>
+        <v>98</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>10</v>
+        <v>99</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>11</v>
@@ -3110,26 +3106,26 @@
         <v>12</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>95</v>
+        <v>100</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>96</v>
+        <v>101</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>97</v>
+        <v>102</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>10</v>
+        <v>42</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>11</v>
@@ -3138,27 +3134,25 @@
         <v>12</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>99</v>
+        <v>436</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C45" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G45" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>437</v>
+      </c>
+      <c r="G45" s="1"/>
       <c r="H45" s="1" t="s">
         <v>11</v>
       </c>
@@ -3166,54 +3160,51 @@
         <v>12</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>101</v>
+        <v>438</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>102</v>
+        <v>441</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C46" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="F46" s="1" t="s">
-        <v>103</v>
-      </c>
       <c r="G46" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I46" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J46" s="1" t="s">
         <v>104</v>
-      </c>
-      <c r="H46" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I46" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J46" s="1" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>106</v>
+        <v>442</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
       <c r="F47" s="1" t="s">
-        <v>107</v>
+        <v>444</v>
       </c>
       <c r="G47" s="1" t="s">
-        <v>42</v>
+        <v>445</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>11</v>
@@ -3222,49 +3213,54 @@
         <v>12</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>108</v>
+        <v>443</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>444</v>
+        <v>342</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>90</v>
+        <v>341</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>445</v>
-      </c>
-      <c r="G48" s="1"/>
+        <v>343</v>
+      </c>
+      <c r="G48" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H48" s="1" t="s">
         <v>11</v>
       </c>
       <c r="I48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J48" s="1" t="s">
-        <v>446</v>
+      <c r="J48" s="4" t="s">
+        <v>344</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>449</v>
+        <v>127</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>90</v>
+        <v>446</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
+      <c r="F49" s="1" t="s">
+        <v>128</v>
+      </c>
       <c r="G49" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>11</v>
@@ -3273,26 +3269,26 @@
         <v>12</v>
       </c>
       <c r="J49" s="1" t="s">
-        <v>109</v>
+        <v>129</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>450</v>
+        <v>105</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>452</v>
+        <v>470</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>453</v>
+        <v>31</v>
       </c>
       <c r="H50" s="1" t="s">
         <v>11</v>
@@ -3301,26 +3297,26 @@
         <v>12</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>451</v>
+        <v>107</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>350</v>
+        <v>108</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>349</v>
+        <v>106</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>351</v>
+        <v>310</v>
       </c>
       <c r="G51" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H51" s="1" t="s">
         <v>11</v>
@@ -3328,24 +3324,24 @@
       <c r="I51" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J51" s="4" t="s">
-        <v>352</v>
+      <c r="J51" s="1" t="s">
+        <v>109</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>132</v>
+        <v>110</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>454</v>
+        <v>106</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>133</v>
+        <v>311</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>31</v>
@@ -3357,23 +3353,23 @@
         <v>12</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>134</v>
+        <v>111</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>111</v>
+        <v>106</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>478</v>
+        <v>78</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>31</v>
@@ -3385,23 +3381,23 @@
         <v>12</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>31</v>
@@ -3413,51 +3409,51 @@
         <v>12</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>115</v>
+        <v>321</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>111</v>
+        <v>322</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>319</v>
+        <v>497</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>11</v>
+        <v>323</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>116</v>
+        <v>324</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>117</v>
+        <v>309</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>111</v>
+        <v>461</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>83</v>
+        <v>464</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>31</v>
@@ -3469,23 +3465,23 @@
         <v>12</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>118</v>
+        <v>93</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>119</v>
+        <v>465</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>120</v>
+        <v>461</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>320</v>
+        <v>466</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>31</v>
@@ -3497,51 +3493,51 @@
         <v>12</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>121</v>
+        <v>467</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>329</v>
+        <v>459</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>330</v>
+        <v>460</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>505</v>
+        <v>462</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H58" s="1" t="s">
-        <v>331</v>
+        <v>11</v>
       </c>
       <c r="I58" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>332</v>
+        <v>463</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>317</v>
+        <v>471</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>469</v>
+        <v>472</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>472</v>
+        <v>474</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>31</v>
@@ -3553,23 +3549,23 @@
         <v>12</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>98</v>
+        <v>473</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>473</v>
+        <v>383</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>469</v>
+        <v>478</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>474</v>
+        <v>384</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>31</v>
@@ -3581,23 +3577,23 @@
         <v>12</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>475</v>
+        <v>385</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>467</v>
+        <v>325</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>468</v>
+        <v>477</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>470</v>
+        <v>326</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>31</v>
@@ -3609,26 +3605,29 @@
         <v>12</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>471</v>
+        <v>327</v>
+      </c>
+      <c r="K61" s="7" t="s">
+        <v>328</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>479</v>
+        <v>338</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>480</v>
+        <v>469</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>482</v>
+        <v>468</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>11</v>
@@ -3637,23 +3636,24 @@
         <v>12</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>481</v>
-      </c>
+        <v>337</v>
+      </c>
+      <c r="K62" s="7"/>
     </row>
     <row r="63" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>391</v>
+        <v>117</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>486</v>
+        <v>118</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>392</v>
+        <v>119</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>31</v>
@@ -3665,26 +3665,26 @@
         <v>12</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>393</v>
+        <v>120</v>
       </c>
     </row>
     <row r="64" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>333</v>
+        <v>121</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>485</v>
+        <v>118</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>334</v>
+        <v>82</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>11</v>
@@ -3693,29 +3693,26 @@
         <v>12</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>335</v>
-      </c>
-      <c r="K64" s="7" t="s">
-        <v>336</v>
+        <v>122</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>346</v>
+        <v>123</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>477</v>
+        <v>118</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>476</v>
+        <v>384</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>10</v>
+        <v>475</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>11</v>
@@ -3724,27 +3721,26 @@
         <v>12</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>345</v>
-      </c>
-      <c r="K65" s="7"/>
+        <v>124</v>
+      </c>
     </row>
     <row r="66" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>122</v>
+        <v>125</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>124</v>
+        <v>384</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>31</v>
+        <v>476</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>11</v>
@@ -3753,26 +3749,18 @@
         <v>12</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>126</v>
+        <v>411</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="C67" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="D67" s="1"/>
-      <c r="E67" s="1"/>
-      <c r="F67" s="1" t="s">
-        <v>87</v>
+        <v>413</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>11</v>
@@ -3781,26 +3769,26 @@
         <v>12</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>127</v>
+        <v>393</v>
+      </c>
+      <c r="K67" s="1" t="s">
+        <v>394</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>128</v>
+        <v>412</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>78</v>
+        <v>414</v>
       </c>
       <c r="C68" s="1" t="s">
-        <v>123</v>
+        <v>46</v>
       </c>
       <c r="D68" s="1"/>
       <c r="E68" s="1"/>
-      <c r="F68" s="1" t="s">
-        <v>392</v>
-      </c>
       <c r="G68" s="1" t="s">
-        <v>483</v>
+        <v>10</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>11</v>
@@ -3809,26 +3797,27 @@
         <v>12</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>129</v>
-      </c>
+        <v>415</v>
+      </c>
+      <c r="K68" s="1"/>
     </row>
     <row r="69" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
         <v>130</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>78</v>
+        <v>131</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>123</v>
+        <v>404</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
       <c r="F69" s="1" t="s">
-        <v>392</v>
+        <v>132</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>484</v>
+        <v>31</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>11</v>
@@ -3837,44 +3826,53 @@
         <v>12</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
     </row>
     <row r="70" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>419</v>
+        <v>484</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>421</v>
+        <v>485</v>
+      </c>
+      <c r="C70" s="1"/>
+      <c r="D70" s="1"/>
+      <c r="E70" s="1"/>
+      <c r="F70" s="1" t="s">
+        <v>487</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J70" s="1" t="s">
-        <v>401</v>
+      <c r="J70" s="4" t="s">
+        <v>486</v>
       </c>
       <c r="K70" s="1" t="s">
-        <v>402</v>
+        <v>488</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>420</v>
+        <v>339</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>422</v>
+        <v>396</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>46</v>
+        <v>395</v>
       </c>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
+      <c r="F71" s="1" t="s">
+        <v>408</v>
+      </c>
       <c r="G71" s="1" t="s">
         <v>10</v>
       </c>
@@ -3884,77 +3882,78 @@
       <c r="I71" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J71" s="1" t="s">
-        <v>423</v>
-      </c>
-      <c r="K71" s="1"/>
+      <c r="J71" s="4" t="s">
+        <v>344</v>
+      </c>
+      <c r="K71" s="7" t="s">
+        <v>340</v>
+      </c>
     </row>
     <row r="72" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B72" s="1" t="s">
         <v>135</v>
       </c>
-      <c r="B72" s="1" t="s">
+      <c r="C72" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="C72" s="1" t="s">
-        <v>412</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
+        <v>400</v>
+      </c>
+      <c r="G72" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I72" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J72" s="1" t="s">
         <v>137</v>
-      </c>
-      <c r="G72" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H72" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I72" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J72" s="1" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>492</v>
+        <v>409</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>493</v>
-      </c>
-      <c r="C73" s="1"/>
+        <v>135</v>
+      </c>
+      <c r="C73" s="1" t="s">
+        <v>138</v>
+      </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>495</v>
+        <v>410</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H73" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I73" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J73" s="4" t="s">
-        <v>494</v>
-      </c>
-      <c r="K73" s="1" t="s">
-        <v>496</v>
+      <c r="J73" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>347</v>
+        <v>140</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>404</v>
+        <v>135</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>403</v>
+        <v>138</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
@@ -3970,27 +3969,24 @@
       <c r="I74" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J74" s="4" t="s">
-        <v>352</v>
-      </c>
-      <c r="K74" s="7" t="s">
-        <v>348</v>
+      <c r="J74" s="1" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>10</v>
@@ -4002,23 +3998,26 @@
         <v>12</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>142</v>
+        <v>143</v>
+      </c>
+      <c r="K75" t="s">
+        <v>407</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>417</v>
+        <v>313</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>140</v>
+        <v>314</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>143</v>
+        <v>418</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>10</v>
@@ -4030,23 +4029,26 @@
         <v>12</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>144</v>
+        <v>316</v>
+      </c>
+      <c r="K76" s="7" t="s">
+        <v>315</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>145</v>
+        <v>317</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>143</v>
+        <v>397</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>424</v>
+        <v>405</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>10</v>
@@ -4058,23 +4060,23 @@
         <v>12</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>144</v>
+        <v>318</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>414</v>
+        <v>420</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>10</v>
@@ -4086,29 +4088,26 @@
         <v>12</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="K78" t="s">
-        <v>415</v>
+        <v>146</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>321</v>
+        <v>147</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>322</v>
+        <v>148</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>426</v>
+        <v>149</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>427</v>
+        <v>150</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>11</v>
@@ -4117,29 +4116,26 @@
         <v>12</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>324</v>
-      </c>
-      <c r="K79" s="7" t="s">
-        <v>323</v>
+        <v>151</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>325</v>
+        <v>152</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>405</v>
+        <v>153</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
-        <v>413</v>
+        <v>150</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H80" s="1" t="s">
         <v>11</v>
@@ -4148,26 +4144,26 @@
         <v>12</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>326</v>
+        <v>154</v>
       </c>
     </row>
     <row r="81" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>149</v>
+        <v>155</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>150</v>
+        <v>156</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>428</v>
+        <v>150</v>
       </c>
       <c r="G81" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H81" s="1" t="s">
         <v>11</v>
@@ -4176,23 +4172,23 @@
         <v>12</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>151</v>
+        <v>157</v>
       </c>
     </row>
     <row r="82" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>152</v>
+        <v>158</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>154</v>
+        <v>159</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>31</v>
@@ -4204,23 +4200,23 @@
         <v>12</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>156</v>
+        <v>160</v>
       </c>
     </row>
     <row r="83" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>157</v>
+        <v>161</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>31</v>
@@ -4232,23 +4228,23 @@
         <v>12</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="84" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>31</v>
@@ -4260,23 +4256,23 @@
         <v>12</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
     </row>
     <row r="85" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>31</v>
@@ -4288,26 +4284,26 @@
         <v>12</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="86" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>164</v>
+        <v>170</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>155</v>
+        <v>482</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>11</v>
@@ -4316,23 +4312,23 @@
         <v>12</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
     </row>
     <row r="87" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="1" t="s">
-        <v>168</v>
+      <c r="A87" s="8" t="s">
+        <v>479</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>153</v>
+        <v>481</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>169</v>
+        <v>480</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>155</v>
+        <v>482</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>31</v>
@@ -4344,26 +4340,26 @@
         <v>12</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>170</v>
+        <v>483</v>
       </c>
     </row>
     <row r="88" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="1" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>153</v>
+        <v>173</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>164</v>
+        <v>174</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>155</v>
+        <v>426</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>11</v>
@@ -4372,26 +4368,26 @@
         <v>12</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
     </row>
     <row r="89" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="B89" s="1" t="s">
         <v>173</v>
       </c>
-      <c r="B89" s="1" t="s">
+      <c r="C89" s="1" t="s">
         <v>174</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>175</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>490</v>
+        <v>425</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>10</v>
+        <v>424</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>11</v>
@@ -4400,35 +4396,38 @@
         <v>12</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>176</v>
+        <v>422</v>
+      </c>
+      <c r="K89" t="s">
+        <v>423</v>
       </c>
     </row>
     <row r="90" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A90" s="8" t="s">
-        <v>487</v>
+      <c r="A90" s="1" t="s">
+        <v>491</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>489</v>
+        <v>173</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>488</v>
+        <v>174</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
+        <v>489</v>
+      </c>
+      <c r="G90" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I90" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J90" s="1" t="s">
         <v>490</v>
-      </c>
-      <c r="G90" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H90" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I90" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J90" s="1" t="s">
-        <v>491</v>
       </c>
     </row>
     <row r="91" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4436,18 +4435,18 @@
         <v>177</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>179</v>
+        <v>493</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>434</v>
+        <v>427</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>10</v>
+        <v>498</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>11</v>
@@ -4456,26 +4455,26 @@
         <v>12</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>180</v>
+        <v>492</v>
       </c>
     </row>
     <row r="92" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>181</v>
+        <v>392</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>179</v>
+        <v>390</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>432</v>
+        <v>10</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>11</v>
@@ -4484,26 +4483,23 @@
         <v>12</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>430</v>
-      </c>
-      <c r="K92" t="s">
-        <v>431</v>
+        <v>391</v>
       </c>
     </row>
     <row r="93" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>499</v>
+        <v>178</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>497</v>
+        <v>428</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>10</v>
@@ -4515,51 +4511,54 @@
         <v>12</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>498</v>
+        <v>179</v>
       </c>
     </row>
     <row r="94" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>182</v>
+        <v>319</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>501</v>
+        <v>174</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="G94" s="1" t="s">
-        <v>506</v>
+        <v>10</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>500</v>
+        <v>320</v>
+      </c>
+      <c r="K94" s="7" t="s">
+        <v>19</v>
       </c>
     </row>
     <row r="95" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>400</v>
+        <v>180</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>398</v>
+        <v>181</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>411</v>
+        <v>430</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>10</v>
@@ -4571,7 +4570,7 @@
         <v>12</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>399</v>
+        <v>182</v>
       </c>
     </row>
     <row r="96" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -4579,18 +4578,18 @@
         <v>183</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>436</v>
+        <v>431</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>10</v>
+        <v>432</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>11</v>
@@ -4599,54 +4598,51 @@
         <v>12</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>327</v>
+        <v>186</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>437</v>
+        <v>402</v>
       </c>
       <c r="G97" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H97" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I97" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>328</v>
-      </c>
-      <c r="K97" s="7" t="s">
-        <v>19</v>
+        <v>187</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
-        <v>438</v>
+        <v>417</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>10</v>
@@ -4658,26 +4654,26 @@
         <v>12</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>188</v>
+        <v>386</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>189</v>
+        <v>46</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
-        <v>439</v>
+        <v>387</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>440</v>
+        <v>10</v>
       </c>
       <c r="H99" s="1" t="s">
         <v>11</v>
@@ -4685,24 +4681,22 @@
       <c r="I99" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J99" s="1" t="s">
-        <v>190</v>
+      <c r="J99" s="4" t="s">
+        <v>388</v>
+      </c>
+      <c r="K99" s="1" t="s">
+        <v>389</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
+        <v>421</v>
+      </c>
+      <c r="B100" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="F100" s="1" t="s">
         <v>191</v>
-      </c>
-      <c r="B100" s="1" t="s">
-        <v>178</v>
-      </c>
-      <c r="C100" s="1" t="s">
-        <v>179</v>
-      </c>
-      <c r="D100" s="1"/>
-      <c r="E100" s="1"/>
-      <c r="F100" s="1" t="s">
-        <v>410</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>10</v>
@@ -4714,184 +4708,195 @@
         <v>12</v>
       </c>
       <c r="J100" s="1" t="s">
-        <v>192</v>
+        <v>175</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="C101" s="1" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="D101" s="1"/>
       <c r="E101" s="1"/>
       <c r="F101" s="1" t="s">
-        <v>425</v>
+        <v>199</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>195</v>
+        <v>224</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>394</v>
+        <v>193</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>178</v>
+        <v>197</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>46</v>
+        <v>196</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1" t="s">
-        <v>395</v>
+        <v>199</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>10</v>
+        <v>198</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J102" s="4" t="s">
-        <v>396</v>
-      </c>
-      <c r="K102" s="1" t="s">
-        <v>397</v>
+        <v>200</v>
+      </c>
+      <c r="J102" s="1" t="s">
+        <v>224</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>429</v>
+        <v>349</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>178</v>
-      </c>
+        <v>197</v>
+      </c>
+      <c r="C103" s="1" t="s">
+        <v>357</v>
+      </c>
+      <c r="D103" s="1"/>
+      <c r="E103" s="1"/>
       <c r="F103" s="1" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="G103" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>11</v>
+        <v>192</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>12</v>
+        <v>200</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>180</v>
+        <v>361</v>
+      </c>
+      <c r="K103" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>199</v>
+        <v>350</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>201</v>
+        <v>357</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>229</v>
+        <v>361</v>
+      </c>
+      <c r="K104" t="s">
+        <v>359</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>198</v>
+        <v>351</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>201</v>
+        <v>364</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
-        <v>204</v>
+        <v>370</v>
       </c>
       <c r="G105" s="1" t="s">
-        <v>203</v>
+        <v>10</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>229</v>
+        <v>369</v>
+      </c>
+      <c r="K105" t="s">
+        <v>371</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>357</v>
+        <v>352</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1" t="s">
-        <v>204</v>
+        <v>370</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J106" s="1" t="s">
         <v>369</v>
       </c>
       <c r="K106" t="s">
-        <v>367</v>
+        <v>371</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>358</v>
+        <v>353</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C107" s="1" t="s">
         <v>365</v>
@@ -4899,404 +4904,398 @@
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="K107" t="s">
-        <v>367</v>
+        <v>358</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>359</v>
+        <v>222</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
-        <v>378</v>
+        <v>227</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H108" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I108" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J108" s="1" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>347</v>
+      </c>
+      <c r="B109" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I108" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J108" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="K108" t="s">
-        <v>379</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A109" s="1" t="s">
-        <v>360</v>
-      </c>
-      <c r="B109" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="C109" s="1" t="s">
-        <v>372</v>
+        <v>363</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
-        <v>378</v>
+        <v>367</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="K109" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>361</v>
+        <v>348</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>373</v>
+        <v>363</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
-        <v>204</v>
+        <v>368</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J110" s="1" t="s">
+        <v>369</v>
+      </c>
+      <c r="K110" t="s">
         <v>366</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>371</v>
+        <v>195</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H111" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I111" s="1" t="s">
+        <v>200</v>
+      </c>
+      <c r="J111" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="K111" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="112" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B112" s="1" t="s">
         <v>197</v>
       </c>
-      <c r="I111" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J111" s="1" t="s">
-        <v>228</v>
-      </c>
-    </row>
-    <row r="112" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A112" s="1" t="s">
-        <v>355</v>
-      </c>
-      <c r="B112" s="1" t="s">
-        <v>202</v>
-      </c>
       <c r="C112" s="1" t="s">
-        <v>371</v>
+        <v>234</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1" t="s">
-        <v>375</v>
+        <v>242</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J112" s="1" t="s">
-        <v>377</v>
+        <v>200</v>
+      </c>
+      <c r="J112" s="4" t="s">
+        <v>236</v>
+      </c>
+      <c r="K112" t="s">
+        <v>366</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>356</v>
+        <v>345</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>371</v>
+        <v>346</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1" t="s">
-        <v>376</v>
+        <v>242</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J113" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="K113" t="s">
-        <v>374</v>
+        <v>200</v>
+      </c>
+      <c r="J113" s="4" t="s">
+        <v>362</v>
+      </c>
+      <c r="K113" s="1" t="s">
+        <v>360</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>226</v>
+        <v>219</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>200</v>
+        <v>228</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J114" s="1" t="s">
-        <v>230</v>
-      </c>
-      <c r="K114" t="s">
-        <v>374</v>
+        <v>225</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>240</v>
+        <v>220</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1" t="s">
-        <v>247</v>
+        <v>227</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J115" s="4" t="s">
-        <v>241</v>
-      </c>
-      <c r="K115" t="s">
-        <v>374</v>
+        <v>200</v>
+      </c>
+      <c r="J115" s="1" t="s">
+        <v>225</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>353</v>
+        <v>217</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>354</v>
+        <v>229</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1" t="s">
-        <v>247</v>
+        <v>226</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="J116" s="4" t="s">
-        <v>370</v>
-      </c>
-      <c r="K116" s="1" t="s">
-        <v>368</v>
+        <v>200</v>
+      </c>
+      <c r="J116" s="1" t="s">
+        <v>218</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>224</v>
+        <v>354</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>202</v>
+        <v>8</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>233</v>
+        <v>372</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1" t="s">
-        <v>232</v>
+        <v>373</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>230</v>
+        <v>369</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>225</v>
+        <v>241</v>
       </c>
       <c r="B118" s="1" t="s">
-        <v>202</v>
+        <v>8</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1" t="s">
-        <v>232</v>
+        <v>243</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>222</v>
+        <v>233</v>
       </c>
       <c r="B119" s="1" t="s">
-        <v>202</v>
+        <v>8</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1" t="s">
-        <v>231</v>
+        <v>46</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>223</v>
+        <v>245</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>362</v>
+        <v>239</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>380</v>
+        <v>237</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1" t="s">
-        <v>381</v>
+        <v>240</v>
       </c>
       <c r="G120" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>377</v>
+        <v>238</v>
+      </c>
+      <c r="K120" s="3" t="s">
+        <v>355</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5307,538 +5306,520 @@
         <v>8</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>236</v>
+        <v>249</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>237</v>
-      </c>
+        <v>256</v>
+      </c>
+      <c r="K121" s="3"/>
     </row>
     <row r="122" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>238</v>
+        <v>247</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1" t="s">
-        <v>46</v>
+        <v>252</v>
       </c>
       <c r="G122" s="1" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>250</v>
-      </c>
+        <v>253</v>
+      </c>
+      <c r="K122" s="3"/>
     </row>
     <row r="123" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>242</v>
+        <v>251</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
-        <v>245</v>
+        <v>254</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>243</v>
-      </c>
-      <c r="K123" s="3" t="s">
-        <v>363</v>
+        <v>253</v>
       </c>
     </row>
     <row r="124" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>251</v>
+        <v>356</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="K124" s="3"/>
+        <v>374</v>
+      </c>
     </row>
     <row r="125" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>252</v>
+        <v>201</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>255</v>
+        <v>210</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1" t="s">
-        <v>257</v>
+        <v>214</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>258</v>
-      </c>
-      <c r="K125" s="3"/>
+        <v>216</v>
+      </c>
+      <c r="K125" s="3" t="s">
+        <v>215</v>
+      </c>
     </row>
     <row r="126" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>253</v>
+        <v>202</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>256</v>
+        <v>159</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1" t="s">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="G126" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>258</v>
+        <v>216</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>364</v>
+        <v>203</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>8</v>
+        <v>148</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>256</v>
+        <v>211</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1" t="s">
-        <v>259</v>
+        <v>214</v>
       </c>
       <c r="G127" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>382</v>
+        <v>216</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>221</v>
-      </c>
-      <c r="K128" s="3" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B133" s="1" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="C133" s="1" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>212</v>
+        <v>265</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>153</v>
+        <v>8</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>218</v>
+        <v>269</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I134" s="1" t="s">
-        <v>205</v>
+        <v>286</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>221</v>
+        <v>267</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>213</v>
+        <v>271</v>
       </c>
       <c r="B135" s="1" t="s">
-        <v>153</v>
+        <v>8</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>217</v>
+        <v>272</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1" t="s">
-        <v>219</v>
+        <v>270</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I135" s="1" t="s">
-        <v>205</v>
+        <v>286</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>221</v>
+        <v>273</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>214</v>
+        <v>275</v>
       </c>
       <c r="B136" s="1" t="s">
-        <v>153</v>
+        <v>8</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>217</v>
+        <v>298</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1" t="s">
-        <v>219</v>
+        <v>268</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="I136" s="1" t="s">
-        <v>205</v>
+        <v>286</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>221</v>
+        <v>276</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>270</v>
+        <v>280</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="1" t="s">
-        <v>273</v>
-      </c>
+      <c r="F137" s="1"/>
       <c r="G137" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>272</v>
+        <v>284</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
-      <c r="F138" s="1" t="s">
-        <v>275</v>
-      </c>
+      <c r="F138" s="1"/>
       <c r="G138" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>303</v>
+        <v>278</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
-      <c r="F139" s="1" t="s">
-        <v>273</v>
-      </c>
+      <c r="F139" s="1"/>
       <c r="G139" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -5847,21 +5828,21 @@
         <v>31</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>289</v>
+        <v>284</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -5870,10 +5851,10 @@
         <v>31</v>
       </c>
       <c r="H141" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J141" s="1" t="s">
         <v>291</v>
-      </c>
-      <c r="J141" s="1" t="s">
-        <v>289</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5883,20 +5864,15 @@
       <c r="B142" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C142" s="1" t="s">
-        <v>283</v>
-      </c>
-      <c r="D142" s="1"/>
-      <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>289</v>
+        <v>290</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5907,7 +5883,7 @@
         <v>8</v>
       </c>
       <c r="C143" s="1" t="s">
-        <v>283</v>
+        <v>300</v>
       </c>
       <c r="D143" s="1"/>
       <c r="E143" s="1"/>
@@ -5916,21 +5892,21 @@
         <v>31</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J143" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="J143" t="s">
         <v>289</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>290</v>
+        <v>52</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -5939,51 +5915,54 @@
         <v>31</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J144" s="1" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="F145" s="1"/>
+      <c r="C145" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D145" s="1"/>
+      <c r="E145" s="1"/>
       <c r="G145" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>295</v>
+        <v>299</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C146" s="1" t="s">
-        <v>305</v>
+        <v>52</v>
       </c>
       <c r="D146" s="1"/>
       <c r="E146" s="1"/>
-      <c r="F146" s="1"/>
       <c r="G146" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J146" t="s">
-        <v>294</v>
+        <v>286</v>
+      </c>
+      <c r="J146" s="1" t="s">
+        <v>299</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5998,20 +5977,19 @@
       </c>
       <c r="D147" s="1"/>
       <c r="E147" s="1"/>
-      <c r="F147" s="1"/>
       <c r="G147" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>8</v>
@@ -6025,15 +6003,15 @@
         <v>31</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>8</v>
@@ -6047,148 +6025,85 @@
         <v>31</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>291</v>
+        <v>286</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>304</v>
+        <v>299</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>302</v>
-      </c>
-      <c r="B150" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C150" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D150" s="1"/>
-      <c r="E150" s="1"/>
-      <c r="G150" s="1" t="s">
-        <v>31</v>
-      </c>
+        <v>274</v>
+      </c>
+      <c r="B150" s="1"/>
       <c r="H150" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J150" s="1" t="s">
-        <v>304</v>
+        <v>257</v>
+      </c>
+      <c r="I150" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="B151" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C151" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D151" s="1"/>
-      <c r="E151" s="1"/>
-      <c r="G151" s="1" t="s">
-        <v>31</v>
-      </c>
+      <c r="B151" s="1"/>
       <c r="H151" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J151" s="1" t="s">
-        <v>304</v>
+        <v>257</v>
+      </c>
+      <c r="I151" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>299</v>
+        <v>259</v>
       </c>
       <c r="B152" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C152" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D152" s="1"/>
-      <c r="E152" s="1"/>
+        <v>260</v>
+      </c>
       <c r="G152" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="H152" s="1" t="s">
-        <v>291</v>
-      </c>
-      <c r="J152" s="1" t="s">
-        <v>304</v>
+        <v>257</v>
+      </c>
+      <c r="I152" s="1" t="s">
+        <v>258</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>279</v>
+        <v>262</v>
       </c>
       <c r="B153" s="1"/>
+      <c r="G153" s="1"/>
       <c r="H153" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="I153" s="1" t="s">
-        <v>263</v>
+        <v>261</v>
+      </c>
+      <c r="I153" s="1"/>
+      <c r="J153" t="s">
+        <v>266</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A154" s="1" t="s">
-        <v>306</v>
-      </c>
       <c r="B154" s="1"/>
       <c r="H154" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="I154" s="1" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A155" s="1" t="s">
+      <c r="B155" s="1"/>
+      <c r="H155" s="1" t="s">
         <v>264</v>
       </c>
-      <c r="B155" s="1" t="s">
-        <v>265</v>
-      </c>
-      <c r="G155" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="H155" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="I155" s="1" t="s">
-        <v>263</v>
-      </c>
     </row>
     <row r="156" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A156" s="1" t="s">
-        <v>267</v>
-      </c>
       <c r="B156" s="1"/>
-      <c r="G156" s="1"/>
-      <c r="H156" s="1" t="s">
-        <v>266</v>
-      </c>
-      <c r="I156" s="1"/>
-      <c r="J156" t="s">
-        <v>271</v>
-      </c>
-    </row>
-    <row r="157" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B157" s="1"/>
-      <c r="H157" s="1" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="158" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B158" s="1"/>
-      <c r="H158" s="1" t="s">
-        <v>269</v>
-      </c>
-    </row>
-    <row r="159" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="B159" s="1"/>
-    </row>
+    </row>
+    <row r="157" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="158" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="159" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="160" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="161" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="162" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7092,9 +7007,6 @@
     <row r="1060" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1061" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1062" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1063" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1064" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
-    <row r="1065" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7116,32 +7028,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>502</v>
+        <v>494</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>490</v>
+        <v>482</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>438</v>
+        <v>430</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>439</v>
+        <v>431</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>425</v>
+        <v>417</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>497</v>
+        <v>489</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.2">
@@ -7151,237 +7063,237 @@
     </row>
     <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>465</v>
+        <v>457</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>466</v>
+        <v>458</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>428</v>
+        <v>420</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>434</v>
+        <v>426</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>435</v>
+        <v>427</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>418</v>
+        <v>410</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>424</v>
+        <v>416</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>476</v>
+        <v>468</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>314</v>
+        <v>306</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>315</v>
+        <v>307</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>408</v>
+        <v>400</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>312</v>
+        <v>304</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>320</v>
+        <v>312</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>455</v>
+        <v>447</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>318</v>
+        <v>310</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>478</v>
+        <v>470</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>407</v>
+        <v>399</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>313</v>
+        <v>305</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>334</v>
+        <v>326</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>470</v>
+        <v>462</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>97</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>107</v>
+        <v>102</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>351</v>
+        <v>343</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>91</v>
+        <v>86</v>
       </c>
     </row>
     <row r="34" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>100</v>
+        <v>95</v>
       </c>
     </row>
     <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>452</v>
+        <v>444</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>427</v>
+        <v>419</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>437</v>
+        <v>429</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>411</v>
+        <v>403</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>503</v>
+        <v>495</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
     </row>
     <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>384</v>
+        <v>376</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>433</v>
+        <v>425</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>94</v>
+        <v>89</v>
       </c>
     </row>
     <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>474</v>
+        <v>466</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>445</v>
+        <v>437</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>472</v>
+        <v>464</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>416</v>
+        <v>408</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>395</v>
+        <v>387</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>409</v>
+        <v>401</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>319</v>
+        <v>311</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>495</v>
+        <v>487</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>414</v>
+        <v>406</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>413</v>
+        <v>405</v>
       </c>
     </row>
   </sheetData>

--- a/TaxaList.xlsx
+++ b/TaxaList.xlsx
@@ -8,13 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tannerfrank/Dropbox/Work/Devonian terr ecosystems/EcolNetworks/RhynieWebRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D7F6340-06A2-5744-AA06-7C7C92CB08D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76419343-1DF1-3043-A747-F1AB1EC33B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="680" windowWidth="14400" windowHeight="16380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="14400" yWindow="680" windowWidth="14400" windowHeight="16380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="taxon list" sheetId="1" r:id="rId1"/>
+    <sheet name="draft guild list (outdated)" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -1887,9 +1887,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1062"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="55" workbookViewId="0">
+    <sheetView zoomScale="82" zoomScaleNormal="55" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="J22" sqref="J22"/>
+      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7017,8 +7017,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB8F6F8-9084-DC46-86D3-385F830BA582}">
   <dimension ref="A1:A54"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="A34" sqref="A34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="14" x14ac:dyDescent="0.15"/>

--- a/TaxaList.xlsx
+++ b/TaxaList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tannerfrank/Dropbox/Work/Devonian terr ecosystems/EcolNetworks/RhynieWebRepo/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tannerfrank/Library/CloudStorage/Dropbox/Work/Devonian terr ecosystems/EcolNetworks/RhynieWebRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{76419343-1DF1-3043-A747-F1AB1EC33B09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D565056E-FAF5-E342-8AD0-7EFADBC81E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="680" windowWidth="14400" windowHeight="16380" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38420" yWindow="5900" windowWidth="25680" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="taxon list" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1235" uniqueCount="512">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1246" uniqueCount="516">
   <si>
     <t>taxon</t>
   </si>
@@ -333,12 +333,6 @@
     <t>saprophytic on spores</t>
   </si>
   <si>
-    <t>A, T?</t>
-  </si>
-  <si>
-    <t>Krings, Serbet, and Harper 2016 (also talks about possible Lepidocaris eggs!)</t>
-  </si>
-  <si>
     <t>Brijax amictus</t>
   </si>
   <si>
@@ -532,9 +526,6 @@
   </si>
   <si>
     <t>Kerp et al. 2013</t>
-  </si>
-  <si>
-    <t>Trichophereophyton teuchansii</t>
   </si>
   <si>
     <t>Edwards 2004</t>
@@ -1036,9 +1027,6 @@
     <t>saprophyte? co-occurs with Nothia</t>
   </si>
   <si>
-    <t>Krings &amp; Harper 2019: Morphological diversity of fungal reproductive units in the Lower Devonian Rhynie and Windyfield cherts, Scotland: a new species of the genus Windipila</t>
-  </si>
-  <si>
     <t>Krings et al. 2014: First record of a fungal “sporocarp” from the Lower Devonian Rhynie chert</t>
   </si>
   <si>
@@ -1185,12 +1173,6 @@
     <t>Windpila pumila</t>
   </si>
   <si>
-    <t>Krings &amp; Harper 2018; Additional observations on the fungal
-reproductive unit Windipila spinifera from the Windyfield chert,
-and description of a similar form, Windipila pumila nov. sp., from
-the nearby Rhynie chert (Lower Devonian, Scotland).</t>
-  </si>
-  <si>
     <t>Rhyniomycelium endoconidiarum</t>
   </si>
   <si>
@@ -1435,9 +1417,6 @@
   </si>
   <si>
     <t>saprotrophic, found on Aglaophyton</t>
-  </si>
-  <si>
-    <t>Retesporangius lyonii</t>
   </si>
   <si>
     <t>saprotrophic</t>
@@ -1578,6 +1557,36 @@
   </si>
   <si>
     <t xml:space="preserve">(note this taxon is considered incertae sedis by Klimov et al 2025) Dubinin VB. 1962 Class Acaromorpha: mites or gnathosomic chelicerate arthropods. In Fundamentals of paleontology (ed. Rodendorf BB), pp. 447–473. Moscow, Russia: Academy of Science. </t>
+  </si>
+  <si>
+    <t>Kerp et al 2003</t>
+  </si>
+  <si>
+    <t>Strullu Derrien et al 2014</t>
+  </si>
+  <si>
+    <t>The sporangia of Horneophyton lignieri (Kidston and Lang) Barghoorn and Darrah</t>
+  </si>
+  <si>
+    <t>Trichopherophyton teuchansii</t>
+  </si>
+  <si>
+    <t>saprophyte; possible also endomycorrhizal with Rhynia</t>
+  </si>
+  <si>
+    <t>Krings &amp; Harper 2020: Morphological diversity of fungal reproductive units in the Lower Devonian Rhynie and Windyfield cherts, Scotland: a new species of the genus Windipila</t>
+  </si>
+  <si>
+    <t>Krings &amp; Harper 2018; Additional observations on the fungal reproductive unit Windipila spinifera from the Windyfield chert, and description of a similar form, Windipila pumila nov. sp., from 'the nearby Rhynie chert (Lower Devonian, Scotland).</t>
+  </si>
+  <si>
+    <t>Krings et al 2021</t>
+  </si>
+  <si>
+    <t>A?, T</t>
+  </si>
+  <si>
+    <t>Retesporangicus lyonii</t>
   </si>
 </sst>
 </file>
@@ -1885,11 +1894,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AB1062"/>
+  <dimension ref="A1:AB1063"/>
   <sheetViews>
-    <sheetView zoomScale="82" zoomScaleNormal="55" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B47" sqref="B47"/>
+    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1912,19 +1921,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -1959,10 +1968,10 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>398</v>
+        <v>393</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>10</v>
@@ -1991,10 +2000,10 @@
         <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
@@ -2022,7 +2031,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>10</v>
@@ -2075,7 +2084,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>432</v>
+        <v>427</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>26</v>
@@ -2095,7 +2104,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2120,7 +2129,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2137,7 +2146,7 @@
         <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2156,7 +2165,7 @@
         <v>31</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>12</v>
@@ -2173,7 +2182,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>434</v>
+        <v>429</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2187,12 +2196,12 @@
         <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>433</v>
+        <v>428</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
@@ -2445,12 +2454,12 @@
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>31</v>
@@ -2462,10 +2471,10 @@
         <v>12</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2476,12 +2485,12 @@
         <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>31</v>
@@ -2493,7 +2502,7 @@
         <v>12</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2537,7 +2546,7 @@
         <v>67</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>435</v>
+        <v>430</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>11</v>
@@ -2576,18 +2585,18 @@
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>448</v>
+        <v>443</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>454</v>
+        <v>449</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>31</v>
@@ -2599,23 +2608,23 @@
         <v>12</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>455</v>
+        <v>450</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>457</v>
+        <v>510</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>31</v>
@@ -2627,23 +2636,23 @@
         <v>12</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>31</v>
@@ -2655,23 +2664,23 @@
         <v>12</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>31</v>
@@ -2683,23 +2692,23 @@
         <v>12</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>449</v>
+        <v>444</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>384</v>
+        <v>453</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>31</v>
@@ -2711,26 +2720,26 @@
         <v>12</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>439</v>
+        <v>448</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>46</v>
+        <v>379</v>
       </c>
       <c r="G30" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H30" s="1" t="s">
         <v>11</v>
@@ -2739,19 +2748,18 @@
         <v>12</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>334</v>
-      </c>
-      <c r="K30" s="7"/>
+        <v>451</v>
+      </c>
     </row>
     <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>335</v>
+        <v>434</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>440</v>
+        <v>435</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2768,53 +2776,53 @@
         <v>12</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="K31" s="7"/>
     </row>
     <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>329</v>
+        <v>331</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>379</v>
+        <v>435</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
       <c r="F32" s="1" t="s">
-        <v>331</v>
+        <v>46</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I32" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>380</v>
-      </c>
-      <c r="K32" s="1"/>
+        <v>332</v>
+      </c>
+      <c r="K32" s="7"/>
     </row>
     <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>31</v>
@@ -2826,49 +2834,52 @@
         <v>12</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>333</v>
+        <v>376</v>
       </c>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>381</v>
+        <v>327</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
-      <c r="F34" s="1"/>
+      <c r="F34" s="1" t="s">
+        <v>329</v>
+      </c>
       <c r="G34" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H34" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I34" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J34" s="4" t="s">
-        <v>382</v>
+      <c r="J34" s="1" t="s">
+        <v>511</v>
       </c>
       <c r="K34" s="1"/>
     </row>
-    <row r="35" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>74</v>
+        <v>377</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>75</v>
+        <v>375</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
+      <c r="F35" s="1"/>
       <c r="G35" s="1" t="s">
         <v>31</v>
       </c>
@@ -2878,25 +2889,23 @@
       <c r="I35" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J35" s="1" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="36" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J35" s="4" t="s">
+        <v>512</v>
+      </c>
+      <c r="K35" s="1"/>
+    </row>
+    <row r="36" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B36" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D36" s="1"/>
       <c r="E36" s="1"/>
-      <c r="F36" s="1" t="s">
-        <v>78</v>
-      </c>
       <c r="G36" s="1" t="s">
         <v>31</v>
       </c>
@@ -2907,23 +2916,23 @@
         <v>12</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>79</v>
+        <v>305</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>81</v>
+        <v>76</v>
       </c>
       <c r="B37" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D37" s="1"/>
       <c r="E37" s="1"/>
       <c r="F37" s="1" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="G37" s="1" t="s">
         <v>31</v>
@@ -2935,12 +2944,12 @@
         <v>12</v>
       </c>
       <c r="J37" s="1" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="38" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>375</v>
+        <v>81</v>
       </c>
       <c r="B38" s="1" t="s">
         <v>73</v>
@@ -2951,7 +2960,7 @@
       <c r="D38" s="1"/>
       <c r="E38" s="1"/>
       <c r="F38" s="1" t="s">
-        <v>376</v>
+        <v>82</v>
       </c>
       <c r="G38" s="1" t="s">
         <v>31</v>
@@ -2963,29 +2972,26 @@
         <v>12</v>
       </c>
       <c r="J38" s="1" t="s">
-        <v>377</v>
-      </c>
-      <c r="K38" s="1" t="s">
-        <v>378</v>
+        <v>83</v>
       </c>
     </row>
     <row r="39" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>84</v>
+        <v>371</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>86</v>
+        <v>372</v>
       </c>
       <c r="G39" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H39" s="1" t="s">
         <v>11</v>
@@ -2994,12 +3000,15 @@
         <v>12</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>87</v>
+        <v>373</v>
+      </c>
+      <c r="K39" s="1" t="s">
+        <v>374</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>73</v>
@@ -3010,7 +3019,7 @@
       <c r="D40" s="1"/>
       <c r="E40" s="1"/>
       <c r="F40" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="G40" s="1" t="s">
         <v>10</v>
@@ -3022,12 +3031,12 @@
         <v>12</v>
       </c>
       <c r="J40" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
     </row>
     <row r="41" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>73</v>
@@ -3038,7 +3047,7 @@
       <c r="D41" s="1"/>
       <c r="E41" s="1"/>
       <c r="F41" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="G41" s="1" t="s">
         <v>10</v>
@@ -3055,7 +3064,7 @@
     </row>
     <row r="42" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>73</v>
@@ -3066,10 +3075,10 @@
       <c r="D42" s="1"/>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="H42" s="1" t="s">
         <v>11</v>
@@ -3078,12 +3087,12 @@
         <v>12</v>
       </c>
       <c r="J42" s="1" t="s">
-        <v>96</v>
+        <v>90</v>
       </c>
     </row>
     <row r="43" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>73</v>
@@ -3094,10 +3103,10 @@
       <c r="D43" s="1"/>
       <c r="E43" s="1"/>
       <c r="F43" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="H43" s="1" t="s">
         <v>11</v>
@@ -3106,12 +3115,12 @@
         <v>12</v>
       </c>
       <c r="J43" s="1" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="44" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>73</v>
@@ -3122,10 +3131,10 @@
       <c r="D44" s="1"/>
       <c r="E44" s="1"/>
       <c r="F44" s="1" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>42</v>
+        <v>514</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>11</v>
@@ -3134,12 +3143,12 @@
         <v>12</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>103</v>
+        <v>513</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>436</v>
+        <v>99</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>73</v>
@@ -3150,9 +3159,11 @@
       <c r="D45" s="1"/>
       <c r="E45" s="1"/>
       <c r="F45" s="1" t="s">
-        <v>437</v>
-      </c>
-      <c r="G45" s="1"/>
+        <v>100</v>
+      </c>
+      <c r="G45" s="1" t="s">
+        <v>42</v>
+      </c>
       <c r="H45" s="1" t="s">
         <v>11</v>
       </c>
@@ -3160,12 +3171,12 @@
         <v>12</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>438</v>
+        <v>101</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>441</v>
+        <v>431</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>73</v>
@@ -3175,9 +3186,10 @@
       </c>
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
-      <c r="G46" s="1" t="s">
-        <v>10</v>
-      </c>
+      <c r="F46" s="1" t="s">
+        <v>432</v>
+      </c>
+      <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
         <v>11</v>
       </c>
@@ -3185,12 +3197,12 @@
         <v>12</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>104</v>
+        <v>433</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>73</v>
@@ -3200,11 +3212,8 @@
       </c>
       <c r="D47" s="1"/>
       <c r="E47" s="1"/>
-      <c r="F47" s="1" t="s">
-        <v>444</v>
-      </c>
       <c r="G47" s="1" t="s">
-        <v>445</v>
+        <v>10</v>
       </c>
       <c r="H47" s="1" t="s">
         <v>11</v>
@@ -3213,26 +3222,26 @@
         <v>12</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>443</v>
+        <v>102</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>342</v>
+        <v>437</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>341</v>
+        <v>85</v>
       </c>
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>343</v>
+        <v>439</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>10</v>
+        <v>440</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>11</v>
@@ -3240,27 +3249,27 @@
       <c r="I48" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J48" s="4" t="s">
-        <v>344</v>
+      <c r="J48" s="1" t="s">
+        <v>438</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>127</v>
+        <v>338</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>446</v>
+        <v>337</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>128</v>
+        <v>339</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="H49" s="1" t="s">
         <v>11</v>
@@ -3268,24 +3277,24 @@
       <c r="I49" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J49" s="1" t="s">
-        <v>129</v>
+      <c r="J49" s="4" t="s">
+        <v>340</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>105</v>
+        <v>125</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>106</v>
+        <v>441</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>470</v>
+        <v>126</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>31</v>
@@ -3297,23 +3306,23 @@
         <v>12</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>107</v>
+        <v>127</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>310</v>
+        <v>464</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>31</v>
@@ -3325,23 +3334,23 @@
         <v>12</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>109</v>
+        <v>105</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>110</v>
+        <v>106</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>31</v>
@@ -3353,23 +3362,23 @@
         <v>12</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>111</v>
+        <v>107</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>78</v>
+        <v>308</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>31</v>
@@ -3381,23 +3390,23 @@
         <v>12</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
       <c r="F54" s="1" t="s">
-        <v>312</v>
+        <v>78</v>
       </c>
       <c r="G54" s="1" t="s">
         <v>31</v>
@@ -3409,79 +3418,79 @@
         <v>12</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>321</v>
+        <v>112</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>322</v>
+        <v>113</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>497</v>
+        <v>309</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H55" s="1" t="s">
-        <v>323</v>
+        <v>11</v>
       </c>
       <c r="I55" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>324</v>
+        <v>114</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>309</v>
+        <v>318</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>461</v>
+        <v>319</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>464</v>
+        <v>491</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>11</v>
+        <v>320</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>93</v>
+        <v>321</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>465</v>
+        <v>306</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>461</v>
+        <v>456</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>466</v>
+        <v>459</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>31</v>
@@ -3493,23 +3502,23 @@
         <v>12</v>
       </c>
       <c r="J57" s="1" t="s">
-        <v>467</v>
+        <v>93</v>
       </c>
     </row>
     <row r="58" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>459</v>
+        <v>515</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>31</v>
@@ -3521,23 +3530,23 @@
         <v>12</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>471</v>
+        <v>454</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>472</v>
+        <v>455</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>474</v>
+        <v>457</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>31</v>
@@ -3549,26 +3558,26 @@
         <v>12</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>473</v>
+        <v>458</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>383</v>
+        <v>465</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>478</v>
+        <v>466</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>384</v>
+        <v>468</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="H60" s="1" t="s">
         <v>11</v>
@@ -3577,23 +3586,23 @@
         <v>12</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>385</v>
+        <v>467</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>325</v>
+        <v>378</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>477</v>
+        <v>472</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>326</v>
+        <v>379</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>31</v>
@@ -3605,29 +3614,26 @@
         <v>12</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>327</v>
-      </c>
-      <c r="K61" s="7" t="s">
-        <v>328</v>
+        <v>380</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>338</v>
+        <v>322</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>469</v>
+        <v>471</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>468</v>
+        <v>323</v>
       </c>
       <c r="G62" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H62" s="1" t="s">
         <v>11</v>
@@ -3636,27 +3642,29 @@
         <v>12</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>337</v>
-      </c>
-      <c r="K62" s="7"/>
+        <v>324</v>
+      </c>
+      <c r="K62" s="7" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="63" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>117</v>
+        <v>334</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>118</v>
+        <v>463</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>119</v>
+        <v>462</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="H63" s="1" t="s">
         <v>11</v>
@@ -3665,26 +3673,27 @@
         <v>12</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>120</v>
-      </c>
+        <v>333</v>
+      </c>
+      <c r="K63" s="7"/>
     </row>
     <row r="64" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>121</v>
+        <v>115</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="H64" s="1" t="s">
         <v>11</v>
@@ -3693,26 +3702,26 @@
         <v>12</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
       <c r="F65" s="1" t="s">
-        <v>384</v>
+        <v>82</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>475</v>
+        <v>42</v>
       </c>
       <c r="H65" s="1" t="s">
         <v>11</v>
@@ -3721,26 +3730,26 @@
         <v>12</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>384</v>
+        <v>379</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>476</v>
+        <v>469</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>11</v>
@@ -3749,18 +3758,26 @@
         <v>12</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>411</v>
+        <v>123</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>413</v>
+        <v>73</v>
+      </c>
+      <c r="C67" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D67" s="1"/>
+      <c r="E67" s="1"/>
+      <c r="F67" s="1" t="s">
+        <v>379</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>31</v>
+        <v>470</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>11</v>
@@ -3769,26 +3786,18 @@
         <v>12</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>393</v>
-      </c>
-      <c r="K67" s="1" t="s">
-        <v>394</v>
+        <v>124</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>414</v>
-      </c>
-      <c r="C68" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="D68" s="1"/>
-      <c r="E68" s="1"/>
+        <v>408</v>
+      </c>
       <c r="G68" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H68" s="1" t="s">
         <v>11</v>
@@ -3797,27 +3806,26 @@
         <v>12</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>415</v>
-      </c>
-      <c r="K68" s="1"/>
+        <v>388</v>
+      </c>
+      <c r="K68" s="1" t="s">
+        <v>389</v>
+      </c>
     </row>
     <row r="69" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>130</v>
+        <v>407</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>131</v>
+        <v>409</v>
       </c>
       <c r="C69" s="1" t="s">
-        <v>404</v>
+        <v>46</v>
       </c>
       <c r="D69" s="1"/>
       <c r="E69" s="1"/>
-      <c r="F69" s="1" t="s">
-        <v>132</v>
-      </c>
       <c r="G69" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="H69" s="1" t="s">
         <v>11</v>
@@ -3826,83 +3834,81 @@
         <v>12</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>133</v>
-      </c>
+        <v>410</v>
+      </c>
+      <c r="K69" s="1"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>484</v>
+        <v>128</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>485</v>
-      </c>
-      <c r="C70" s="1"/>
+        <v>129</v>
+      </c>
+      <c r="C70" s="1" t="s">
+        <v>399</v>
+      </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>487</v>
+        <v>130</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H70" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I70" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J70" s="4" t="s">
-        <v>486</v>
-      </c>
-      <c r="K70" s="1" t="s">
-        <v>488</v>
+      <c r="J70" s="1" t="s">
+        <v>131</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>339</v>
+        <v>478</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>396</v>
-      </c>
-      <c r="C71" s="1" t="s">
-        <v>395</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>408</v>
+        <v>481</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H71" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I71" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>344</v>
-      </c>
-      <c r="K71" s="7" t="s">
-        <v>340</v>
+        <v>480</v>
+      </c>
+      <c r="K71" s="1" t="s">
+        <v>482</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>134</v>
+        <v>335</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>135</v>
+        <v>391</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>136</v>
+        <v>390</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>10</v>
@@ -3913,24 +3919,27 @@
       <c r="I72" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J72" s="1" t="s">
-        <v>137</v>
+      <c r="J72" s="4" t="s">
+        <v>340</v>
+      </c>
+      <c r="K72" s="7" t="s">
+        <v>336</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
-        <v>409</v>
+        <v>132</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C73" s="1" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>410</v>
+        <v>395</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>10</v>
@@ -3942,23 +3951,23 @@
         <v>12</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>140</v>
+        <v>404</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>416</v>
+        <v>405</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>10</v>
@@ -3970,23 +3979,23 @@
         <v>12</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>142</v>
+        <v>136</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>406</v>
+        <v>411</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>10</v>
@@ -3998,26 +4007,23 @@
         <v>12</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>143</v>
-      </c>
-      <c r="K75" t="s">
-        <v>407</v>
+        <v>137</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>313</v>
+        <v>139</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>314</v>
+        <v>133</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>418</v>
+        <v>140</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>419</v>
+        <v>401</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>10</v>
@@ -4029,26 +4035,26 @@
         <v>12</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>316</v>
-      </c>
-      <c r="K76" s="7" t="s">
-        <v>315</v>
+        <v>141</v>
+      </c>
+      <c r="K76" t="s">
+        <v>402</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>317</v>
+        <v>310</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>135</v>
+        <v>311</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>397</v>
+        <v>413</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>405</v>
+        <v>414</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>10</v>
@@ -4060,23 +4066,26 @@
         <v>12</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>318</v>
+        <v>313</v>
+      </c>
+      <c r="K77" s="7" t="s">
+        <v>312</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>144</v>
+        <v>314</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>145</v>
+        <v>392</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>420</v>
+        <v>400</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>10</v>
@@ -4088,26 +4097,26 @@
         <v>12</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>146</v>
+        <v>315</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>148</v>
+        <v>133</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>149</v>
+        <v>143</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>150</v>
+        <v>415</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="H79" s="1" t="s">
         <v>11</v>
@@ -4116,51 +4125,51 @@
         <v>12</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>151</v>
+        <v>144</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
-        <v>152</v>
+        <v>145</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>153</v>
+        <v>147</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
+        <v>148</v>
+      </c>
+      <c r="G80" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I80" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="J80" s="1" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="81" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
         <v>150</v>
       </c>
-      <c r="G80" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="H80" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="I80" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="J80" s="1" t="s">
-        <v>154</v>
-      </c>
-    </row>
-    <row r="81" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A81" s="1" t="s">
-        <v>155</v>
-      </c>
       <c r="B81" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>31</v>
@@ -4172,23 +4181,23 @@
         <v>12</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="82" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>31</v>
@@ -4200,23 +4209,32 @@
         <v>12</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>160</v>
-      </c>
-    </row>
-    <row r="83" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>155</v>
+      </c>
+      <c r="K82" s="1" t="s">
+        <v>506</v>
+      </c>
+      <c r="L82" s="1" t="s">
+        <v>507</v>
+      </c>
+      <c r="M82" s="1" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>31</v>
@@ -4228,23 +4246,23 @@
         <v>12</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>162</v>
-      </c>
-    </row>
-    <row r="84" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>164</v>
+        <v>157</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>31</v>
@@ -4256,23 +4274,23 @@
         <v>12</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>165</v>
-      </c>
-    </row>
-    <row r="85" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>31</v>
@@ -4284,26 +4302,26 @@
         <v>12</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="86" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>168</v>
+        <v>509</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>170</v>
+        <v>157</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>482</v>
+        <v>148</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H86" s="1" t="s">
         <v>11</v>
@@ -4312,26 +4330,26 @@
         <v>12</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>171</v>
-      </c>
-    </row>
-    <row r="87" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A87" s="8" t="s">
-        <v>479</v>
+        <v>164</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>165</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>481</v>
+        <v>166</v>
       </c>
       <c r="C87" s="1" t="s">
-        <v>480</v>
+        <v>167</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="H87" s="1" t="s">
         <v>11</v>
@@ -4340,26 +4358,26 @@
         <v>12</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="88" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A88" s="1" t="s">
-        <v>172</v>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="8" t="s">
+        <v>473</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>173</v>
+        <v>475</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>174</v>
+        <v>474</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>426</v>
+        <v>476</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>10</v>
+        <v>31</v>
       </c>
       <c r="H88" s="1" t="s">
         <v>11</v>
@@ -4368,26 +4386,26 @@
         <v>12</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>175</v>
-      </c>
-    </row>
-    <row r="89" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>477</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
-        <v>176</v>
+        <v>169</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C89" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G89" s="1" t="s">
-        <v>424</v>
+        <v>10</v>
       </c>
       <c r="H89" s="1" t="s">
         <v>11</v>
@@ -4396,29 +4414,26 @@
         <v>12</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>422</v>
-      </c>
-      <c r="K89" t="s">
-        <v>423</v>
-      </c>
-    </row>
-    <row r="90" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>491</v>
+        <v>173</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>489</v>
+        <v>420</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>10</v>
+        <v>419</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>11</v>
@@ -4427,26 +4442,29 @@
         <v>12</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>490</v>
-      </c>
-    </row>
-    <row r="91" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>417</v>
+      </c>
+      <c r="K90" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>177</v>
+        <v>485</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>493</v>
+        <v>171</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>427</v>
+        <v>483</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>498</v>
+        <v>10</v>
       </c>
       <c r="H91" s="1" t="s">
         <v>11</v>
@@ -4455,26 +4473,26 @@
         <v>12</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>492</v>
-      </c>
-    </row>
-    <row r="92" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>392</v>
+        <v>174</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>390</v>
+        <v>487</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>403</v>
+        <v>422</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>10</v>
+        <v>492</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>11</v>
@@ -4483,23 +4501,23 @@
         <v>12</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>391</v>
-      </c>
-    </row>
-    <row r="93" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>486</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>178</v>
+        <v>387</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>174</v>
+        <v>385</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>428</v>
+        <v>398</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>10</v>
@@ -4511,85 +4529,85 @@
         <v>12</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="94" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>319</v>
+        <v>175</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H94" s="1" t="s">
-        <v>19</v>
+        <v>11</v>
       </c>
       <c r="I94" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>320</v>
-      </c>
-      <c r="K94" s="7" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="95" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>180</v>
+        <v>316</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>181</v>
+        <v>171</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H95" s="1" t="s">
-        <v>11</v>
+        <v>19</v>
       </c>
       <c r="I95" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="96" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>317</v>
+      </c>
+      <c r="K95" s="7" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>432</v>
+        <v>10</v>
       </c>
       <c r="H96" s="1" t="s">
         <v>11</v>
@@ -4598,26 +4616,26 @@
         <v>12</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>174</v>
+        <v>181</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>402</v>
+        <v>426</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>10</v>
+        <v>427</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>11</v>
@@ -4626,23 +4644,23 @@
         <v>12</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>189</v>
+        <v>171</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
-        <v>417</v>
+        <v>397</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>10</v>
@@ -4654,23 +4672,23 @@
         <v>12</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>386</v>
+        <v>185</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>46</v>
+        <v>186</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
-        <v>387</v>
+        <v>412</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>10</v>
@@ -4681,22 +4699,24 @@
       <c r="I99" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J99" s="4" t="s">
-        <v>388</v>
-      </c>
-      <c r="K99" s="1" t="s">
-        <v>389</v>
+      <c r="J99" s="1" t="s">
+        <v>187</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>421</v>
+        <v>381</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>173</v>
-      </c>
+        <v>170</v>
+      </c>
+      <c r="C100" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D100" s="1"/>
+      <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
-        <v>191</v>
+        <v>382</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>10</v>
@@ -4707,452 +4727,450 @@
       <c r="I100" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="J100" s="1" t="s">
-        <v>175</v>
+      <c r="J100" s="4" t="s">
+        <v>383</v>
+      </c>
+      <c r="K100" s="1" t="s">
+        <v>384</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>194</v>
+        <v>416</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C101" s="1" t="s">
-        <v>196</v>
-      </c>
-      <c r="D101" s="1"/>
-      <c r="E101" s="1"/>
+        <v>170</v>
+      </c>
       <c r="F101" s="1" t="s">
-        <v>199</v>
+        <v>188</v>
       </c>
       <c r="G101" s="1" t="s">
-        <v>198</v>
+        <v>10</v>
       </c>
       <c r="H101" s="1" t="s">
-        <v>192</v>
+        <v>11</v>
       </c>
       <c r="I101" s="1" t="s">
-        <v>200</v>
+        <v>12</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>224</v>
+        <v>172</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="B102" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="C102" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="B102" s="1" t="s">
-        <v>197</v>
-      </c>
-      <c r="C102" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
-        <v>349</v>
+        <v>190</v>
       </c>
       <c r="B103" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>357</v>
+        <v>193</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>10</v>
+        <v>195</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>361</v>
-      </c>
-      <c r="K103" t="s">
-        <v>359</v>
+        <v>221</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>350</v>
+        <v>345</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="K104" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>351</v>
+        <v>346</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>364</v>
+        <v>353</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
-        <v>370</v>
+        <v>196</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>369</v>
+        <v>357</v>
       </c>
       <c r="K105" t="s">
-        <v>371</v>
+        <v>355</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>352</v>
+        <v>347</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="K106" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>353</v>
+        <v>348</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>365</v>
+        <v>360</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
-        <v>199</v>
+        <v>366</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>358</v>
+        <v>365</v>
+      </c>
+      <c r="K107" t="s">
+        <v>367</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>222</v>
+        <v>349</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
-        <v>227</v>
+        <v>196</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>223</v>
-      </c>
-    </row>
-    <row r="109" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="109" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>347</v>
+        <v>219</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
-        <v>367</v>
+        <v>224</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="110" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="110" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>348</v>
+        <v>343</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
-        <v>368</v>
+        <v>363</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>369</v>
-      </c>
-      <c r="K110" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>221</v>
+        <v>344</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>195</v>
+        <v>359</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1" t="s">
-        <v>230</v>
+        <v>364</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>225</v>
+        <v>365</v>
       </c>
       <c r="K111" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>235</v>
+        <v>218</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>234</v>
+        <v>192</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1" t="s">
-        <v>242</v>
+        <v>227</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="J112" s="4" t="s">
-        <v>236</v>
+        <v>197</v>
+      </c>
+      <c r="J112" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="K112" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>345</v>
+        <v>232</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>346</v>
+        <v>231</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1" t="s">
-        <v>242</v>
+        <v>239</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J113" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="K113" t="s">
         <v>362</v>
-      </c>
-      <c r="K113" s="1" t="s">
-        <v>360</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>219</v>
+        <v>341</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>228</v>
+        <v>342</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1" t="s">
-        <v>227</v>
+        <v>239</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>200</v>
-      </c>
-      <c r="J114" s="1" t="s">
-        <v>225</v>
+        <v>197</v>
+      </c>
+      <c r="J114" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="K114" s="1" t="s">
+        <v>356</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -5160,182 +5178,181 @@
         <v>217</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>218</v>
+        <v>222</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>354</v>
+        <v>214</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>8</v>
+        <v>194</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>372</v>
+        <v>226</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1" t="s">
-        <v>373</v>
+        <v>223</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>369</v>
+        <v>215</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>241</v>
+        <v>350</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>231</v>
+        <v>368</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1" t="s">
-        <v>243</v>
+        <v>369</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>232</v>
+        <v>365</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>244</v>
+        <v>228</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1" t="s">
-        <v>46</v>
+        <v>240</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>245</v>
+        <v>229</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>239</v>
+        <v>230</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
       <c r="F120" s="1" t="s">
-        <v>240</v>
+        <v>46</v>
       </c>
       <c r="G120" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>238</v>
-      </c>
-      <c r="K120" s="3" t="s">
-        <v>355</v>
+        <v>242</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>246</v>
+        <v>236</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>249</v>
+        <v>234</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
-        <v>255</v>
+        <v>237</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>256</v>
-      </c>
-      <c r="K121" s="3"/>
+        <v>235</v>
+      </c>
+      <c r="K121" s="3" t="s">
+        <v>351</v>
+      </c>
     </row>
     <row r="122" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
@@ -5346,10 +5363,10 @@
         <v>10</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J122" s="1" t="s">
         <v>253</v>
@@ -5358,422 +5375,428 @@
     </row>
     <row r="123" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
-        <v>254</v>
+        <v>249</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>253</v>
-      </c>
+        <v>250</v>
+      </c>
+      <c r="K123" s="3"/>
     </row>
     <row r="124" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>356</v>
+        <v>245</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>251</v>
+        <v>248</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
-        <v>254</v>
+        <v>251</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>374</v>
+        <v>250</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>201</v>
+        <v>352</v>
       </c>
       <c r="B125" s="1" t="s">
-        <v>148</v>
+        <v>8</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>210</v>
+        <v>248</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1" t="s">
-        <v>214</v>
+        <v>251</v>
       </c>
       <c r="G125" s="1" t="s">
-        <v>31</v>
+        <v>10</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>216</v>
-      </c>
-      <c r="K125" s="3" t="s">
-        <v>215</v>
+        <v>370</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>159</v>
+        <v>207</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
+      </c>
+      <c r="K126" s="3" t="s">
+        <v>212</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>211</v>
+        <v>157</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>205</v>
+        <v>201</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>148</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>212</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>265</v>
+        <v>206</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>8</v>
+        <v>146</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>269</v>
+        <v>209</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1" t="s">
-        <v>268</v>
+        <v>211</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>286</v>
+        <v>189</v>
+      </c>
+      <c r="I134" s="1" t="s">
+        <v>197</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>267</v>
+        <v>213</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1" t="s">
-        <v>270</v>
+        <v>265</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>275</v>
+        <v>268</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>298</v>
+        <v>269</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>280</v>
+        <v>272</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>277</v>
+        <v>295</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
-      <c r="F137" s="1"/>
+      <c r="F137" s="1" t="s">
+        <v>265</v>
+      </c>
       <c r="G137" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>284</v>
+        <v>273</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -5782,21 +5805,21 @@
         <v>31</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -5805,21 +5828,21 @@
         <v>31</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -5828,21 +5851,21 @@
         <v>31</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -5851,62 +5874,62 @@
         <v>31</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>287</v>
+        <v>278</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>8</v>
       </c>
+      <c r="C142" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="D142" s="1"/>
+      <c r="E142" s="1"/>
       <c r="F142" s="1"/>
       <c r="G142" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="C143" s="1" t="s">
-        <v>300</v>
-      </c>
-      <c r="D143" s="1"/>
-      <c r="E143" s="1"/>
       <c r="F143" s="1"/>
       <c r="G143" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H143" s="1" t="s">
-        <v>286</v>
-      </c>
-      <c r="J143" t="s">
-        <v>289</v>
+        <v>283</v>
+      </c>
+      <c r="J143" s="1" t="s">
+        <v>287</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>52</v>
+        <v>297</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -5915,15 +5938,15 @@
         <v>31</v>
       </c>
       <c r="H144" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="J144" t="s">
         <v>286</v>
-      </c>
-      <c r="J144" s="1" t="s">
-        <v>299</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>8</v>
@@ -5933,19 +5956,20 @@
       </c>
       <c r="D145" s="1"/>
       <c r="E145" s="1"/>
+      <c r="F145" s="1"/>
       <c r="G145" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>295</v>
+        <v>290</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>8</v>
@@ -5959,15 +5983,15 @@
         <v>31</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>297</v>
+        <v>292</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>8</v>
@@ -5981,15 +6005,15 @@
         <v>31</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>8</v>
@@ -6003,15 +6027,15 @@
         <v>31</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>8</v>
@@ -6025,83 +6049,104 @@
         <v>31</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>274</v>
-      </c>
-      <c r="B150" s="1"/>
+        <v>291</v>
+      </c>
+      <c r="B150" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C150" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D150" s="1"/>
+      <c r="E150" s="1"/>
+      <c r="G150" s="1" t="s">
+        <v>31</v>
+      </c>
       <c r="H150" s="1" t="s">
-        <v>257</v>
-      </c>
-      <c r="I150" s="1" t="s">
-        <v>258</v>
+        <v>283</v>
+      </c>
+      <c r="J150" s="1" t="s">
+        <v>296</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>301</v>
+        <v>271</v>
       </c>
       <c r="B151" s="1"/>
       <c r="H151" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>259</v>
-      </c>
-      <c r="B152" s="1" t="s">
-        <v>260</v>
-      </c>
-      <c r="G152" s="1" t="s">
-        <v>10</v>
-      </c>
+        <v>298</v>
+      </c>
+      <c r="B152" s="1"/>
       <c r="H152" s="1" t="s">
-        <v>257</v>
+        <v>254</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>258</v>
+        <v>255</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>262</v>
-      </c>
-      <c r="B153" s="1"/>
-      <c r="G153" s="1"/>
+        <v>256</v>
+      </c>
+      <c r="B153" s="1" t="s">
+        <v>257</v>
+      </c>
+      <c r="G153" s="1" t="s">
+        <v>10</v>
+      </c>
       <c r="H153" s="1" t="s">
-        <v>261</v>
-      </c>
-      <c r="I153" s="1"/>
-      <c r="J153" t="s">
-        <v>266</v>
+        <v>254</v>
+      </c>
+      <c r="I153" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A154" s="1" t="s">
+        <v>259</v>
+      </c>
       <c r="B154" s="1"/>
+      <c r="G154" s="1"/>
       <c r="H154" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="I154" s="1"/>
+      <c r="J154" t="s">
         <v>263</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="1"/>
       <c r="H155" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="1"/>
-    </row>
-    <row r="157" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+      <c r="H156" s="1" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B157" s="1"/>
+    </row>
     <row r="158" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="159" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="160" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -7007,6 +7052,7 @@
     <row r="1060" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1061" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
     <row r="1062" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
+    <row r="1063" ht="14.25" customHeight="1" x14ac:dyDescent="0.15"/>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -7017,7 +7063,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DB8F6F8-9084-DC46-86D3-385F830BA582}">
   <dimension ref="A1:A54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="A2" workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -7028,32 +7074,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>430</v>
+        <v>425</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>431</v>
+        <v>426</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>417</v>
+        <v>412</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.2">
@@ -7063,112 +7109,112 @@
     </row>
     <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>457</v>
+        <v>452</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>458</v>
+        <v>453</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>420</v>
+        <v>415</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>426</v>
+        <v>421</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>427</v>
+        <v>422</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>410</v>
+        <v>405</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>416</v>
+        <v>411</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>306</v>
+        <v>303</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>307</v>
+        <v>304</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>400</v>
+        <v>395</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>312</v>
+        <v>309</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>447</v>
+        <v>442</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>310</v>
+        <v>307</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>399</v>
+        <v>394</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>326</v>
+        <v>323</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>462</v>
+        <v>457</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.2">
@@ -7178,12 +7224,12 @@
     </row>
     <row r="31" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
     </row>
     <row r="32" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.2">
@@ -7198,27 +7244,27 @@
     </row>
     <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>444</v>
+        <v>439</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>419</v>
+        <v>414</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>429</v>
+        <v>424</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>403</v>
+        <v>398</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.2">
@@ -7228,12 +7274,12 @@
     </row>
     <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>425</v>
+        <v>420</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.2">
@@ -7243,57 +7289,57 @@
     </row>
     <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>437</v>
+        <v>432</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>464</v>
+        <v>459</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>408</v>
+        <v>403</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>387</v>
+        <v>382</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>401</v>
+        <v>396</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>311</v>
+        <v>308</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>406</v>
+        <v>401</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>405</v>
+        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/TaxaList.xlsx
+++ b/TaxaList.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10727"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/tannerfrank/Library/CloudStorage/Dropbox/Work/Devonian terr ecosystems/EcolNetworks/RhynieWebRepo/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D565056E-FAF5-E342-8AD0-7EFADBC81E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2F59C6F-4228-D84A-B481-11665DFC84A9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-38420" yWindow="5900" windowWidth="25680" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-38420" yWindow="5900" windowWidth="38420" windowHeight="21100" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="taxon list" sheetId="1" r:id="rId1"/>
@@ -339,9 +339,6 @@
     <t>parasitic on other fungal/algal spores?</t>
   </si>
   <si>
-    <t>Krings and Harper 2020</t>
-  </si>
-  <si>
     <t>Strullu-Derrien et al. 2016</t>
   </si>
   <si>
@@ -369,9 +366,6 @@
     <t>Palaeoglomus boullardi</t>
   </si>
   <si>
-    <t>Strullu-Derrien and Strullu 2014</t>
-  </si>
-  <si>
     <t>Archaeosporites rhyniensis</t>
   </si>
   <si>
@@ -573,16 +567,10 @@
     <t>Cyanobacteria, Oscillatoriaceae?</t>
   </si>
   <si>
-    <t>Krings 2019</t>
-  </si>
-  <si>
     <t>Rhystigonema obscurum</t>
   </si>
   <si>
     <t>Cyanobacteria, Stigoneematacea</t>
-  </si>
-  <si>
-    <t>Krings 2021</t>
   </si>
   <si>
     <t>Rhyniococcus uniformis</t>
@@ -1587,6 +1575,18 @@
   </si>
   <si>
     <t>Retesporangicus lyonii</t>
+  </si>
+  <si>
+    <t>Strullu-Derrien and Strullu 2014 Fungal associations in Horneophyton ligneri from the Rhynie Chert (c. 407 million year old) closely resemble those in extant lower land plants: Novel insights into ancestral plant-fungus symbioses</t>
+  </si>
+  <si>
+    <t>Krings and Harper 2020 Decipherint interfungal relationships</t>
+  </si>
+  <si>
+    <t>Krings 2019: Palaeolyngbya kerpii sp. nov., a large filamentous cyanobacterium with affinities to Oscillatoriaceae from the Lower Devonian Rhynie chert</t>
+  </si>
+  <si>
+    <t>Krings 2021: Stigonema (Nostocales, Cyanobacteria) in the Rhynie chert (Lower Devonian, Scotland)</t>
   </si>
 </sst>
 </file>
@@ -1896,9 +1896,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AB1063"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="95" zoomScaleNormal="95" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A19" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F29" sqref="F29"/>
+    <sheetView tabSelected="1" zoomScale="148" zoomScaleNormal="148" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="12.5" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.15"/>
@@ -1921,19 +1921,19 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>494</v>
+        <v>490</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>495</v>
+        <v>491</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>496</v>
+        <v>492</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>497</v>
+        <v>493</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>1</v>
@@ -1968,10 +1968,10 @@
         <v>26</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>498</v>
+        <v>494</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>393</v>
+        <v>389</v>
       </c>
       <c r="G2" s="1" t="s">
         <v>10</v>
@@ -2000,10 +2000,10 @@
         <v>27</v>
       </c>
       <c r="E3" s="1" t="s">
-        <v>499</v>
+        <v>495</v>
       </c>
       <c r="F3" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
       <c r="G3" s="1" t="s">
         <v>10</v>
@@ -2031,7 +2031,7 @@
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
       <c r="G4" s="1" t="s">
         <v>10</v>
@@ -2084,7 +2084,7 @@
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="G6" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H6" s="1" t="s">
         <v>26</v>
@@ -2104,7 +2104,7 @@
         <v>8</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
       <c r="D7" s="1"/>
       <c r="E7" s="1"/>
@@ -2129,7 +2129,7 @@
         <v>8</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D8" s="1"/>
       <c r="E8" s="1"/>
@@ -2146,7 +2146,7 @@
         <v>12</v>
       </c>
       <c r="J8" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="9" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2165,7 +2165,7 @@
         <v>31</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>500</v>
+        <v>496</v>
       </c>
       <c r="I9" s="1" t="s">
         <v>12</v>
@@ -2182,7 +2182,7 @@
         <v>8</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>429</v>
+        <v>425</v>
       </c>
       <c r="D10" s="1"/>
       <c r="E10" s="1"/>
@@ -2196,12 +2196,12 @@
         <v>12</v>
       </c>
       <c r="J10" s="1" t="s">
-        <v>428</v>
+        <v>424</v>
       </c>
     </row>
     <row r="11" spans="1:28" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>490</v>
+        <v>486</v>
       </c>
       <c r="B11" s="1" t="s">
         <v>8</v>
@@ -2454,12 +2454,12 @@
         <v>8</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>503</v>
+        <v>499</v>
       </c>
       <c r="D20" s="1"/>
       <c r="E20" s="1"/>
       <c r="F20" s="1" t="s">
-        <v>504</v>
+        <v>500</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>31</v>
@@ -2471,10 +2471,10 @@
         <v>12</v>
       </c>
       <c r="J20" s="1" t="s">
-        <v>501</v>
+        <v>497</v>
       </c>
       <c r="K20" s="1" t="s">
-        <v>502</v>
+        <v>498</v>
       </c>
     </row>
     <row r="21" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2485,12 +2485,12 @@
         <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
       <c r="D21" s="1"/>
       <c r="E21" s="1"/>
       <c r="F21" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>31</v>
@@ -2502,7 +2502,7 @@
         <v>12</v>
       </c>
       <c r="J21" s="1" t="s">
-        <v>505</v>
+        <v>501</v>
       </c>
     </row>
     <row r="22" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2546,7 +2546,7 @@
         <v>67</v>
       </c>
       <c r="G23" s="1" t="s">
-        <v>430</v>
+        <v>426</v>
       </c>
       <c r="H23" s="1" t="s">
         <v>11</v>
@@ -2585,18 +2585,18 @@
     </row>
     <row r="25" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>443</v>
+        <v>439</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D25" s="1"/>
       <c r="E25" s="1"/>
       <c r="F25" s="1" t="s">
-        <v>449</v>
+        <v>445</v>
       </c>
       <c r="G25" s="1" t="s">
         <v>31</v>
@@ -2608,23 +2608,23 @@
         <v>12</v>
       </c>
       <c r="J25" s="1" t="s">
-        <v>450</v>
+        <v>446</v>
       </c>
     </row>
     <row r="26" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D26" s="1"/>
       <c r="E26" s="1"/>
       <c r="F26" s="1" t="s">
-        <v>510</v>
+        <v>506</v>
       </c>
       <c r="G26" s="1" t="s">
         <v>31</v>
@@ -2636,23 +2636,23 @@
         <v>12</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="27" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>445</v>
+        <v>441</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1"/>
       <c r="F27" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G27" s="1" t="s">
         <v>31</v>
@@ -2664,23 +2664,23 @@
         <v>12</v>
       </c>
       <c r="J27" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="28" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>446</v>
+        <v>442</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D28" s="1"/>
       <c r="E28" s="1"/>
       <c r="F28" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
       <c r="G28" s="1" t="s">
         <v>31</v>
@@ -2692,23 +2692,23 @@
         <v>12</v>
       </c>
       <c r="J28" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="29" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>447</v>
+        <v>443</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D29" s="1"/>
       <c r="E29" s="1"/>
       <c r="F29" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
       <c r="G29" s="1" t="s">
         <v>31</v>
@@ -2720,23 +2720,23 @@
         <v>12</v>
       </c>
       <c r="J29" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="30" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>448</v>
+        <v>444</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>444</v>
+        <v>440</v>
       </c>
       <c r="D30" s="1"/>
       <c r="E30" s="1"/>
       <c r="F30" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G30" s="1" t="s">
         <v>31</v>
@@ -2748,18 +2748,18 @@
         <v>12</v>
       </c>
       <c r="J30" s="1" t="s">
-        <v>451</v>
+        <v>447</v>
       </c>
     </row>
     <row r="31" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>434</v>
+        <v>430</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D31" s="1"/>
       <c r="E31" s="1"/>
@@ -2776,19 +2776,19 @@
         <v>12</v>
       </c>
       <c r="J31" s="1" t="s">
-        <v>330</v>
+        <v>326</v>
       </c>
       <c r="K31" s="7"/>
     </row>
     <row r="32" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>331</v>
+        <v>327</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>435</v>
+        <v>431</v>
       </c>
       <c r="D32" s="1"/>
       <c r="E32" s="1"/>
@@ -2805,24 +2805,24 @@
         <v>12</v>
       </c>
       <c r="J32" s="1" t="s">
-        <v>332</v>
+        <v>328</v>
       </c>
       <c r="K32" s="7"/>
     </row>
     <row r="33" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>326</v>
+        <v>322</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D33" s="1"/>
       <c r="E33" s="1"/>
       <c r="F33" s="1" t="s">
-        <v>328</v>
+        <v>324</v>
       </c>
       <c r="G33" s="1" t="s">
         <v>31</v>
@@ -2834,24 +2834,24 @@
         <v>12</v>
       </c>
       <c r="J33" s="1" t="s">
-        <v>376</v>
+        <v>372</v>
       </c>
       <c r="K33" s="1"/>
     </row>
     <row r="34" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>327</v>
+        <v>323</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C34" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D34" s="1"/>
       <c r="E34" s="1"/>
       <c r="F34" s="1" t="s">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="G34" s="1" t="s">
         <v>31</v>
@@ -2863,19 +2863,19 @@
         <v>12</v>
       </c>
       <c r="J34" s="1" t="s">
-        <v>511</v>
+        <v>507</v>
       </c>
       <c r="K34" s="1"/>
     </row>
     <row r="35" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>377</v>
+        <v>373</v>
       </c>
       <c r="B35" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>375</v>
+        <v>371</v>
       </c>
       <c r="D35" s="1"/>
       <c r="E35" s="1"/>
@@ -2890,7 +2890,7 @@
         <v>12</v>
       </c>
       <c r="J35" s="4" t="s">
-        <v>512</v>
+        <v>508</v>
       </c>
       <c r="K35" s="1"/>
     </row>
@@ -2916,7 +2916,7 @@
         <v>12</v>
       </c>
       <c r="J36" s="1" t="s">
-        <v>305</v>
+        <v>301</v>
       </c>
     </row>
     <row r="37" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -2977,7 +2977,7 @@
     </row>
     <row r="39" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>371</v>
+        <v>367</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>73</v>
@@ -2988,7 +2988,7 @@
       <c r="D39" s="1"/>
       <c r="E39" s="1"/>
       <c r="F39" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
       <c r="G39" s="1" t="s">
         <v>31</v>
@@ -3000,10 +3000,10 @@
         <v>12</v>
       </c>
       <c r="J39" s="1" t="s">
-        <v>373</v>
+        <v>369</v>
       </c>
       <c r="K39" s="1" t="s">
-        <v>374</v>
+        <v>370</v>
       </c>
     </row>
     <row r="40" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3134,7 +3134,7 @@
         <v>98</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>514</v>
+        <v>510</v>
       </c>
       <c r="H44" s="1" t="s">
         <v>11</v>
@@ -3143,7 +3143,7 @@
         <v>12</v>
       </c>
       <c r="J44" s="1" t="s">
-        <v>513</v>
+        <v>509</v>
       </c>
     </row>
     <row r="45" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -3171,12 +3171,12 @@
         <v>12</v>
       </c>
       <c r="J45" s="1" t="s">
-        <v>101</v>
+        <v>513</v>
       </c>
     </row>
     <row r="46" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>431</v>
+        <v>427</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>73</v>
@@ -3187,7 +3187,7 @@
       <c r="D46" s="1"/>
       <c r="E46" s="1"/>
       <c r="F46" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
       <c r="G46" s="1"/>
       <c r="H46" s="1" t="s">
@@ -3197,12 +3197,12 @@
         <v>12</v>
       </c>
       <c r="J46" s="1" t="s">
-        <v>433</v>
+        <v>429</v>
       </c>
     </row>
     <row r="47" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>436</v>
+        <v>432</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>73</v>
@@ -3222,12 +3222,12 @@
         <v>12</v>
       </c>
       <c r="J47" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="48" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>437</v>
+        <v>433</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>73</v>
@@ -3238,10 +3238,10 @@
       <c r="D48" s="1"/>
       <c r="E48" s="1"/>
       <c r="F48" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>440</v>
+        <v>436</v>
       </c>
       <c r="H48" s="1" t="s">
         <v>11</v>
@@ -3250,23 +3250,23 @@
         <v>12</v>
       </c>
       <c r="J48" s="1" t="s">
-        <v>438</v>
+        <v>434</v>
       </c>
     </row>
     <row r="49" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>338</v>
+        <v>334</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="D49" s="1"/>
       <c r="E49" s="1"/>
       <c r="F49" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
       <c r="G49" s="1" t="s">
         <v>10</v>
@@ -3278,23 +3278,23 @@
         <v>12</v>
       </c>
       <c r="J49" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
     </row>
     <row r="50" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>441</v>
+        <v>437</v>
       </c>
       <c r="D50" s="1"/>
       <c r="E50" s="1"/>
       <c r="F50" s="1" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="G50" s="1" t="s">
         <v>31</v>
@@ -3306,23 +3306,23 @@
         <v>12</v>
       </c>
       <c r="J50" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="51" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C51" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D51" s="1"/>
       <c r="E51" s="1"/>
       <c r="F51" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
       <c r="G51" s="1" t="s">
         <v>31</v>
@@ -3334,23 +3334,23 @@
         <v>12</v>
       </c>
       <c r="J51" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="52" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B52" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C52" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D52" s="1"/>
       <c r="E52" s="1"/>
       <c r="F52" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
       <c r="G52" s="1" t="s">
         <v>31</v>
@@ -3362,23 +3362,23 @@
         <v>12</v>
       </c>
       <c r="J52" s="1" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="53" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C53" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D53" s="1"/>
       <c r="E53" s="1"/>
       <c r="F53" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
       <c r="G53" s="1" t="s">
         <v>31</v>
@@ -3390,18 +3390,18 @@
         <v>12</v>
       </c>
       <c r="J53" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="54" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1"/>
@@ -3418,23 +3418,23 @@
         <v>12</v>
       </c>
       <c r="J54" s="1" t="s">
-        <v>111</v>
+        <v>512</v>
       </c>
     </row>
     <row r="55" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A55" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C55" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="D55" s="1"/>
       <c r="E55" s="1"/>
       <c r="F55" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
       <c r="G55" s="1" t="s">
         <v>31</v>
@@ -3446,51 +3446,51 @@
         <v>12</v>
       </c>
       <c r="J55" s="1" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="56" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A56" s="1" t="s">
-        <v>318</v>
+        <v>314</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C56" s="1" t="s">
-        <v>319</v>
+        <v>315</v>
       </c>
       <c r="D56" s="1"/>
       <c r="E56" s="1"/>
       <c r="F56" s="1" t="s">
-        <v>491</v>
+        <v>487</v>
       </c>
       <c r="G56" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>320</v>
+        <v>316</v>
       </c>
       <c r="I56" s="1" t="s">
         <v>12</v>
       </c>
       <c r="J56" s="1" t="s">
-        <v>321</v>
+        <v>317</v>
       </c>
     </row>
     <row r="57" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A57" s="1" t="s">
-        <v>306</v>
+        <v>302</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D57" s="1"/>
       <c r="E57" s="1"/>
       <c r="F57" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
       <c r="G57" s="1" t="s">
         <v>31</v>
@@ -3507,18 +3507,18 @@
     </row>
     <row r="58" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A58" s="1" t="s">
-        <v>515</v>
+        <v>511</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C58" s="1" t="s">
-        <v>456</v>
+        <v>452</v>
       </c>
       <c r="D58" s="1"/>
       <c r="E58" s="1"/>
       <c r="F58" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
       <c r="G58" s="1" t="s">
         <v>31</v>
@@ -3530,23 +3530,23 @@
         <v>12</v>
       </c>
       <c r="J58" s="1" t="s">
-        <v>461</v>
+        <v>457</v>
       </c>
     </row>
     <row r="59" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A59" s="1" t="s">
-        <v>454</v>
+        <v>450</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>455</v>
+        <v>451</v>
       </c>
       <c r="D59" s="1"/>
       <c r="E59" s="1"/>
       <c r="F59" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
       <c r="G59" s="1" t="s">
         <v>31</v>
@@ -3558,23 +3558,23 @@
         <v>12</v>
       </c>
       <c r="J59" s="1" t="s">
-        <v>458</v>
+        <v>454</v>
       </c>
     </row>
     <row r="60" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A60" s="1" t="s">
-        <v>465</v>
+        <v>461</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C60" s="1" t="s">
-        <v>466</v>
+        <v>462</v>
       </c>
       <c r="D60" s="1"/>
       <c r="E60" s="1"/>
       <c r="F60" s="1" t="s">
-        <v>468</v>
+        <v>464</v>
       </c>
       <c r="G60" s="1" t="s">
         <v>10</v>
@@ -3586,23 +3586,23 @@
         <v>12</v>
       </c>
       <c r="J60" s="1" t="s">
-        <v>467</v>
+        <v>463</v>
       </c>
     </row>
     <row r="61" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A61" s="1" t="s">
-        <v>378</v>
+        <v>374</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C61" s="1" t="s">
-        <v>472</v>
+        <v>468</v>
       </c>
       <c r="D61" s="1"/>
       <c r="E61" s="1"/>
       <c r="F61" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G61" s="1" t="s">
         <v>31</v>
@@ -3614,23 +3614,23 @@
         <v>12</v>
       </c>
       <c r="J61" s="1" t="s">
-        <v>380</v>
+        <v>376</v>
       </c>
     </row>
     <row r="62" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A62" s="1" t="s">
-        <v>322</v>
+        <v>318</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C62" s="1" t="s">
-        <v>471</v>
+        <v>467</v>
       </c>
       <c r="D62" s="1"/>
       <c r="E62" s="1"/>
       <c r="F62" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
       <c r="G62" s="1" t="s">
         <v>31</v>
@@ -3642,26 +3642,26 @@
         <v>12</v>
       </c>
       <c r="J62" s="1" t="s">
-        <v>324</v>
+        <v>320</v>
       </c>
       <c r="K62" s="7" t="s">
-        <v>325</v>
+        <v>321</v>
       </c>
     </row>
     <row r="63" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A63" s="1" t="s">
-        <v>334</v>
+        <v>330</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>463</v>
+        <v>459</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1"/>
       <c r="F63" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
       <c r="G63" s="1" t="s">
         <v>10</v>
@@ -3673,24 +3673,24 @@
         <v>12</v>
       </c>
       <c r="J63" s="1" t="s">
-        <v>333</v>
+        <v>329</v>
       </c>
       <c r="K63" s="7"/>
     </row>
     <row r="64" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A64" s="1" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C64" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D64" s="1"/>
       <c r="E64" s="1"/>
       <c r="F64" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="G64" s="1" t="s">
         <v>31</v>
@@ -3702,18 +3702,18 @@
         <v>12</v>
       </c>
       <c r="J64" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="65" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A65" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D65" s="1"/>
       <c r="E65" s="1"/>
@@ -3730,26 +3730,26 @@
         <v>12</v>
       </c>
       <c r="J65" s="1" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="66" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A66" s="1" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C66" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D66" s="1"/>
       <c r="E66" s="1"/>
       <c r="F66" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>469</v>
+        <v>465</v>
       </c>
       <c r="H66" s="1" t="s">
         <v>11</v>
@@ -3758,26 +3758,26 @@
         <v>12</v>
       </c>
       <c r="J66" s="1" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="67" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A67" s="1" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B67" s="1" t="s">
         <v>73</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="D67" s="1"/>
       <c r="E67" s="1"/>
       <c r="F67" s="1" t="s">
-        <v>379</v>
+        <v>375</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>470</v>
+        <v>466</v>
       </c>
       <c r="H67" s="1" t="s">
         <v>11</v>
@@ -3786,15 +3786,15 @@
         <v>12</v>
       </c>
       <c r="J67" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="68" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A68" s="1" t="s">
-        <v>406</v>
+        <v>402</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>408</v>
+        <v>404</v>
       </c>
       <c r="G68" s="1" t="s">
         <v>31</v>
@@ -3806,18 +3806,18 @@
         <v>12</v>
       </c>
       <c r="J68" s="1" t="s">
-        <v>388</v>
+        <v>384</v>
       </c>
       <c r="K68" s="1" t="s">
-        <v>389</v>
+        <v>385</v>
       </c>
     </row>
     <row r="69" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A69" s="1" t="s">
-        <v>407</v>
+        <v>403</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>409</v>
+        <v>405</v>
       </c>
       <c r="C69" s="1" t="s">
         <v>46</v>
@@ -3834,24 +3834,24 @@
         <v>12</v>
       </c>
       <c r="J69" s="1" t="s">
-        <v>410</v>
+        <v>406</v>
       </c>
       <c r="K69" s="1"/>
     </row>
     <row r="70" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A70" s="1" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C70" s="1" t="s">
-        <v>399</v>
+        <v>395</v>
       </c>
       <c r="D70" s="1"/>
       <c r="E70" s="1"/>
       <c r="F70" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="G70" s="1" t="s">
         <v>31</v>
@@ -3863,21 +3863,21 @@
         <v>12</v>
       </c>
       <c r="J70" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="71" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A71" s="1" t="s">
-        <v>478</v>
+        <v>474</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>479</v>
+        <v>475</v>
       </c>
       <c r="C71" s="1"/>
       <c r="D71" s="1"/>
       <c r="E71" s="1"/>
       <c r="F71" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
       <c r="G71" s="1" t="s">
         <v>10</v>
@@ -3889,26 +3889,26 @@
         <v>12</v>
       </c>
       <c r="J71" s="4" t="s">
-        <v>480</v>
+        <v>476</v>
       </c>
       <c r="K71" s="1" t="s">
-        <v>482</v>
+        <v>478</v>
       </c>
     </row>
     <row r="72" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A72" s="1" t="s">
-        <v>335</v>
+        <v>331</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>391</v>
+        <v>387</v>
       </c>
       <c r="C72" s="1" t="s">
-        <v>390</v>
+        <v>386</v>
       </c>
       <c r="D72" s="1"/>
       <c r="E72" s="1"/>
       <c r="F72" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
       <c r="G72" s="1" t="s">
         <v>10</v>
@@ -3920,26 +3920,26 @@
         <v>12</v>
       </c>
       <c r="J72" s="4" t="s">
-        <v>340</v>
+        <v>336</v>
       </c>
       <c r="K72" s="7" t="s">
-        <v>336</v>
+        <v>332</v>
       </c>
     </row>
     <row r="73" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A73" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B73" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="C73" s="1" t="s">
         <v>132</v>
-      </c>
-      <c r="B73" s="1" t="s">
-        <v>133</v>
-      </c>
-      <c r="C73" s="1" t="s">
-        <v>134</v>
       </c>
       <c r="D73" s="1"/>
       <c r="E73" s="1"/>
       <c r="F73" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
       <c r="G73" s="1" t="s">
         <v>10</v>
@@ -3951,23 +3951,23 @@
         <v>12</v>
       </c>
       <c r="J73" s="1" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="74" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A74" s="1" t="s">
-        <v>404</v>
+        <v>400</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D74" s="1"/>
       <c r="E74" s="1"/>
       <c r="F74" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
       <c r="G74" s="1" t="s">
         <v>10</v>
@@ -3979,23 +3979,23 @@
         <v>12</v>
       </c>
       <c r="J74" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="75" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A75" s="1" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D75" s="1"/>
       <c r="E75" s="1"/>
       <c r="F75" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
       <c r="G75" s="1" t="s">
         <v>10</v>
@@ -4007,23 +4007,23 @@
         <v>12</v>
       </c>
       <c r="J75" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="76" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A76" s="1" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D76" s="1"/>
       <c r="E76" s="1"/>
       <c r="F76" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
       <c r="G76" s="1" t="s">
         <v>10</v>
@@ -4035,26 +4035,26 @@
         <v>12</v>
       </c>
       <c r="J76" s="1" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="K76" t="s">
-        <v>402</v>
+        <v>398</v>
       </c>
     </row>
     <row r="77" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A77" s="1" t="s">
-        <v>310</v>
+        <v>306</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>311</v>
+        <v>307</v>
       </c>
       <c r="C77" s="1" t="s">
-        <v>413</v>
+        <v>409</v>
       </c>
       <c r="D77" s="1"/>
       <c r="E77" s="1"/>
       <c r="F77" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
       <c r="G77" s="1" t="s">
         <v>10</v>
@@ -4066,26 +4066,26 @@
         <v>12</v>
       </c>
       <c r="J77" s="1" t="s">
-        <v>313</v>
+        <v>309</v>
       </c>
       <c r="K77" s="7" t="s">
-        <v>312</v>
+        <v>308</v>
       </c>
     </row>
     <row r="78" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A78" s="1" t="s">
-        <v>314</v>
+        <v>310</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C78" s="1" t="s">
-        <v>392</v>
+        <v>388</v>
       </c>
       <c r="D78" s="1"/>
       <c r="E78" s="1"/>
       <c r="F78" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
       <c r="G78" s="1" t="s">
         <v>10</v>
@@ -4097,23 +4097,23 @@
         <v>12</v>
       </c>
       <c r="J78" s="1" t="s">
-        <v>315</v>
+        <v>311</v>
       </c>
     </row>
     <row r="79" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A79" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C79" s="1" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D79" s="1"/>
       <c r="E79" s="1"/>
       <c r="F79" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
       <c r="G79" s="1" t="s">
         <v>10</v>
@@ -4125,23 +4125,23 @@
         <v>12</v>
       </c>
       <c r="J79" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="80" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A80" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B80" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C80" s="1" t="s">
         <v>145</v>
-      </c>
-      <c r="B80" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C80" s="1" t="s">
-        <v>147</v>
       </c>
       <c r="D80" s="1"/>
       <c r="E80" s="1"/>
       <c r="F80" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G80" s="1" t="s">
         <v>31</v>
@@ -4153,23 +4153,23 @@
         <v>12</v>
       </c>
       <c r="J80" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
     </row>
     <row r="81" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A81" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C81" s="1" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="D81" s="1"/>
       <c r="E81" s="1"/>
       <c r="F81" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G81" s="1" t="s">
         <v>31</v>
@@ -4181,23 +4181,23 @@
         <v>12</v>
       </c>
       <c r="J81" s="1" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="82" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A82" s="1" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C82" s="1" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D82" s="1"/>
       <c r="E82" s="1"/>
       <c r="F82" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G82" s="1" t="s">
         <v>31</v>
@@ -4209,32 +4209,32 @@
         <v>12</v>
       </c>
       <c r="J82" s="1" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="K82" s="1" t="s">
-        <v>506</v>
+        <v>502</v>
       </c>
       <c r="L82" s="1" t="s">
-        <v>507</v>
+        <v>503</v>
       </c>
       <c r="M82" s="1" t="s">
-        <v>508</v>
+        <v>504</v>
       </c>
     </row>
     <row r="83" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A83" s="1" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D83" s="1"/>
       <c r="E83" s="1"/>
       <c r="F83" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G83" s="1" t="s">
         <v>31</v>
@@ -4246,23 +4246,23 @@
         <v>12</v>
       </c>
       <c r="J83" s="1" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="84" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A84" s="1" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C84" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D84" s="1"/>
       <c r="E84" s="1"/>
       <c r="F84" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G84" s="1" t="s">
         <v>31</v>
@@ -4274,23 +4274,23 @@
         <v>12</v>
       </c>
       <c r="J84" s="1" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="85" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A85" s="1" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D85" s="1"/>
       <c r="E85" s="1"/>
       <c r="F85" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G85" s="1" t="s">
         <v>31</v>
@@ -4302,23 +4302,23 @@
         <v>12</v>
       </c>
       <c r="J85" s="1" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="86" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A86" s="1" t="s">
-        <v>509</v>
+        <v>505</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D86" s="1"/>
       <c r="E86" s="1"/>
       <c r="F86" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="G86" s="1" t="s">
         <v>31</v>
@@ -4330,23 +4330,23 @@
         <v>12</v>
       </c>
       <c r="J86" s="1" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="87" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A87" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B87" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="C87" s="1" t="s">
         <v>165</v>
-      </c>
-      <c r="B87" s="1" t="s">
-        <v>166</v>
-      </c>
-      <c r="C87" s="1" t="s">
-        <v>167</v>
       </c>
       <c r="D87" s="1"/>
       <c r="E87" s="1"/>
       <c r="F87" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G87" s="1" t="s">
         <v>10</v>
@@ -4358,23 +4358,23 @@
         <v>12</v>
       </c>
       <c r="J87" s="1" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="88" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A88" s="8" t="s">
-        <v>473</v>
+        <v>469</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>475</v>
+        <v>471</v>
       </c>
       <c r="C88" s="1" t="s">
-        <v>474</v>
+        <v>470</v>
       </c>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
       <c r="G88" s="1" t="s">
         <v>31</v>
@@ -4386,23 +4386,23 @@
         <v>12</v>
       </c>
       <c r="J88" s="1" t="s">
-        <v>477</v>
+        <v>473</v>
       </c>
     </row>
     <row r="89" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A89" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B89" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="C89" s="1" t="s">
         <v>169</v>
-      </c>
-      <c r="B89" s="1" t="s">
-        <v>170</v>
-      </c>
-      <c r="C89" s="1" t="s">
-        <v>171</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1"/>
       <c r="F89" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
       <c r="G89" s="1" t="s">
         <v>10</v>
@@ -4414,26 +4414,26 @@
         <v>12</v>
       </c>
       <c r="J89" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="90" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A90" s="1" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1"/>
       <c r="F90" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>419</v>
+        <v>415</v>
       </c>
       <c r="H90" s="1" t="s">
         <v>11</v>
@@ -4442,26 +4442,26 @@
         <v>12</v>
       </c>
       <c r="J90" s="1" t="s">
-        <v>417</v>
+        <v>413</v>
       </c>
       <c r="K90" t="s">
-        <v>418</v>
+        <v>414</v>
       </c>
     </row>
     <row r="91" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A91" s="1" t="s">
-        <v>485</v>
+        <v>481</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C91" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D91" s="1"/>
       <c r="E91" s="1"/>
       <c r="F91" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
       <c r="G91" s="1" t="s">
         <v>10</v>
@@ -4473,26 +4473,26 @@
         <v>12</v>
       </c>
       <c r="J91" s="1" t="s">
-        <v>484</v>
+        <v>480</v>
       </c>
     </row>
     <row r="92" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A92" s="1" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>487</v>
+        <v>483</v>
       </c>
       <c r="D92" s="1"/>
       <c r="E92" s="1"/>
       <c r="F92" s="1" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>492</v>
+        <v>488</v>
       </c>
       <c r="H92" s="1" t="s">
         <v>11</v>
@@ -4501,23 +4501,23 @@
         <v>12</v>
       </c>
       <c r="J92" s="1" t="s">
-        <v>486</v>
+        <v>482</v>
       </c>
     </row>
     <row r="93" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A93" s="1" t="s">
-        <v>387</v>
+        <v>383</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C93" s="1" t="s">
-        <v>385</v>
+        <v>381</v>
       </c>
       <c r="D93" s="1"/>
       <c r="E93" s="1"/>
       <c r="F93" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
       <c r="G93" s="1" t="s">
         <v>10</v>
@@ -4529,23 +4529,23 @@
         <v>12</v>
       </c>
       <c r="J93" s="1" t="s">
-        <v>386</v>
+        <v>382</v>
       </c>
     </row>
     <row r="94" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A94" s="1" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C94" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D94" s="1"/>
       <c r="E94" s="1"/>
       <c r="F94" s="1" t="s">
-        <v>423</v>
+        <v>419</v>
       </c>
       <c r="G94" s="1" t="s">
         <v>10</v>
@@ -4557,23 +4557,23 @@
         <v>12</v>
       </c>
       <c r="J94" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
     </row>
     <row r="95" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A95" s="1" t="s">
-        <v>316</v>
+        <v>312</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C95" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D95" s="1"/>
       <c r="E95" s="1"/>
       <c r="F95" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
       <c r="G95" s="1" t="s">
         <v>10</v>
@@ -4585,7 +4585,7 @@
         <v>12</v>
       </c>
       <c r="J95" s="1" t="s">
-        <v>317</v>
+        <v>313</v>
       </c>
       <c r="K95" s="7" t="s">
         <v>19</v>
@@ -4593,18 +4593,18 @@
     </row>
     <row r="96" spans="1:13" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A96" s="1" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C96" s="1" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="D96" s="1"/>
       <c r="E96" s="1"/>
       <c r="F96" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
       <c r="G96" s="1" t="s">
         <v>10</v>
@@ -4616,26 +4616,26 @@
         <v>12</v>
       </c>
       <c r="J96" s="1" t="s">
-        <v>179</v>
+        <v>514</v>
       </c>
     </row>
     <row r="97" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A97" s="1" t="s">
-        <v>180</v>
+        <v>177</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>181</v>
+        <v>178</v>
       </c>
       <c r="D97" s="1"/>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>427</v>
+        <v>423</v>
       </c>
       <c r="H97" s="1" t="s">
         <v>11</v>
@@ -4644,23 +4644,23 @@
         <v>12</v>
       </c>
       <c r="J97" s="1" t="s">
-        <v>182</v>
+        <v>515</v>
       </c>
     </row>
     <row r="98" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A98" s="1" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C98" s="1" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="D98" s="1"/>
       <c r="E98" s="1"/>
       <c r="F98" s="1" t="s">
-        <v>397</v>
+        <v>393</v>
       </c>
       <c r="G98" s="1" t="s">
         <v>10</v>
@@ -4672,23 +4672,23 @@
         <v>12</v>
       </c>
       <c r="J98" s="1" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
     </row>
     <row r="99" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A99" s="1" t="s">
-        <v>185</v>
+        <v>181</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C99" s="1" t="s">
-        <v>186</v>
+        <v>182</v>
       </c>
       <c r="D99" s="1"/>
       <c r="E99" s="1"/>
       <c r="F99" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
       <c r="G99" s="1" t="s">
         <v>10</v>
@@ -4700,15 +4700,15 @@
         <v>12</v>
       </c>
       <c r="J99" s="1" t="s">
-        <v>187</v>
+        <v>183</v>
       </c>
     </row>
     <row r="100" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A100" s="1" t="s">
-        <v>381</v>
+        <v>377</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="C100" s="1" t="s">
         <v>46</v>
@@ -4716,7 +4716,7 @@
       <c r="D100" s="1"/>
       <c r="E100" s="1"/>
       <c r="F100" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
       <c r="G100" s="1" t="s">
         <v>10</v>
@@ -4728,21 +4728,21 @@
         <v>12</v>
       </c>
       <c r="J100" s="4" t="s">
-        <v>383</v>
+        <v>379</v>
       </c>
       <c r="K100" s="1" t="s">
-        <v>384</v>
+        <v>380</v>
       </c>
     </row>
     <row r="101" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A101" s="1" t="s">
-        <v>416</v>
+        <v>412</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F101" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
       <c r="G101" s="1" t="s">
         <v>10</v>
@@ -4754,546 +4754,546 @@
         <v>12</v>
       </c>
       <c r="J101" s="1" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
     </row>
     <row r="102" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A102" s="1" t="s">
-        <v>191</v>
+        <v>187</v>
       </c>
       <c r="B102" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C102" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D102" s="1"/>
       <c r="E102" s="1"/>
       <c r="F102" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G102" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H102" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I102" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J102" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="103" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A103" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="B103" s="1" t="s">
         <v>190</v>
       </c>
-      <c r="B103" s="1" t="s">
-        <v>194</v>
-      </c>
       <c r="C103" s="1" t="s">
-        <v>193</v>
+        <v>189</v>
       </c>
       <c r="D103" s="1"/>
       <c r="E103" s="1"/>
       <c r="F103" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>195</v>
+        <v>191</v>
       </c>
       <c r="H103" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I103" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J103" s="1" t="s">
-        <v>221</v>
+        <v>217</v>
       </c>
     </row>
     <row r="104" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A104" s="1" t="s">
-        <v>345</v>
+        <v>341</v>
       </c>
       <c r="B104" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D104" s="1"/>
       <c r="E104" s="1"/>
       <c r="F104" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G104" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H104" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I104" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J104" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K104" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="105" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A105" s="1" t="s">
-        <v>346</v>
+        <v>342</v>
       </c>
       <c r="B105" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C105" s="1" t="s">
-        <v>353</v>
+        <v>349</v>
       </c>
       <c r="D105" s="1"/>
       <c r="E105" s="1"/>
       <c r="F105" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G105" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H105" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I105" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J105" s="1" t="s">
-        <v>357</v>
+        <v>353</v>
       </c>
       <c r="K105" t="s">
-        <v>355</v>
+        <v>351</v>
       </c>
     </row>
     <row r="106" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A106" s="1" t="s">
-        <v>347</v>
+        <v>343</v>
       </c>
       <c r="B106" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C106" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D106" s="1"/>
       <c r="E106" s="1"/>
       <c r="F106" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G106" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H106" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I106" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J106" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K106" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="107" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A107" s="1" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="B107" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>360</v>
+        <v>356</v>
       </c>
       <c r="D107" s="1"/>
       <c r="E107" s="1"/>
       <c r="F107" s="1" t="s">
-        <v>366</v>
+        <v>362</v>
       </c>
       <c r="G107" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H107" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I107" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J107" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K107" t="s">
-        <v>367</v>
+        <v>363</v>
       </c>
     </row>
     <row r="108" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A108" s="1" t="s">
-        <v>349</v>
+        <v>345</v>
       </c>
       <c r="B108" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C108" s="1" t="s">
-        <v>361</v>
+        <v>357</v>
       </c>
       <c r="D108" s="1"/>
       <c r="E108" s="1"/>
       <c r="F108" s="1" t="s">
-        <v>196</v>
+        <v>192</v>
       </c>
       <c r="G108" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H108" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I108" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J108" s="1" t="s">
-        <v>354</v>
+        <v>350</v>
       </c>
     </row>
     <row r="109" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A109" s="1" t="s">
-        <v>219</v>
+        <v>215</v>
       </c>
       <c r="B109" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C109" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D109" s="1"/>
       <c r="E109" s="1"/>
       <c r="F109" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G109" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I109" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J109" s="1" t="s">
-        <v>220</v>
+        <v>216</v>
       </c>
     </row>
     <row r="110" spans="1:11" ht="13.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A110" s="1" t="s">
-        <v>343</v>
+        <v>339</v>
       </c>
       <c r="B110" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C110" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
-        <v>363</v>
+        <v>359</v>
       </c>
       <c r="G110" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H110" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I110" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J110" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="111" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A111" s="1" t="s">
-        <v>344</v>
+        <v>340</v>
       </c>
       <c r="B111" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C111" s="1" t="s">
-        <v>359</v>
+        <v>355</v>
       </c>
       <c r="D111" s="1"/>
       <c r="E111" s="1"/>
       <c r="F111" s="1" t="s">
-        <v>364</v>
+        <v>360</v>
       </c>
       <c r="G111" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H111" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I111" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J111" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
       <c r="K111" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="112" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A112" s="1" t="s">
-        <v>218</v>
+        <v>214</v>
       </c>
       <c r="B112" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C112" s="1" t="s">
-        <v>192</v>
+        <v>188</v>
       </c>
       <c r="D112" s="1"/>
       <c r="E112" s="1"/>
       <c r="F112" s="1" t="s">
-        <v>227</v>
+        <v>223</v>
       </c>
       <c r="G112" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H112" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I112" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J112" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
       <c r="K112" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="113" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A113" s="1" t="s">
-        <v>232</v>
+        <v>228</v>
       </c>
       <c r="B113" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>231</v>
+        <v>227</v>
       </c>
       <c r="D113" s="1"/>
       <c r="E113" s="1"/>
       <c r="F113" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G113" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I113" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J113" s="4" t="s">
-        <v>233</v>
+        <v>229</v>
       </c>
       <c r="K113" t="s">
-        <v>362</v>
+        <v>358</v>
       </c>
     </row>
     <row r="114" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A114" s="1" t="s">
-        <v>341</v>
+        <v>337</v>
       </c>
       <c r="B114" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>342</v>
+        <v>338</v>
       </c>
       <c r="D114" s="1"/>
       <c r="E114" s="1"/>
       <c r="F114" s="1" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="G114" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H114" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I114" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J114" s="4" t="s">
-        <v>358</v>
+        <v>354</v>
       </c>
       <c r="K114" s="1" t="s">
-        <v>356</v>
+        <v>352</v>
       </c>
     </row>
     <row r="115" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A115" s="1" t="s">
-        <v>216</v>
+        <v>212</v>
       </c>
       <c r="B115" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C115" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D115" s="1"/>
       <c r="E115" s="1"/>
       <c r="F115" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G115" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H115" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I115" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J115" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="116" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A116" s="1" t="s">
-        <v>217</v>
+        <v>213</v>
       </c>
       <c r="B116" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C116" s="1" t="s">
-        <v>225</v>
+        <v>221</v>
       </c>
       <c r="D116" s="1"/>
       <c r="E116" s="1"/>
       <c r="F116" s="1" t="s">
-        <v>224</v>
+        <v>220</v>
       </c>
       <c r="G116" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H116" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I116" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J116" s="1" t="s">
-        <v>222</v>
+        <v>218</v>
       </c>
     </row>
     <row r="117" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A117" s="1" t="s">
-        <v>214</v>
+        <v>210</v>
       </c>
       <c r="B117" s="1" t="s">
-        <v>194</v>
+        <v>190</v>
       </c>
       <c r="C117" s="1" t="s">
-        <v>226</v>
+        <v>222</v>
       </c>
       <c r="D117" s="1"/>
       <c r="E117" s="1"/>
       <c r="F117" s="1" t="s">
-        <v>223</v>
+        <v>219</v>
       </c>
       <c r="G117" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H117" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I117" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J117" s="1" t="s">
-        <v>215</v>
+        <v>211</v>
       </c>
     </row>
     <row r="118" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A118" s="1" t="s">
-        <v>350</v>
+        <v>346</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C118" s="1" t="s">
-        <v>368</v>
+        <v>364</v>
       </c>
       <c r="D118" s="1"/>
       <c r="E118" s="1"/>
       <c r="F118" s="1" t="s">
-        <v>369</v>
+        <v>365</v>
       </c>
       <c r="G118" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H118" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I118" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J118" s="1" t="s">
-        <v>365</v>
+        <v>361</v>
       </c>
     </row>
     <row r="119" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A119" s="1" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C119" s="1" t="s">
-        <v>228</v>
+        <v>224</v>
       </c>
       <c r="D119" s="1"/>
       <c r="E119" s="1"/>
       <c r="F119" s="1" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G119" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H119" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I119" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J119" s="1" t="s">
-        <v>229</v>
+        <v>225</v>
       </c>
     </row>
     <row r="120" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A120" s="1" t="s">
-        <v>230</v>
+        <v>226</v>
       </c>
       <c r="B120" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C120" s="1" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="D120" s="1"/>
       <c r="E120" s="1"/>
@@ -5304,499 +5304,499 @@
         <v>46</v>
       </c>
       <c r="H120" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I120" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J120" s="1" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
     </row>
     <row r="121" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A121" s="1" t="s">
-        <v>236</v>
+        <v>232</v>
       </c>
       <c r="B121" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C121" s="1" t="s">
-        <v>234</v>
+        <v>230</v>
       </c>
       <c r="D121" s="1"/>
       <c r="E121" s="1"/>
       <c r="F121" s="1" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G121" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H121" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I121" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J121" s="1" t="s">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="K121" s="3" t="s">
-        <v>351</v>
+        <v>347</v>
       </c>
     </row>
     <row r="122" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A122" s="1" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="B122" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C122" s="1" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="D122" s="1"/>
       <c r="E122" s="1"/>
       <c r="F122" s="1" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G122" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H122" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I122" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J122" s="1" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="K122" s="3"/>
     </row>
     <row r="123" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A123" s="1" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="B123" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C123" s="1" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="D123" s="1"/>
       <c r="E123" s="1"/>
       <c r="F123" s="1" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="G123" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H123" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I123" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J123" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="K123" s="3"/>
     </row>
     <row r="124" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A124" s="1" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="B124" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C124" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D124" s="1"/>
       <c r="E124" s="1"/>
       <c r="F124" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G124" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H124" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I124" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J124" s="1" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
     </row>
     <row r="125" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A125" s="1" t="s">
-        <v>352</v>
+        <v>348</v>
       </c>
       <c r="B125" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C125" s="1" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="D125" s="1"/>
       <c r="E125" s="1"/>
       <c r="F125" s="1" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="G125" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H125" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I125" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J125" s="1" t="s">
-        <v>370</v>
+        <v>366</v>
       </c>
     </row>
     <row r="126" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A126" s="1" t="s">
-        <v>198</v>
+        <v>194</v>
       </c>
       <c r="B126" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C126" s="1" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
       <c r="D126" s="1"/>
       <c r="E126" s="1"/>
       <c r="F126" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G126" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H126" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I126" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J126" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
       <c r="K126" s="3" t="s">
-        <v>212</v>
+        <v>208</v>
       </c>
     </row>
     <row r="127" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A127" s="1" t="s">
-        <v>199</v>
+        <v>195</v>
       </c>
       <c r="B127" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C127" s="1" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="D127" s="1"/>
       <c r="E127" s="1"/>
       <c r="F127" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G127" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H127" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I127" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J127" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="128" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A128" s="1" t="s">
-        <v>200</v>
+        <v>196</v>
       </c>
       <c r="B128" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C128" s="1" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="D128" s="1"/>
       <c r="E128" s="1"/>
       <c r="F128" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G128" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H128" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I128" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J128" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="129" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A129" s="1" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
       <c r="B129" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C129" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D129" s="1"/>
       <c r="E129" s="1"/>
       <c r="F129" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G129" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H129" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I129" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J129" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="130" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A130" s="1" t="s">
-        <v>202</v>
+        <v>198</v>
       </c>
       <c r="B130" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C130" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D130" s="1"/>
       <c r="E130" s="1"/>
       <c r="F130" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G130" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H130" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I130" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J130" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="131" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A131" s="1" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
       <c r="B131" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C131" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D131" s="1"/>
       <c r="E131" s="1"/>
       <c r="F131" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G131" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H131" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I131" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J131" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="132" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A132" s="1" t="s">
-        <v>204</v>
+        <v>200</v>
       </c>
       <c r="B132" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C132" s="1" t="s">
-        <v>210</v>
+        <v>206</v>
       </c>
       <c r="D132" s="1"/>
       <c r="E132" s="1"/>
       <c r="F132" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G132" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H132" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I132" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J132" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="133" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A133" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="B133" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="C133" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="B133" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="C133" s="1" t="s">
-        <v>209</v>
       </c>
       <c r="D133" s="1"/>
       <c r="E133" s="1"/>
       <c r="F133" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G133" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H133" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I133" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J133" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="134" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A134" s="1" t="s">
-        <v>206</v>
+        <v>202</v>
       </c>
       <c r="B134" s="1" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="C134" s="1" t="s">
-        <v>209</v>
+        <v>205</v>
       </c>
       <c r="D134" s="1"/>
       <c r="E134" s="1"/>
       <c r="F134" s="1" t="s">
-        <v>211</v>
+        <v>207</v>
       </c>
       <c r="G134" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H134" s="1" t="s">
-        <v>189</v>
+        <v>185</v>
       </c>
       <c r="I134" s="1" t="s">
-        <v>197</v>
+        <v>193</v>
       </c>
       <c r="J134" s="1" t="s">
-        <v>213</v>
+        <v>209</v>
       </c>
     </row>
     <row r="135" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A135" s="1" t="s">
-        <v>262</v>
+        <v>258</v>
       </c>
       <c r="B135" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C135" s="1" t="s">
-        <v>266</v>
+        <v>262</v>
       </c>
       <c r="D135" s="1"/>
       <c r="E135" s="1"/>
       <c r="F135" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G135" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H135" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J135" s="1" t="s">
-        <v>264</v>
+        <v>260</v>
       </c>
     </row>
     <row r="136" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A136" s="1" t="s">
-        <v>268</v>
+        <v>264</v>
       </c>
       <c r="B136" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C136" s="1" t="s">
-        <v>269</v>
+        <v>265</v>
       </c>
       <c r="D136" s="1"/>
       <c r="E136" s="1"/>
       <c r="F136" s="1" t="s">
-        <v>267</v>
+        <v>263</v>
       </c>
       <c r="G136" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H136" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J136" s="1" t="s">
-        <v>270</v>
+        <v>266</v>
       </c>
     </row>
     <row r="137" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A137" s="1" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
       <c r="B137" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C137" s="1" t="s">
-        <v>295</v>
+        <v>291</v>
       </c>
       <c r="D137" s="1"/>
       <c r="E137" s="1"/>
       <c r="F137" s="1" t="s">
-        <v>265</v>
+        <v>261</v>
       </c>
       <c r="G137" s="1" t="s">
         <v>31</v>
       </c>
       <c r="H137" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J137" s="1" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
     </row>
     <row r="138" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A138" s="1" t="s">
-        <v>277</v>
+        <v>273</v>
       </c>
       <c r="B138" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C138" s="1" t="s">
-        <v>274</v>
+        <v>270</v>
       </c>
       <c r="D138" s="1"/>
       <c r="E138" s="1"/>
@@ -5805,21 +5805,21 @@
         <v>31</v>
       </c>
       <c r="H138" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J138" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="139" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A139" s="1" t="s">
-        <v>276</v>
+        <v>272</v>
       </c>
       <c r="B139" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C139" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D139" s="1"/>
       <c r="E139" s="1"/>
@@ -5828,21 +5828,21 @@
         <v>31</v>
       </c>
       <c r="H139" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J139" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="140" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A140" s="1" t="s">
-        <v>279</v>
+        <v>275</v>
       </c>
       <c r="B140" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C140" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D140" s="1"/>
       <c r="E140" s="1"/>
@@ -5851,21 +5851,21 @@
         <v>31</v>
       </c>
       <c r="H140" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J140" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="141" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A141" s="1" t="s">
-        <v>280</v>
+        <v>276</v>
       </c>
       <c r="B141" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C141" s="1" t="s">
-        <v>275</v>
+        <v>271</v>
       </c>
       <c r="D141" s="1"/>
       <c r="E141" s="1"/>
@@ -5874,21 +5874,21 @@
         <v>31</v>
       </c>
       <c r="H141" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J141" s="1" t="s">
-        <v>281</v>
+        <v>277</v>
       </c>
     </row>
     <row r="142" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A142" s="1" t="s">
-        <v>278</v>
+        <v>274</v>
       </c>
       <c r="B142" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C142" s="1" t="s">
-        <v>282</v>
+        <v>278</v>
       </c>
       <c r="D142" s="1"/>
       <c r="E142" s="1"/>
@@ -5897,15 +5897,15 @@
         <v>31</v>
       </c>
       <c r="H142" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J142" s="1" t="s">
-        <v>288</v>
+        <v>284</v>
       </c>
     </row>
     <row r="143" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A143" s="1" t="s">
-        <v>284</v>
+        <v>280</v>
       </c>
       <c r="B143" s="1" t="s">
         <v>8</v>
@@ -5915,21 +5915,21 @@
         <v>31</v>
       </c>
       <c r="H143" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="J143" s="1" t="s">
         <v>283</v>
-      </c>
-      <c r="J143" s="1" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="144" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A144" s="1" t="s">
-        <v>285</v>
+        <v>281</v>
       </c>
       <c r="B144" s="1" t="s">
         <v>8</v>
       </c>
       <c r="C144" s="1" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
       <c r="D144" s="1"/>
       <c r="E144" s="1"/>
@@ -5938,15 +5938,15 @@
         <v>31</v>
       </c>
       <c r="H144" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J144" t="s">
-        <v>286</v>
+        <v>282</v>
       </c>
     </row>
     <row r="145" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A145" s="1" t="s">
-        <v>289</v>
+        <v>285</v>
       </c>
       <c r="B145" s="1" t="s">
         <v>8</v>
@@ -5961,15 +5961,15 @@
         <v>31</v>
       </c>
       <c r="H145" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J145" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="146" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A146" s="1" t="s">
-        <v>290</v>
+        <v>286</v>
       </c>
       <c r="B146" s="1" t="s">
         <v>8</v>
@@ -5983,15 +5983,15 @@
         <v>31</v>
       </c>
       <c r="H146" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J146" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="147" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A147" s="1" t="s">
-        <v>292</v>
+        <v>288</v>
       </c>
       <c r="B147" s="1" t="s">
         <v>8</v>
@@ -6005,15 +6005,15 @@
         <v>31</v>
       </c>
       <c r="H147" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J147" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="148" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A148" s="1" t="s">
-        <v>294</v>
+        <v>290</v>
       </c>
       <c r="B148" s="1" t="s">
         <v>8</v>
@@ -6027,15 +6027,15 @@
         <v>31</v>
       </c>
       <c r="H148" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J148" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="149" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A149" s="1" t="s">
-        <v>293</v>
+        <v>289</v>
       </c>
       <c r="B149" s="1" t="s">
         <v>8</v>
@@ -6049,15 +6049,15 @@
         <v>31</v>
       </c>
       <c r="H149" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J149" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="150" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A150" s="1" t="s">
-        <v>291</v>
+        <v>287</v>
       </c>
       <c r="B150" s="1" t="s">
         <v>8</v>
@@ -6071,77 +6071,77 @@
         <v>31</v>
       </c>
       <c r="H150" s="1" t="s">
-        <v>283</v>
+        <v>279</v>
       </c>
       <c r="J150" s="1" t="s">
-        <v>296</v>
+        <v>292</v>
       </c>
     </row>
     <row r="151" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A151" s="1" t="s">
-        <v>271</v>
+        <v>267</v>
       </c>
       <c r="B151" s="1"/>
       <c r="H151" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I151" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="152" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A152" s="1" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
       <c r="B152" s="1"/>
       <c r="H152" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I152" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="153" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A153" s="1" t="s">
-        <v>256</v>
+        <v>252</v>
       </c>
       <c r="B153" s="1" t="s">
-        <v>257</v>
+        <v>253</v>
       </c>
       <c r="G153" s="1" t="s">
         <v>10</v>
       </c>
       <c r="H153" s="1" t="s">
-        <v>254</v>
+        <v>250</v>
       </c>
       <c r="I153" s="1" t="s">
-        <v>255</v>
+        <v>251</v>
       </c>
     </row>
     <row r="154" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A154" s="1" t="s">
-        <v>259</v>
+        <v>255</v>
       </c>
       <c r="B154" s="1"/>
       <c r="G154" s="1"/>
       <c r="H154" s="1" t="s">
-        <v>258</v>
+        <v>254</v>
       </c>
       <c r="I154" s="1"/>
       <c r="J154" t="s">
-        <v>263</v>
+        <v>259</v>
       </c>
     </row>
     <row r="155" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B155" s="1"/>
       <c r="H155" s="1" t="s">
-        <v>260</v>
+        <v>256</v>
       </c>
     </row>
     <row r="156" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B156" s="1"/>
       <c r="H156" s="1" t="s">
-        <v>261</v>
+        <v>257</v>
       </c>
     </row>
     <row r="157" spans="1:10" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -7074,32 +7074,32 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.15">
       <c r="A1" s="7" t="s">
-        <v>488</v>
+        <v>484</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>476</v>
+        <v>472</v>
       </c>
     </row>
     <row r="3" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>425</v>
+        <v>421</v>
       </c>
     </row>
     <row r="4" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>426</v>
+        <v>422</v>
       </c>
     </row>
     <row r="5" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>412</v>
+        <v>408</v>
       </c>
     </row>
     <row r="6" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>483</v>
+        <v>479</v>
       </c>
     </row>
     <row r="7" spans="1:1" ht="15" x14ac:dyDescent="0.2">
@@ -7109,112 +7109,112 @@
     </row>
     <row r="8" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>452</v>
+        <v>448</v>
       </c>
     </row>
     <row r="9" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>453</v>
+        <v>449</v>
       </c>
     </row>
     <row r="10" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>415</v>
+        <v>411</v>
       </c>
     </row>
     <row r="11" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>421</v>
+        <v>417</v>
       </c>
     </row>
     <row r="12" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12" s="9" t="s">
-        <v>422</v>
+        <v>418</v>
       </c>
     </row>
     <row r="13" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>405</v>
+        <v>401</v>
       </c>
     </row>
     <row r="14" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>411</v>
+        <v>407</v>
       </c>
     </row>
     <row r="15" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>462</v>
+        <v>458</v>
       </c>
     </row>
     <row r="16" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
     </row>
     <row r="17" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="18" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="19" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="20" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>395</v>
+        <v>391</v>
       </c>
     </row>
     <row r="21" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>309</v>
+        <v>305</v>
       </c>
     </row>
     <row r="23" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>442</v>
+        <v>438</v>
       </c>
     </row>
     <row r="24" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>307</v>
+        <v>303</v>
       </c>
     </row>
     <row r="25" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>464</v>
+        <v>460</v>
       </c>
     </row>
     <row r="26" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>394</v>
+        <v>390</v>
       </c>
     </row>
     <row r="27" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>302</v>
+        <v>298</v>
       </c>
     </row>
     <row r="28" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>323</v>
+        <v>319</v>
       </c>
     </row>
     <row r="29" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>457</v>
+        <v>453</v>
       </c>
     </row>
     <row r="30" spans="1:1" ht="15" x14ac:dyDescent="0.2">
@@ -7229,7 +7229,7 @@
     </row>
     <row r="32" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>339</v>
+        <v>335</v>
       </c>
     </row>
     <row r="33" spans="1:1" ht="15" x14ac:dyDescent="0.2">
@@ -7244,27 +7244,27 @@
     </row>
     <row r="35" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>439</v>
+        <v>435</v>
       </c>
     </row>
     <row r="36" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>414</v>
+        <v>410</v>
       </c>
     </row>
     <row r="37" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>424</v>
+        <v>420</v>
       </c>
     </row>
     <row r="38" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>398</v>
+        <v>394</v>
       </c>
     </row>
     <row r="39" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>489</v>
+        <v>485</v>
       </c>
     </row>
     <row r="40" spans="1:1" ht="15" x14ac:dyDescent="0.2">
@@ -7274,12 +7274,12 @@
     </row>
     <row r="41" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>372</v>
+        <v>368</v>
       </c>
     </row>
     <row r="42" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A42" s="1" t="s">
-        <v>420</v>
+        <v>416</v>
       </c>
     </row>
     <row r="43" spans="1:1" ht="15" x14ac:dyDescent="0.2">
@@ -7289,57 +7289,57 @@
     </row>
     <row r="44" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A44" s="1" t="s">
-        <v>460</v>
+        <v>456</v>
       </c>
     </row>
     <row r="45" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A45" s="1" t="s">
-        <v>432</v>
+        <v>428</v>
       </c>
     </row>
     <row r="46" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A46" s="1" t="s">
-        <v>459</v>
+        <v>455</v>
       </c>
     </row>
     <row r="47" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A47" s="1" t="s">
-        <v>403</v>
+        <v>399</v>
       </c>
     </row>
     <row r="48" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A48" s="1" t="s">
-        <v>382</v>
+        <v>378</v>
       </c>
     </row>
     <row r="49" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A49" s="1" t="s">
-        <v>396</v>
+        <v>392</v>
       </c>
     </row>
     <row r="50" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A50" s="1" t="s">
-        <v>308</v>
+        <v>304</v>
       </c>
     </row>
     <row r="51" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A51" s="1" t="s">
-        <v>188</v>
+        <v>184</v>
       </c>
     </row>
     <row r="52" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A52" s="1" t="s">
-        <v>481</v>
+        <v>477</v>
       </c>
     </row>
     <row r="53" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A53" s="1" t="s">
-        <v>401</v>
+        <v>397</v>
       </c>
     </row>
     <row r="54" spans="1:1" ht="15" x14ac:dyDescent="0.2">
       <c r="A54" s="1" t="s">
-        <v>400</v>
+        <v>396</v>
       </c>
     </row>
   </sheetData>

--- a/TaxaList.xlsx
+++ b/TaxaList.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="540">
   <si>
     <t>taxon</t>
   </si>
@@ -348,9 +348,6 @@
     <t>endomycorrhyzal w Horneophyton</t>
   </si>
   <si>
-    <t>saprophyte</t>
-  </si>
-  <si>
     <t>Mycocarpon rhyniense</t>
   </si>
   <si>
@@ -378,7 +375,7 @@
     <t xml:space="preserve">Krings &amp; Harper 2017; A mantled fungal reproductive unit from the Lower Devonian Windyfield chert, Scotland, with prominent spines and otherwise shaped projections extending out from the mantle. Krings 2022; An unusual specimen of the enigmatic fungal reproductive unit Windipila spinifera from the Lower Devonian Rhynie cherts of Scotland </t>
   </si>
   <si>
-    <t xml:space="preserve">Windpila wimmervoecksii </t>
+    <t xml:space="preserve">Windipila wimmervoecksii </t>
   </si>
   <si>
     <t>saprophyte? co-occurs with Nothia</t>
@@ -387,7 +384,7 @@
     <t>Krings &amp; Harper 2020: Morphological diversity of fungal reproductive units in the Lower Devonian Rhynie and Windyfield cherts, Scotland: a new species of the genus Windipila</t>
   </si>
   <si>
-    <t>Windpila pumila</t>
+    <t>Windipila pumila</t>
   </si>
   <si>
     <t>Krings &amp; Harper 2018; Additional observations on the fungal reproductive unit Windipila spinifera from the Windyfield chert, and description of a similar form, Windipila pumila nov. sp., from 'the nearby Rhynie chert (Lower Devonian, Scotland).</t>
@@ -423,7 +420,7 @@
     <t>Ascomycota</t>
   </si>
   <si>
-    <t>saprophyte or parasite</t>
+    <t>saprophyte or parasite (Asteroxylon)</t>
   </si>
   <si>
     <t>Taylor et al. 2005</t>
@@ -432,7 +429,7 @@
     <t>Potteromyces asteroxylicola</t>
   </si>
   <si>
-    <t>plant pathogen</t>
+    <t>plant pathogen (asteroxylon)</t>
   </si>
   <si>
     <t>Strullu-Derrien et al 2023 (in review) The earliest fungal plant pathogen?</t>
@@ -525,16 +522,16 @@
     <t>parasitic on other fungal/algal spores?</t>
   </si>
   <si>
-    <t>Krings and Harper 2020 Decipherint interfungal relationships</t>
+    <t>Krings and Harper 2020 Deciphering interfungal relationships</t>
   </si>
   <si>
     <t>Perexiflasca tayloriana</t>
   </si>
   <si>
-    <t>saprotrophic and parasitic on land plants</t>
-  </si>
-  <si>
-    <t>Krings et al. 2017</t>
+    <t>saprotrophic and possibly parasitic on land plants</t>
+  </si>
+  <si>
+    <t>Krings et al. 2018</t>
   </si>
   <si>
     <t>Cultoraquaticus trewinii</t>
@@ -561,7 +558,7 @@
     <t>Chytridomycota (or Aphelida)</t>
   </si>
   <si>
-    <t>parasitic on single-cell algae</t>
+    <t>parasitic on single-cell algae/cyanobacteria, specifically Anechosoma oblongum</t>
   </si>
   <si>
     <t>Krings &amp; Kerp 2019: A tiny parasite of unicellular microorganisms from the Lower Devonian
@@ -703,6 +700,9 @@
     <t>Saccharomycetales (Ascomycota)?</t>
   </si>
   <si>
+    <t>saprophyte</t>
+  </si>
+  <si>
     <t>Krings &amp; Harper 2023; A fungal mycelium containing abundant endoconidia from the Lower Devonian Rhynie cherts of Scotland</t>
   </si>
   <si>
@@ -746,6 +746,9 @@
   </si>
   <si>
     <t>Hassiella monospora</t>
+  </si>
+  <si>
+    <t>saprophyte or parasite</t>
   </si>
   <si>
     <t>Taylor et al. 2006</t>
@@ -1625,7 +1628,16 @@
     <t>mycorhizzal on  Rhynia</t>
   </si>
   <si>
+    <t>parasitic on single-cell algae</t>
+  </si>
+  <si>
     <t xml:space="preserve">planktonic sheet colony cyanobacteria </t>
+  </si>
+  <si>
+    <t>plant pathogen</t>
+  </si>
+  <si>
+    <t>saprotrophic and parasitic on land plants</t>
   </si>
 </sst>
 </file>
@@ -1666,7 +1678,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor indexed="10"/>
+        <fgColor indexed="9"/>
         <bgColor auto="1"/>
       </patternFill>
     </fill>
@@ -1687,35 +1699,35 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </top>
       <bottom/>
       <diagonal/>
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right/>
       <top/>
@@ -1732,7 +1744,7 @@
     <border>
       <left/>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom/>
@@ -1740,14 +1752,14 @@
     </border>
     <border>
       <left style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </left>
       <right style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </right>
       <top/>
       <bottom style="thin">
-        <color indexed="9"/>
+        <color indexed="10"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1757,62 +1769,59 @@
       <alignment vertical="bottom"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="0" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
-    <xf numFmtId="0" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="4" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="5" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="6" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="bottom"/>
     </xf>
     <xf numFmtId="49" fontId="3" fillId="3" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
@@ -1859,8 +1868,8 @@
       <rgbColor rgb="ffff00ff"/>
       <rgbColor rgb="ff00ffff"/>
       <rgbColor rgb="ff000000"/>
+      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffaaaaaa"/>
-      <rgbColor rgb="ffffffff"/>
       <rgbColor rgb="ffffdf7f"/>
     </indexedColors>
   </colors>
@@ -2060,17 +2069,17 @@
         <a:solidFill>
           <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="ctr" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2097,10 +2106,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2339,12 +2348,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
             <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -2621,7 +2630,7 @@
         <a:effectLst/>
         <a:sp3d/>
       </a:spPr>
-      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45719" tIns="45719" rIns="45719" bIns="45719" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
+      <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="overflow" horzOverflow="overflow" vert="horz" wrap="square" lIns="45718" tIns="45718" rIns="45718" bIns="45718" numCol="1" spcCol="38100" rtlCol="0" anchor="t" upright="0">
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
@@ -2648,10 +2657,10 @@
             </a:solidFill>
             <a:effectLst/>
             <a:uFillTx/>
-            <a:latin typeface="Calibri"/>
-            <a:ea typeface="Calibri"/>
-            <a:cs typeface="Calibri"/>
-            <a:sym typeface="Calibri"/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -2893,7 +2902,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AC163"/>
+  <dimension ref="A1:AC162"/>
   <sheetViews>
     <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
@@ -3080,7 +3089,9 @@
       <c r="C4" t="s" s="2">
         <v>27</v>
       </c>
-      <c r="D4" s="3"/>
+      <c r="D4" s="5">
+        <v>25</v>
+      </c>
       <c r="E4" s="3"/>
       <c r="F4" t="s" s="2">
         <v>28</v>
@@ -3127,7 +3138,9 @@
       <c r="C5" t="s" s="2">
         <v>32</v>
       </c>
-      <c r="D5" s="3"/>
+      <c r="D5" s="5">
+        <v>25</v>
+      </c>
       <c r="E5" s="3"/>
       <c r="F5" s="4"/>
       <c r="G5" s="3"/>
@@ -3172,7 +3185,9 @@
       <c r="C6" t="s" s="2">
         <v>35</v>
       </c>
-      <c r="D6" s="3"/>
+      <c r="D6" s="5">
+        <v>27</v>
+      </c>
       <c r="E6" s="3"/>
       <c r="F6" s="4"/>
       <c r="G6" s="3"/>
@@ -3217,7 +3232,9 @@
       <c r="C7" t="s" s="2">
         <v>40</v>
       </c>
-      <c r="D7" s="3"/>
+      <c r="D7" s="5">
+        <v>12</v>
+      </c>
       <c r="E7" s="3"/>
       <c r="F7" s="4"/>
       <c r="G7" s="3"/>
@@ -3262,7 +3279,9 @@
       <c r="C8" t="s" s="2">
         <v>43</v>
       </c>
-      <c r="D8" s="3"/>
+      <c r="D8" s="5">
+        <v>9</v>
+      </c>
       <c r="E8" s="3"/>
       <c r="F8" t="s" s="2">
         <v>44</v>
@@ -3309,7 +3328,9 @@
       <c r="C9" t="s" s="2">
         <v>47</v>
       </c>
-      <c r="D9" s="3"/>
+      <c r="D9" s="5">
+        <v>12</v>
+      </c>
       <c r="E9" s="3"/>
       <c r="F9" s="4"/>
       <c r="G9" s="3"/>
@@ -3354,7 +3375,9 @@
       <c r="C10" t="s" s="2">
         <v>50</v>
       </c>
-      <c r="D10" s="3"/>
+      <c r="D10" s="5">
+        <v>12</v>
+      </c>
       <c r="E10" s="3"/>
       <c r="F10" s="4"/>
       <c r="G10" s="3"/>
@@ -3399,7 +3422,9 @@
       <c r="C11" t="s" s="2">
         <v>52</v>
       </c>
-      <c r="D11" s="3"/>
+      <c r="D11" s="5">
+        <v>8</v>
+      </c>
       <c r="E11" s="3"/>
       <c r="F11" s="4"/>
       <c r="G11" s="3"/>
@@ -3444,7 +3469,9 @@
       <c r="C12" t="s" s="2">
         <v>55</v>
       </c>
-      <c r="D12" s="3"/>
+      <c r="D12" s="5">
+        <v>9</v>
+      </c>
       <c r="E12" s="3"/>
       <c r="F12" t="s" s="2">
         <v>44</v>
@@ -3761,7 +3788,9 @@
       <c r="C19" t="s" s="2">
         <v>69</v>
       </c>
-      <c r="D19" s="3"/>
+      <c r="D19" s="5">
+        <v>12</v>
+      </c>
       <c r="E19" s="3"/>
       <c r="F19" s="4"/>
       <c r="G19" s="3"/>
@@ -3806,7 +3835,9 @@
       <c r="C20" t="s" s="2">
         <v>77</v>
       </c>
-      <c r="D20" s="3"/>
+      <c r="D20" s="5">
+        <v>10</v>
+      </c>
       <c r="E20" s="3"/>
       <c r="F20" t="s" s="2">
         <v>78</v>
@@ -3855,7 +3886,9 @@
       <c r="C21" t="s" s="2">
         <v>82</v>
       </c>
-      <c r="D21" s="3"/>
+      <c r="D21" s="5">
+        <v>10</v>
+      </c>
       <c r="E21" s="3"/>
       <c r="F21" t="s" s="2">
         <v>83</v>
@@ -3947,7 +3980,9 @@
       <c r="C23" t="s" s="2">
         <v>90</v>
       </c>
-      <c r="D23" s="3"/>
+      <c r="D23" s="5">
+        <v>24</v>
+      </c>
       <c r="E23" s="3"/>
       <c r="F23" t="s" s="2">
         <v>91</v>
@@ -3994,7 +4029,9 @@
       <c r="C24" t="s" s="2">
         <v>96</v>
       </c>
-      <c r="D24" s="3"/>
+      <c r="D24" s="5">
+        <v>28</v>
+      </c>
       <c r="E24" s="3"/>
       <c r="F24" s="4"/>
       <c r="G24" s="3"/>
@@ -4133,7 +4170,9 @@
       <c r="C27" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="D27" s="3"/>
+      <c r="D27" s="5">
+        <v>5</v>
+      </c>
       <c r="E27" s="3"/>
       <c r="F27" t="s" s="2">
         <v>107</v>
@@ -4180,7 +4219,9 @@
       <c r="C28" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="D28" s="3"/>
+      <c r="D28" s="5">
+        <v>5</v>
+      </c>
       <c r="E28" s="3"/>
       <c r="F28" t="s" s="2">
         <v>107</v>
@@ -4227,7 +4268,9 @@
       <c r="C29" t="s" s="2">
         <v>100</v>
       </c>
-      <c r="D29" s="3"/>
+      <c r="D29" s="5">
+        <v>5</v>
+      </c>
       <c r="E29" s="3"/>
       <c r="F29" t="s" s="2">
         <v>110</v>
@@ -4266,22 +4309,22 @@
     </row>
     <row r="30" ht="14.25" customHeight="1">
       <c r="A30" t="s" s="2">
-        <v>103</v>
+        <v>111</v>
       </c>
       <c r="B30" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C30" t="s" s="2">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" t="s" s="2">
-        <v>111</v>
+        <v>63</v>
       </c>
       <c r="G30" s="3"/>
       <c r="H30" t="s" s="2">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="I30" t="s" s="2">
         <v>18</v>
@@ -4290,7 +4333,7 @@
         <v>19</v>
       </c>
       <c r="K30" t="s" s="2">
-        <v>105</v>
+        <v>113</v>
       </c>
       <c r="L30" s="4"/>
       <c r="M30" s="4"/>
@@ -4313,13 +4356,13 @@
     </row>
     <row r="31" ht="14.25" customHeight="1">
       <c r="A31" t="s" s="2">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B31" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C31" t="s" s="2">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
@@ -4337,7 +4380,7 @@
         <v>19</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="L31" s="4"/>
       <c r="M31" s="4"/>
@@ -4360,33 +4403,33 @@
     </row>
     <row r="32" ht="14.25" customHeight="1">
       <c r="A32" t="s" s="2">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="B32" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C32" t="s" s="2">
-        <v>113</v>
+        <v>117</v>
       </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" t="s" s="2">
-        <v>63</v>
+        <v>118</v>
       </c>
       <c r="G32" s="3"/>
       <c r="H32" t="s" s="2">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="I32" t="s" s="2">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J32" t="s" s="2">
         <v>19</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>116</v>
-      </c>
-      <c r="L32" s="4"/>
+        <v>119</v>
+      </c>
+      <c r="L32" s="3"/>
       <c r="M32" s="4"/>
       <c r="N32" s="4"/>
       <c r="O32" s="4"/>
@@ -4407,18 +4450,18 @@
     </row>
     <row r="33" ht="14.25" customHeight="1">
       <c r="A33" t="s" s="2">
-        <v>117</v>
+        <v>120</v>
       </c>
       <c r="B33" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C33" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" t="s" s="2">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="G33" s="3"/>
       <c r="H33" t="s" s="2">
@@ -4431,7 +4474,7 @@
         <v>19</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="L33" s="3"/>
       <c r="M33" s="4"/>
@@ -4454,31 +4497,29 @@
     </row>
     <row r="34" ht="14.25" customHeight="1">
       <c r="A34" t="s" s="2">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="B34" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C34" t="s" s="2">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
-      <c r="F34" t="s" s="2">
-        <v>122</v>
-      </c>
+      <c r="F34" s="3"/>
       <c r="G34" s="3"/>
       <c r="H34" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I34" t="s" s="2">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J34" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="K34" t="s" s="2">
-        <v>123</v>
+      <c r="K34" t="s" s="6">
+        <v>124</v>
       </c>
       <c r="L34" s="3"/>
       <c r="M34" s="4"/>
@@ -4499,19 +4540,21 @@
       <c r="AB34" s="4"/>
       <c r="AC34" s="4"/>
     </row>
-    <row r="35" ht="14.25" customHeight="1">
+    <row r="35" ht="13.75" customHeight="1">
       <c r="A35" t="s" s="2">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="B35" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C35" t="s" s="2">
-        <v>118</v>
+        <v>126</v>
       </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
-      <c r="F35" s="3"/>
+      <c r="F35" t="s" s="17">
+        <v>127</v>
+      </c>
       <c r="G35" s="3"/>
       <c r="H35" t="s" s="2">
         <v>41</v>
@@ -4522,10 +4565,10 @@
       <c r="J35" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="K35" t="s" s="17">
-        <v>125</v>
-      </c>
-      <c r="L35" s="3"/>
+      <c r="K35" t="s" s="2">
+        <v>128</v>
+      </c>
+      <c r="L35" s="4"/>
       <c r="M35" s="4"/>
       <c r="N35" s="4"/>
       <c r="O35" s="4"/>
@@ -4544,20 +4587,20 @@
       <c r="AB35" s="4"/>
       <c r="AC35" s="4"/>
     </row>
-    <row r="36" ht="13.75" customHeight="1">
+    <row r="36" ht="14.25" customHeight="1">
       <c r="A36" t="s" s="2">
-        <v>126</v>
+        <v>129</v>
       </c>
       <c r="B36" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C36" t="s" s="2">
-        <v>127</v>
+        <v>130</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
-      <c r="F36" t="s" s="18">
-        <v>128</v>
+      <c r="F36" t="s" s="2">
+        <v>131</v>
       </c>
       <c r="G36" s="3"/>
       <c r="H36" t="s" s="2">
@@ -4570,7 +4613,7 @@
         <v>19</v>
       </c>
       <c r="K36" t="s" s="2">
-        <v>129</v>
+        <v>132</v>
       </c>
       <c r="L36" s="4"/>
       <c r="M36" s="4"/>
@@ -4593,18 +4636,18 @@
     </row>
     <row r="37" ht="14.25" customHeight="1">
       <c r="A37" t="s" s="2">
-        <v>130</v>
+        <v>133</v>
       </c>
       <c r="B37" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C37" t="s" s="2">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" t="s" s="2">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="G37" s="3"/>
       <c r="H37" t="s" s="2">
@@ -4617,7 +4660,7 @@
         <v>19</v>
       </c>
       <c r="K37" t="s" s="2">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="L37" s="4"/>
       <c r="M37" s="4"/>
@@ -4640,18 +4683,18 @@
     </row>
     <row r="38" ht="14.25" customHeight="1">
       <c r="A38" t="s" s="2">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="B38" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C38" t="s" s="2">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
       <c r="F38" t="s" s="2">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="G38" s="3"/>
       <c r="H38" t="s" s="2">
@@ -4664,9 +4707,11 @@
         <v>19</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>137</v>
-      </c>
-      <c r="L38" s="4"/>
+        <v>139</v>
+      </c>
+      <c r="L38" t="s" s="2">
+        <v>140</v>
+      </c>
       <c r="M38" s="4"/>
       <c r="N38" s="4"/>
       <c r="O38" s="4"/>
@@ -4687,22 +4732,22 @@
     </row>
     <row r="39" ht="14.25" customHeight="1">
       <c r="A39" t="s" s="2">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B39" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C39" t="s" s="2">
-        <v>135</v>
+        <v>142</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
       <c r="F39" t="s" s="2">
-        <v>139</v>
+        <v>143</v>
       </c>
       <c r="G39" s="3"/>
       <c r="H39" t="s" s="2">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I39" t="s" s="2">
         <v>18</v>
@@ -4711,11 +4756,9 @@
         <v>19</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="L39" t="s" s="2">
-        <v>141</v>
-      </c>
+        <v>144</v>
+      </c>
+      <c r="L39" s="4"/>
       <c r="M39" s="4"/>
       <c r="N39" s="4"/>
       <c r="O39" s="4"/>
@@ -4736,18 +4779,18 @@
     </row>
     <row r="40" ht="14.25" customHeight="1">
       <c r="A40" t="s" s="2">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="B40" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C40" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D40" s="3"/>
       <c r="E40" s="3"/>
       <c r="F40" t="s" s="2">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="G40" s="3"/>
       <c r="H40" t="s" s="2">
@@ -4760,7 +4803,7 @@
         <v>19</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="L40" s="4"/>
       <c r="M40" s="4"/>
@@ -4783,18 +4826,18 @@
     </row>
     <row r="41" ht="14.25" customHeight="1">
       <c r="A41" t="s" s="2">
-        <v>146</v>
+        <v>148</v>
       </c>
       <c r="B41" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C41" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
       <c r="F41" t="s" s="2">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="G41" s="3"/>
       <c r="H41" t="s" s="2">
@@ -4807,7 +4850,7 @@
         <v>19</v>
       </c>
       <c r="K41" t="s" s="2">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="L41" s="4"/>
       <c r="M41" s="4"/>
@@ -4830,22 +4873,22 @@
     </row>
     <row r="42" ht="14.25" customHeight="1">
       <c r="A42" t="s" s="2">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="B42" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C42" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D42" s="3"/>
       <c r="E42" s="3"/>
       <c r="F42" t="s" s="2">
-        <v>150</v>
+        <v>151</v>
       </c>
       <c r="G42" s="3"/>
       <c r="H42" t="s" s="2">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I42" t="s" s="2">
         <v>18</v>
@@ -4854,7 +4897,7 @@
         <v>19</v>
       </c>
       <c r="K42" t="s" s="2">
-        <v>148</v>
+        <v>152</v>
       </c>
       <c r="L42" s="4"/>
       <c r="M42" s="4"/>
@@ -4877,22 +4920,22 @@
     </row>
     <row r="43" ht="14.25" customHeight="1">
       <c r="A43" t="s" s="2">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B43" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C43" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D43" s="3"/>
       <c r="E43" s="3"/>
       <c r="F43" t="s" s="2">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="G43" s="3"/>
       <c r="H43" t="s" s="2">
-        <v>41</v>
+        <v>155</v>
       </c>
       <c r="I43" t="s" s="2">
         <v>18</v>
@@ -4901,7 +4944,7 @@
         <v>19</v>
       </c>
       <c r="K43" t="s" s="2">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="L43" s="4"/>
       <c r="M43" s="4"/>
@@ -4923,32 +4966,32 @@
       <c r="AC43" s="4"/>
     </row>
     <row r="44" ht="14.25" customHeight="1">
-      <c r="A44" t="s" s="2">
-        <v>154</v>
-      </c>
-      <c r="B44" t="s" s="2">
+      <c r="A44" t="s" s="18">
+        <v>157</v>
+      </c>
+      <c r="B44" t="s" s="18">
         <v>99</v>
       </c>
-      <c r="C44" t="s" s="2">
-        <v>143</v>
-      </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-      <c r="F44" t="s" s="2">
-        <v>155</v>
-      </c>
-      <c r="G44" s="3"/>
-      <c r="H44" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="I44" t="s" s="2">
+      <c r="C44" t="s" s="19">
+        <v>142</v>
+      </c>
+      <c r="D44" s="20"/>
+      <c r="E44" s="20"/>
+      <c r="F44" t="s" s="18">
+        <v>158</v>
+      </c>
+      <c r="G44" s="21"/>
+      <c r="H44" t="s" s="18">
+        <v>41</v>
+      </c>
+      <c r="I44" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="J44" t="s" s="2">
+      <c r="J44" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="K44" t="s" s="2">
-        <v>157</v>
+      <c r="K44" t="s" s="18">
+        <v>159</v>
       </c>
       <c r="L44" s="4"/>
       <c r="M44" s="4"/>
@@ -4959,43 +5002,43 @@
       <c r="R44" s="4"/>
       <c r="S44" s="4"/>
       <c r="T44" s="4"/>
-      <c r="U44" s="4"/>
-      <c r="V44" s="4"/>
-      <c r="W44" s="4"/>
-      <c r="X44" s="4"/>
-      <c r="Y44" s="4"/>
-      <c r="Z44" s="4"/>
-      <c r="AA44" s="4"/>
-      <c r="AB44" s="4"/>
-      <c r="AC44" s="4"/>
+      <c r="U44" s="20"/>
+      <c r="V44" s="20"/>
+      <c r="W44" s="20"/>
+      <c r="X44" s="20"/>
+      <c r="Y44" s="20"/>
+      <c r="Z44" s="20"/>
+      <c r="AA44" s="20"/>
+      <c r="AB44" s="20"/>
+      <c r="AC44" s="20"/>
     </row>
     <row r="45" ht="14.25" customHeight="1">
-      <c r="A45" t="s" s="19">
-        <v>158</v>
-      </c>
-      <c r="B45" t="s" s="19">
+      <c r="A45" t="s" s="18">
+        <v>160</v>
+      </c>
+      <c r="B45" t="s" s="18">
         <v>99</v>
       </c>
-      <c r="C45" t="s" s="20">
-        <v>143</v>
-      </c>
-      <c r="D45" s="21"/>
-      <c r="E45" s="21"/>
-      <c r="F45" t="s" s="19">
-        <v>159</v>
-      </c>
-      <c r="G45" s="22"/>
-      <c r="H45" t="s" s="19">
-        <v>41</v>
-      </c>
-      <c r="I45" t="s" s="19">
+      <c r="C45" t="s" s="18">
+        <v>142</v>
+      </c>
+      <c r="D45" s="20"/>
+      <c r="E45" s="20"/>
+      <c r="F45" t="s" s="18">
+        <v>161</v>
+      </c>
+      <c r="G45" s="21"/>
+      <c r="H45" t="s" s="18">
+        <v>162</v>
+      </c>
+      <c r="I45" t="s" s="18">
         <v>18</v>
       </c>
-      <c r="J45" t="s" s="19">
+      <c r="J45" t="s" s="18">
         <v>19</v>
       </c>
-      <c r="K45" t="s" s="19">
-        <v>160</v>
+      <c r="K45" t="s" s="18">
+        <v>163</v>
       </c>
       <c r="L45" s="4"/>
       <c r="M45" s="4"/>
@@ -5006,34 +5049,34 @@
       <c r="R45" s="4"/>
       <c r="S45" s="4"/>
       <c r="T45" s="4"/>
-      <c r="U45" s="21"/>
-      <c r="V45" s="21"/>
-      <c r="W45" s="21"/>
-      <c r="X45" s="21"/>
-      <c r="Y45" s="21"/>
-      <c r="Z45" s="21"/>
-      <c r="AA45" s="21"/>
-      <c r="AB45" s="21"/>
-      <c r="AC45" s="21"/>
+      <c r="U45" s="20"/>
+      <c r="V45" s="20"/>
+      <c r="W45" s="20"/>
+      <c r="X45" s="20"/>
+      <c r="Y45" s="20"/>
+      <c r="Z45" s="20"/>
+      <c r="AA45" s="20"/>
+      <c r="AB45" s="20"/>
+      <c r="AC45" s="20"/>
     </row>
     <row r="46" ht="14.25" customHeight="1">
       <c r="A46" t="s" s="19">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="B46" t="s" s="19">
         <v>99</v>
       </c>
       <c r="C46" t="s" s="19">
-        <v>143</v>
-      </c>
-      <c r="D46" s="21"/>
-      <c r="E46" s="21"/>
+        <v>142</v>
+      </c>
+      <c r="D46" s="22"/>
+      <c r="E46" s="22"/>
       <c r="F46" t="s" s="19">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="G46" s="22"/>
       <c r="H46" t="s" s="19">
-        <v>163</v>
+        <v>41</v>
       </c>
       <c r="I46" t="s" s="19">
         <v>18</v>
@@ -5042,92 +5085,92 @@
         <v>19</v>
       </c>
       <c r="K46" t="s" s="19">
-        <v>164</v>
-      </c>
-      <c r="L46" s="4"/>
-      <c r="M46" s="4"/>
-      <c r="N46" s="4"/>
-      <c r="O46" s="4"/>
-      <c r="P46" s="4"/>
-      <c r="Q46" s="4"/>
-      <c r="R46" s="4"/>
-      <c r="S46" s="4"/>
-      <c r="T46" s="4"/>
-      <c r="U46" s="21"/>
-      <c r="V46" s="21"/>
-      <c r="W46" s="21"/>
-      <c r="X46" s="21"/>
-      <c r="Y46" s="21"/>
-      <c r="Z46" s="21"/>
-      <c r="AA46" s="21"/>
-      <c r="AB46" s="21"/>
-      <c r="AC46" s="21"/>
+        <v>166</v>
+      </c>
+      <c r="L46" s="23"/>
+      <c r="M46" s="23"/>
+      <c r="N46" s="23"/>
+      <c r="O46" s="23"/>
+      <c r="P46" s="23"/>
+      <c r="Q46" s="23"/>
+      <c r="R46" s="23"/>
+      <c r="S46" s="23"/>
+      <c r="T46" s="23"/>
+      <c r="U46" s="23"/>
+      <c r="V46" s="23"/>
+      <c r="W46" s="23"/>
+      <c r="X46" s="23"/>
+      <c r="Y46" s="23"/>
+      <c r="Z46" s="23"/>
+      <c r="AA46" s="23"/>
+      <c r="AB46" s="23"/>
+      <c r="AC46" s="23"/>
     </row>
     <row r="47" ht="14.25" customHeight="1">
-      <c r="A47" t="s" s="20">
-        <v>165</v>
-      </c>
-      <c r="B47" t="s" s="20">
+      <c r="A47" t="s" s="2">
+        <v>167</v>
+      </c>
+      <c r="B47" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="C47" t="s" s="20">
-        <v>143</v>
-      </c>
-      <c r="D47" s="23"/>
-      <c r="E47" s="23"/>
-      <c r="F47" t="s" s="20">
-        <v>166</v>
-      </c>
-      <c r="G47" s="23"/>
-      <c r="H47" t="s" s="20">
-        <v>41</v>
-      </c>
-      <c r="I47" t="s" s="20">
+      <c r="C47" t="s" s="2">
+        <v>142</v>
+      </c>
+      <c r="D47" s="3"/>
+      <c r="E47" s="3"/>
+      <c r="F47" t="s" s="2">
+        <v>168</v>
+      </c>
+      <c r="G47" s="3"/>
+      <c r="H47" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="I47" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="J47" t="s" s="20">
+      <c r="J47" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="K47" t="s" s="20">
-        <v>167</v>
-      </c>
-      <c r="L47" s="24"/>
-      <c r="M47" s="24"/>
-      <c r="N47" s="24"/>
-      <c r="O47" s="24"/>
-      <c r="P47" s="24"/>
-      <c r="Q47" s="24"/>
-      <c r="R47" s="24"/>
-      <c r="S47" s="24"/>
-      <c r="T47" s="24"/>
-      <c r="U47" s="24"/>
-      <c r="V47" s="24"/>
-      <c r="W47" s="24"/>
-      <c r="X47" s="24"/>
-      <c r="Y47" s="24"/>
-      <c r="Z47" s="24"/>
-      <c r="AA47" s="24"/>
-      <c r="AB47" s="24"/>
-      <c r="AC47" s="24"/>
+      <c r="K47" t="s" s="2">
+        <v>169</v>
+      </c>
+      <c r="L47" s="4"/>
+      <c r="M47" s="4"/>
+      <c r="N47" s="4"/>
+      <c r="O47" s="4"/>
+      <c r="P47" s="4"/>
+      <c r="Q47" s="4"/>
+      <c r="R47" s="4"/>
+      <c r="S47" s="4"/>
+      <c r="T47" s="4"/>
+      <c r="U47" s="4"/>
+      <c r="V47" s="4"/>
+      <c r="W47" s="4"/>
+      <c r="X47" s="4"/>
+      <c r="Y47" s="4"/>
+      <c r="Z47" s="4"/>
+      <c r="AA47" s="4"/>
+      <c r="AB47" s="4"/>
+      <c r="AC47" s="4"/>
     </row>
     <row r="48" ht="14.25" customHeight="1">
       <c r="A48" t="s" s="2">
-        <v>168</v>
+        <v>170</v>
       </c>
       <c r="B48" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C48" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D48" s="3"/>
       <c r="E48" s="3"/>
       <c r="F48" t="s" s="2">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="G48" s="3"/>
       <c r="H48" t="s" s="2">
-        <v>59</v>
+        <v>41</v>
       </c>
       <c r="I48" t="s" s="2">
         <v>18</v>
@@ -5136,7 +5179,7 @@
         <v>19</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="L48" s="4"/>
       <c r="M48" s="4"/>
@@ -5159,21 +5202,21 @@
     </row>
     <row r="49" ht="14.25" customHeight="1">
       <c r="A49" t="s" s="2">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="B49" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C49" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D49" s="3"/>
       <c r="E49" s="3"/>
-      <c r="F49" t="s" s="2">
-        <v>172</v>
-      </c>
+      <c r="F49" s="4"/>
       <c r="G49" s="3"/>
-      <c r="H49" s="3"/>
+      <c r="H49" t="s" s="2">
+        <v>17</v>
+      </c>
       <c r="I49" t="s" s="2">
         <v>18</v>
       </c>
@@ -5181,7 +5224,7 @@
         <v>19</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="L49" s="4"/>
       <c r="M49" s="4"/>
@@ -5204,20 +5247,22 @@
     </row>
     <row r="50" ht="14.25" customHeight="1">
       <c r="A50" t="s" s="2">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="B50" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C50" t="s" s="2">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="D50" s="3"/>
       <c r="E50" s="3"/>
-      <c r="F50" s="4"/>
+      <c r="F50" t="s" s="2">
+        <v>176</v>
+      </c>
       <c r="G50" s="3"/>
       <c r="H50" t="s" s="2">
-        <v>17</v>
+        <v>177</v>
       </c>
       <c r="I50" t="s" s="2">
         <v>18</v>
@@ -5226,7 +5271,7 @@
         <v>19</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="L50" s="4"/>
       <c r="M50" s="4"/>
@@ -5249,22 +5294,22 @@
     </row>
     <row r="51" ht="14.25" customHeight="1">
       <c r="A51" t="s" s="2">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="B51" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C51" t="s" s="2">
-        <v>143</v>
+        <v>180</v>
       </c>
       <c r="D51" s="3"/>
       <c r="E51" s="3"/>
       <c r="F51" t="s" s="2">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="G51" s="3"/>
       <c r="H51" t="s" s="2">
-        <v>178</v>
+        <v>17</v>
       </c>
       <c r="I51" t="s" s="2">
         <v>18</v>
@@ -5272,8 +5317,8 @@
       <c r="J51" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="K51" t="s" s="2">
-        <v>179</v>
+      <c r="K51" t="s" s="6">
+        <v>182</v>
       </c>
       <c r="L51" s="4"/>
       <c r="M51" s="4"/>
@@ -5296,22 +5341,22 @@
     </row>
     <row r="52" ht="14.25" customHeight="1">
       <c r="A52" t="s" s="2">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="B52" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C52" t="s" s="2">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="D52" s="3"/>
       <c r="E52" s="3"/>
       <c r="F52" t="s" s="2">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="G52" s="3"/>
       <c r="H52" t="s" s="2">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I52" t="s" s="2">
         <v>18</v>
@@ -5319,8 +5364,8 @@
       <c r="J52" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="K52" t="s" s="17">
-        <v>183</v>
+      <c r="K52" t="s" s="2">
+        <v>186</v>
       </c>
       <c r="L52" s="4"/>
       <c r="M52" s="4"/>
@@ -5343,18 +5388,18 @@
     </row>
     <row r="53" ht="14.25" customHeight="1">
       <c r="A53" t="s" s="2">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B53" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C53" t="s" s="2">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="D53" s="3"/>
       <c r="E53" s="3"/>
       <c r="F53" t="s" s="2">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="G53" s="3"/>
       <c r="H53" t="s" s="2">
@@ -5367,7 +5412,7 @@
         <v>19</v>
       </c>
       <c r="K53" t="s" s="2">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="L53" s="4"/>
       <c r="M53" s="4"/>
@@ -5390,18 +5435,18 @@
     </row>
     <row r="54" ht="14.25" customHeight="1">
       <c r="A54" t="s" s="2">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="B54" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C54" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D54" s="3"/>
       <c r="E54" s="3"/>
       <c r="F54" t="s" s="2">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="G54" s="3"/>
       <c r="H54" t="s" s="2">
@@ -5414,7 +5459,7 @@
         <v>19</v>
       </c>
       <c r="K54" t="s" s="2">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="L54" s="4"/>
       <c r="M54" s="4"/>
@@ -5437,18 +5482,18 @@
     </row>
     <row r="55" ht="14.25" customHeight="1">
       <c r="A55" t="s" s="2">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B55" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C55" t="s" s="2">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="D55" s="3"/>
       <c r="E55" s="3"/>
       <c r="F55" t="s" s="2">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="G55" s="3"/>
       <c r="H55" t="s" s="2">
@@ -5461,7 +5506,7 @@
         <v>19</v>
       </c>
       <c r="K55" t="s" s="2">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="L55" s="4"/>
       <c r="M55" s="4"/>
@@ -5483,113 +5528,113 @@
       <c r="AC55" s="4"/>
     </row>
     <row r="56" ht="14.25" customHeight="1">
-      <c r="A56" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="B56" t="s" s="2">
+      <c r="A56" t="s" s="19">
+        <v>197</v>
+      </c>
+      <c r="B56" t="s" s="19">
         <v>99</v>
       </c>
-      <c r="C56" t="s" s="2">
-        <v>189</v>
-      </c>
-      <c r="D56" s="3"/>
-      <c r="E56" s="3"/>
-      <c r="F56" t="s" s="2">
-        <v>196</v>
-      </c>
-      <c r="G56" s="3"/>
-      <c r="H56" t="s" s="2">
+      <c r="C56" t="s" s="19">
+        <v>188</v>
+      </c>
+      <c r="D56" s="22"/>
+      <c r="E56" s="22"/>
+      <c r="F56" t="s" s="19">
+        <v>198</v>
+      </c>
+      <c r="G56" s="22"/>
+      <c r="H56" t="s" s="19">
         <v>41</v>
       </c>
-      <c r="I56" t="s" s="2">
+      <c r="I56" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="J56" t="s" s="2">
+      <c r="J56" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="K56" t="s" s="2">
-        <v>197</v>
-      </c>
-      <c r="L56" s="4"/>
-      <c r="M56" s="4"/>
-      <c r="N56" s="4"/>
-      <c r="O56" s="4"/>
-      <c r="P56" s="4"/>
-      <c r="Q56" s="4"/>
-      <c r="R56" s="4"/>
-      <c r="S56" s="4"/>
-      <c r="T56" s="4"/>
-      <c r="U56" s="4"/>
-      <c r="V56" s="4"/>
-      <c r="W56" s="4"/>
-      <c r="X56" s="4"/>
-      <c r="Y56" s="4"/>
-      <c r="Z56" s="4"/>
-      <c r="AA56" s="4"/>
-      <c r="AB56" s="4"/>
-      <c r="AC56" s="4"/>
+      <c r="K56" t="s" s="19">
+        <v>199</v>
+      </c>
+      <c r="L56" s="23"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="23"/>
+      <c r="P56" s="23"/>
+      <c r="Q56" s="23"/>
+      <c r="R56" s="23"/>
+      <c r="S56" s="23"/>
+      <c r="T56" s="23"/>
+      <c r="U56" s="23"/>
+      <c r="V56" s="23"/>
+      <c r="W56" s="23"/>
+      <c r="X56" s="23"/>
+      <c r="Y56" s="23"/>
+      <c r="Z56" s="23"/>
+      <c r="AA56" s="23"/>
+      <c r="AB56" s="23"/>
+      <c r="AC56" s="23"/>
     </row>
     <row r="57" ht="14.25" customHeight="1">
-      <c r="A57" t="s" s="20">
-        <v>198</v>
-      </c>
-      <c r="B57" t="s" s="20">
+      <c r="A57" t="s" s="2">
+        <v>200</v>
+      </c>
+      <c r="B57" t="s" s="2">
         <v>99</v>
       </c>
-      <c r="C57" t="s" s="20">
-        <v>189</v>
-      </c>
-      <c r="D57" s="23"/>
-      <c r="E57" s="23"/>
-      <c r="F57" t="s" s="20">
-        <v>199</v>
-      </c>
-      <c r="G57" s="23"/>
-      <c r="H57" t="s" s="20">
+      <c r="C57" t="s" s="2">
+        <v>188</v>
+      </c>
+      <c r="D57" s="3"/>
+      <c r="E57" s="3"/>
+      <c r="F57" t="s" s="2">
+        <v>131</v>
+      </c>
+      <c r="G57" s="3"/>
+      <c r="H57" t="s" s="2">
         <v>41</v>
       </c>
-      <c r="I57" t="s" s="20">
+      <c r="I57" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="J57" t="s" s="20">
+      <c r="J57" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="K57" t="s" s="20">
-        <v>200</v>
-      </c>
-      <c r="L57" s="24"/>
-      <c r="M57" s="24"/>
-      <c r="N57" s="24"/>
-      <c r="O57" s="24"/>
-      <c r="P57" s="24"/>
-      <c r="Q57" s="24"/>
-      <c r="R57" s="24"/>
-      <c r="S57" s="24"/>
-      <c r="T57" s="24"/>
-      <c r="U57" s="24"/>
-      <c r="V57" s="24"/>
-      <c r="W57" s="24"/>
-      <c r="X57" s="24"/>
-      <c r="Y57" s="24"/>
-      <c r="Z57" s="24"/>
-      <c r="AA57" s="24"/>
-      <c r="AB57" s="24"/>
-      <c r="AC57" s="24"/>
+      <c r="K57" t="s" s="2">
+        <v>201</v>
+      </c>
+      <c r="L57" s="4"/>
+      <c r="M57" s="4"/>
+      <c r="N57" s="4"/>
+      <c r="O57" s="4"/>
+      <c r="P57" s="4"/>
+      <c r="Q57" s="4"/>
+      <c r="R57" s="4"/>
+      <c r="S57" s="4"/>
+      <c r="T57" s="4"/>
+      <c r="U57" s="4"/>
+      <c r="V57" s="4"/>
+      <c r="W57" s="4"/>
+      <c r="X57" s="4"/>
+      <c r="Y57" s="4"/>
+      <c r="Z57" s="4"/>
+      <c r="AA57" s="4"/>
+      <c r="AB57" s="4"/>
+      <c r="AC57" s="4"/>
     </row>
     <row r="58" ht="14.25" customHeight="1">
       <c r="A58" t="s" s="2">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="B58" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C58" t="s" s="2">
-        <v>189</v>
+        <v>203</v>
       </c>
       <c r="D58" s="3"/>
       <c r="E58" s="3"/>
       <c r="F58" t="s" s="2">
-        <v>132</v>
+        <v>204</v>
       </c>
       <c r="G58" s="3"/>
       <c r="H58" t="s" s="2">
@@ -5602,7 +5647,7 @@
         <v>19</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="L58" s="4"/>
       <c r="M58" s="4"/>
@@ -5625,31 +5670,31 @@
     </row>
     <row r="59" ht="14.25" customHeight="1">
       <c r="A59" t="s" s="2">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="B59" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C59" t="s" s="2">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="D59" s="3"/>
       <c r="E59" s="3"/>
       <c r="F59" t="s" s="2">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="G59" s="3"/>
       <c r="H59" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I59" t="s" s="2">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="J59" t="s" s="2">
         <v>19</v>
       </c>
       <c r="K59" t="s" s="2">
-        <v>206</v>
+        <v>210</v>
       </c>
       <c r="L59" s="4"/>
       <c r="M59" s="4"/>
@@ -5672,31 +5717,31 @@
     </row>
     <row r="60" ht="14.25" customHeight="1">
       <c r="A60" t="s" s="2">
-        <v>207</v>
+        <v>211</v>
       </c>
       <c r="B60" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C60" t="s" s="2">
-        <v>208</v>
+        <v>212</v>
       </c>
       <c r="D60" s="3"/>
       <c r="E60" s="3"/>
       <c r="F60" t="s" s="2">
-        <v>209</v>
+        <v>213</v>
       </c>
       <c r="G60" s="3"/>
       <c r="H60" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I60" t="s" s="2">
-        <v>210</v>
+        <v>18</v>
       </c>
       <c r="J60" t="s" s="2">
         <v>19</v>
       </c>
       <c r="K60" t="s" s="2">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="L60" s="4"/>
       <c r="M60" s="4"/>
@@ -5719,18 +5764,18 @@
     </row>
     <row r="61" ht="14.25" customHeight="1">
       <c r="A61" t="s" s="2">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="B61" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C61" t="s" s="2">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="D61" s="3"/>
       <c r="E61" s="3"/>
       <c r="F61" t="s" s="2">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="G61" s="3"/>
       <c r="H61" t="s" s="2">
@@ -5743,7 +5788,7 @@
         <v>19</v>
       </c>
       <c r="K61" t="s" s="2">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="L61" s="4"/>
       <c r="M61" s="4"/>
@@ -5766,18 +5811,18 @@
     </row>
     <row r="62" ht="14.25" customHeight="1">
       <c r="A62" t="s" s="2">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B62" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C62" t="s" s="2">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="D62" s="3"/>
       <c r="E62" s="3"/>
       <c r="F62" t="s" s="2">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="G62" s="3"/>
       <c r="H62" t="s" s="2">
@@ -5790,7 +5835,7 @@
         <v>19</v>
       </c>
       <c r="K62" t="s" s="2">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="L62" s="4"/>
       <c r="M62" s="4"/>
@@ -5813,22 +5858,22 @@
     </row>
     <row r="63" ht="14.25" customHeight="1">
       <c r="A63" t="s" s="2">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="B63" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C63" t="s" s="2">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="D63" s="3"/>
       <c r="E63" s="3"/>
       <c r="F63" t="s" s="2">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="G63" s="3"/>
       <c r="H63" t="s" s="2">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I63" t="s" s="2">
         <v>18</v>
@@ -5837,7 +5882,7 @@
         <v>19</v>
       </c>
       <c r="K63" t="s" s="2">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="L63" s="4"/>
       <c r="M63" s="4"/>
@@ -5860,22 +5905,22 @@
     </row>
     <row r="64" ht="14.25" customHeight="1">
       <c r="A64" t="s" s="2">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="B64" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C64" t="s" s="2">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="D64" s="3"/>
       <c r="E64" s="3"/>
       <c r="F64" t="s" s="2">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="G64" s="3"/>
       <c r="H64" t="s" s="2">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I64" t="s" s="2">
         <v>18</v>
@@ -5884,7 +5929,7 @@
         <v>19</v>
       </c>
       <c r="K64" t="s" s="2">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="L64" s="4"/>
       <c r="M64" s="4"/>
@@ -5907,18 +5952,18 @@
     </row>
     <row r="65" ht="14.25" customHeight="1">
       <c r="A65" t="s" s="2">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="B65" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C65" t="s" s="2">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="D65" s="3"/>
       <c r="E65" s="3"/>
       <c r="F65" t="s" s="2">
-        <v>111</v>
+        <v>232</v>
       </c>
       <c r="G65" s="3"/>
       <c r="H65" t="s" s="2">
@@ -5931,9 +5976,11 @@
         <v>19</v>
       </c>
       <c r="K65" t="s" s="2">
-        <v>229</v>
-      </c>
-      <c r="L65" s="4"/>
+        <v>233</v>
+      </c>
+      <c r="L65" t="s" s="17">
+        <v>234</v>
+      </c>
       <c r="M65" s="4"/>
       <c r="N65" s="4"/>
       <c r="O65" s="4"/>
@@ -5954,22 +6001,22 @@
     </row>
     <row r="66" ht="14.25" customHeight="1">
       <c r="A66" t="s" s="2">
-        <v>230</v>
+        <v>235</v>
       </c>
       <c r="B66" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C66" t="s" s="2">
-        <v>231</v>
+        <v>236</v>
       </c>
       <c r="D66" s="3"/>
       <c r="E66" s="3"/>
       <c r="F66" t="s" s="2">
-        <v>232</v>
+        <v>237</v>
       </c>
       <c r="G66" s="3"/>
       <c r="H66" t="s" s="2">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I66" t="s" s="2">
         <v>18</v>
@@ -5978,11 +6025,9 @@
         <v>19</v>
       </c>
       <c r="K66" t="s" s="2">
-        <v>233</v>
-      </c>
-      <c r="L66" t="s" s="18">
-        <v>234</v>
-      </c>
+        <v>238</v>
+      </c>
+      <c r="L66" s="4"/>
       <c r="M66" s="4"/>
       <c r="N66" s="4"/>
       <c r="O66" s="4"/>
@@ -6003,22 +6048,22 @@
     </row>
     <row r="67" ht="14.25" customHeight="1">
       <c r="A67" t="s" s="2">
-        <v>235</v>
+        <v>239</v>
       </c>
       <c r="B67" t="s" s="2">
         <v>99</v>
       </c>
       <c r="C67" t="s" s="2">
-        <v>236</v>
+        <v>240</v>
       </c>
       <c r="D67" s="3"/>
       <c r="E67" s="3"/>
       <c r="F67" t="s" s="2">
-        <v>237</v>
+        <v>241</v>
       </c>
       <c r="G67" s="3"/>
       <c r="H67" t="s" s="2">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I67" t="s" s="2">
         <v>18</v>
@@ -6027,7 +6072,7 @@
         <v>19</v>
       </c>
       <c r="K67" t="s" s="2">
-        <v>238</v>
+        <v>242</v>
       </c>
       <c r="L67" s="4"/>
       <c r="M67" s="4"/>
@@ -6050,7 +6095,7 @@
     </row>
     <row r="68" ht="14.25" customHeight="1">
       <c r="A68" t="s" s="2">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="B68" t="s" s="2">
         <v>99</v>
@@ -6061,11 +6106,11 @@
       <c r="D68" s="3"/>
       <c r="E68" s="3"/>
       <c r="F68" t="s" s="2">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="G68" s="3"/>
       <c r="H68" t="s" s="2">
-        <v>41</v>
+        <v>59</v>
       </c>
       <c r="I68" t="s" s="2">
         <v>18</v>
@@ -6074,7 +6119,7 @@
         <v>19</v>
       </c>
       <c r="K68" t="s" s="2">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="L68" s="4"/>
       <c r="M68" s="4"/>
@@ -6097,7 +6142,7 @@
     </row>
     <row r="69" ht="14.25" customHeight="1">
       <c r="A69" t="s" s="2">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="B69" t="s" s="2">
         <v>99</v>
@@ -6108,11 +6153,11 @@
       <c r="D69" s="3"/>
       <c r="E69" s="3"/>
       <c r="F69" t="s" s="2">
-        <v>136</v>
+        <v>228</v>
       </c>
       <c r="G69" s="3"/>
       <c r="H69" t="s" s="2">
-        <v>59</v>
+        <v>247</v>
       </c>
       <c r="I69" t="s" s="2">
         <v>18</v>
@@ -6121,7 +6166,7 @@
         <v>19</v>
       </c>
       <c r="K69" t="s" s="2">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="L69" s="4"/>
       <c r="M69" s="4"/>
@@ -6144,7 +6189,7 @@
     </row>
     <row r="70" ht="14.25" customHeight="1">
       <c r="A70" t="s" s="2">
-        <v>245</v>
+        <v>249</v>
       </c>
       <c r="B70" t="s" s="2">
         <v>99</v>
@@ -6155,11 +6200,11 @@
       <c r="D70" s="3"/>
       <c r="E70" s="3"/>
       <c r="F70" t="s" s="2">
-        <v>111</v>
+        <v>228</v>
       </c>
       <c r="G70" s="3"/>
       <c r="H70" t="s" s="2">
-        <v>246</v>
+        <v>250</v>
       </c>
       <c r="I70" t="s" s="2">
         <v>18</v>
@@ -6168,7 +6213,7 @@
         <v>19</v>
       </c>
       <c r="K70" t="s" s="2">
-        <v>247</v>
+        <v>251</v>
       </c>
       <c r="L70" s="4"/>
       <c r="M70" s="4"/>
@@ -6190,113 +6235,113 @@
       <c r="AC70" s="4"/>
     </row>
     <row r="71" ht="14.25" customHeight="1">
-      <c r="A71" t="s" s="2">
-        <v>248</v>
-      </c>
-      <c r="B71" t="s" s="2">
+      <c r="A71" t="s" s="19">
+        <v>252</v>
+      </c>
+      <c r="B71" t="s" s="19">
         <v>99</v>
       </c>
-      <c r="C71" t="s" s="2">
-        <v>240</v>
-      </c>
-      <c r="D71" s="3"/>
-      <c r="E71" s="3"/>
-      <c r="F71" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="G71" s="3"/>
-      <c r="H71" t="s" s="2">
-        <v>249</v>
-      </c>
-      <c r="I71" t="s" s="2">
+      <c r="C71" t="s" s="24">
+        <v>63</v>
+      </c>
+      <c r="D71" s="23"/>
+      <c r="E71" s="23"/>
+      <c r="F71" t="s" s="24">
+        <v>63</v>
+      </c>
+      <c r="G71" s="22"/>
+      <c r="H71" t="s" s="19">
+        <v>59</v>
+      </c>
+      <c r="I71" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="J71" t="s" s="2">
+      <c r="J71" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="K71" t="s" s="2">
-        <v>250</v>
-      </c>
-      <c r="L71" s="4"/>
-      <c r="M71" s="4"/>
-      <c r="N71" s="4"/>
-      <c r="O71" s="4"/>
-      <c r="P71" s="4"/>
-      <c r="Q71" s="4"/>
-      <c r="R71" s="4"/>
-      <c r="S71" s="4"/>
-      <c r="T71" s="4"/>
-      <c r="U71" s="4"/>
-      <c r="V71" s="4"/>
-      <c r="W71" s="4"/>
-      <c r="X71" s="4"/>
-      <c r="Y71" s="4"/>
-      <c r="Z71" s="4"/>
-      <c r="AA71" s="4"/>
-      <c r="AB71" s="4"/>
-      <c r="AC71" s="4"/>
+      <c r="K71" t="s" s="19">
+        <v>253</v>
+      </c>
+      <c r="L71" s="22"/>
+      <c r="M71" s="23"/>
+      <c r="N71" s="23"/>
+      <c r="O71" s="23"/>
+      <c r="P71" s="23"/>
+      <c r="Q71" s="23"/>
+      <c r="R71" s="23"/>
+      <c r="S71" s="23"/>
+      <c r="T71" s="23"/>
+      <c r="U71" s="23"/>
+      <c r="V71" s="23"/>
+      <c r="W71" s="23"/>
+      <c r="X71" s="23"/>
+      <c r="Y71" s="23"/>
+      <c r="Z71" s="23"/>
+      <c r="AA71" s="23"/>
+      <c r="AB71" s="23"/>
+      <c r="AC71" s="23"/>
     </row>
     <row r="72" ht="14.25" customHeight="1">
-      <c r="A72" t="s" s="20">
-        <v>251</v>
-      </c>
-      <c r="B72" t="s" s="20">
-        <v>99</v>
-      </c>
-      <c r="C72" t="s" s="25">
-        <v>63</v>
-      </c>
-      <c r="D72" s="24"/>
-      <c r="E72" s="24"/>
-      <c r="F72" t="s" s="25">
-        <v>63</v>
-      </c>
-      <c r="G72" s="23"/>
-      <c r="H72" t="s" s="20">
-        <v>59</v>
-      </c>
-      <c r="I72" t="s" s="20">
+      <c r="A72" t="s" s="2">
+        <v>254</v>
+      </c>
+      <c r="B72" t="s" s="2">
+        <v>255</v>
+      </c>
+      <c r="C72" s="4"/>
+      <c r="D72" s="4"/>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="3"/>
+      <c r="H72" t="s" s="2">
+        <v>41</v>
+      </c>
+      <c r="I72" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="J72" t="s" s="20">
+      <c r="J72" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="K72" t="s" s="20">
-        <v>252</v>
-      </c>
-      <c r="L72" s="23"/>
-      <c r="M72" s="24"/>
-      <c r="N72" s="24"/>
-      <c r="O72" s="24"/>
-      <c r="P72" s="24"/>
-      <c r="Q72" s="24"/>
-      <c r="R72" s="24"/>
-      <c r="S72" s="24"/>
-      <c r="T72" s="24"/>
-      <c r="U72" s="24"/>
-      <c r="V72" s="24"/>
-      <c r="W72" s="24"/>
-      <c r="X72" s="24"/>
-      <c r="Y72" s="24"/>
-      <c r="Z72" s="24"/>
-      <c r="AA72" s="24"/>
-      <c r="AB72" s="24"/>
-      <c r="AC72" s="24"/>
+      <c r="K72" t="s" s="2">
+        <v>256</v>
+      </c>
+      <c r="L72" t="s" s="2">
+        <v>257</v>
+      </c>
+      <c r="M72" s="4"/>
+      <c r="N72" s="4"/>
+      <c r="O72" s="4"/>
+      <c r="P72" s="4"/>
+      <c r="Q72" s="4"/>
+      <c r="R72" s="4"/>
+      <c r="S72" s="4"/>
+      <c r="T72" s="4"/>
+      <c r="U72" s="4"/>
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+      <c r="X72" s="4"/>
+      <c r="Y72" s="4"/>
+      <c r="Z72" s="4"/>
+      <c r="AA72" s="4"/>
+      <c r="AB72" s="4"/>
+      <c r="AC72" s="4"/>
     </row>
     <row r="73" ht="14.25" customHeight="1">
       <c r="A73" t="s" s="2">
-        <v>253</v>
+        <v>258</v>
       </c>
       <c r="B73" t="s" s="2">
-        <v>254</v>
-      </c>
-      <c r="C73" s="4"/>
-      <c r="D73" s="4"/>
-      <c r="E73" s="4"/>
+        <v>259</v>
+      </c>
+      <c r="C73" t="s" s="2">
+        <v>63</v>
+      </c>
+      <c r="D73" s="3"/>
+      <c r="E73" s="3"/>
       <c r="F73" s="4"/>
       <c r="G73" s="3"/>
       <c r="H73" t="s" s="2">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I73" t="s" s="2">
         <v>18</v>
@@ -6305,11 +6350,9 @@
         <v>19</v>
       </c>
       <c r="K73" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="L73" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>260</v>
+      </c>
+      <c r="L73" s="3"/>
       <c r="M73" s="4"/>
       <c r="N73" s="4"/>
       <c r="O73" s="4"/>
@@ -6330,20 +6373,22 @@
     </row>
     <row r="74" ht="14.25" customHeight="1">
       <c r="A74" t="s" s="2">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B74" t="s" s="2">
-        <v>258</v>
+        <v>262</v>
       </c>
       <c r="C74" t="s" s="2">
-        <v>63</v>
+        <v>263</v>
       </c>
       <c r="D74" s="3"/>
       <c r="E74" s="3"/>
-      <c r="F74" s="4"/>
+      <c r="F74" t="s" s="2">
+        <v>264</v>
+      </c>
       <c r="G74" s="3"/>
       <c r="H74" t="s" s="2">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I74" t="s" s="2">
         <v>18</v>
@@ -6352,9 +6397,9 @@
         <v>19</v>
       </c>
       <c r="K74" t="s" s="2">
-        <v>259</v>
-      </c>
-      <c r="L74" s="3"/>
+        <v>265</v>
+      </c>
+      <c r="L74" s="4"/>
       <c r="M74" s="4"/>
       <c r="N74" s="4"/>
       <c r="O74" s="4"/>
@@ -6375,33 +6420,33 @@
     </row>
     <row r="75" ht="14.25" customHeight="1">
       <c r="A75" t="s" s="2">
-        <v>260</v>
+        <v>266</v>
       </c>
       <c r="B75" t="s" s="2">
-        <v>261</v>
-      </c>
-      <c r="C75" t="s" s="2">
-        <v>262</v>
-      </c>
+        <v>267</v>
+      </c>
+      <c r="C75" s="3"/>
       <c r="D75" s="3"/>
       <c r="E75" s="3"/>
       <c r="F75" t="s" s="2">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="G75" s="3"/>
       <c r="H75" t="s" s="2">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I75" t="s" s="2">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J75" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="K75" t="s" s="2">
-        <v>264</v>
-      </c>
-      <c r="L75" s="4"/>
+      <c r="K75" t="s" s="6">
+        <v>269</v>
+      </c>
+      <c r="L75" t="s" s="2">
+        <v>270</v>
+      </c>
       <c r="M75" s="4"/>
       <c r="N75" s="4"/>
       <c r="O75" s="4"/>
@@ -6422,32 +6467,34 @@
     </row>
     <row r="76" ht="14.25" customHeight="1">
       <c r="A76" t="s" s="2">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="B76" t="s" s="2">
-        <v>266</v>
-      </c>
-      <c r="C76" s="3"/>
+        <v>272</v>
+      </c>
+      <c r="C76" t="s" s="2">
+        <v>273</v>
+      </c>
       <c r="D76" s="3"/>
       <c r="E76" s="3"/>
       <c r="F76" t="s" s="2">
-        <v>267</v>
+        <v>274</v>
       </c>
       <c r="G76" s="3"/>
       <c r="H76" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I76" t="s" s="2">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J76" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="K76" t="s" s="17">
-        <v>268</v>
-      </c>
-      <c r="L76" t="s" s="2">
-        <v>269</v>
+      <c r="K76" t="s" s="6">
+        <v>182</v>
+      </c>
+      <c r="L76" t="s" s="17">
+        <v>275</v>
       </c>
       <c r="M76" s="4"/>
       <c r="N76" s="4"/>
@@ -6469,18 +6516,18 @@
     </row>
     <row r="77" ht="14.25" customHeight="1">
       <c r="A77" t="s" s="2">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="B77" t="s" s="2">
-        <v>271</v>
+        <v>277</v>
       </c>
       <c r="C77" t="s" s="2">
-        <v>272</v>
+        <v>278</v>
       </c>
       <c r="D77" s="3"/>
       <c r="E77" s="3"/>
       <c r="F77" t="s" s="2">
-        <v>273</v>
+        <v>279</v>
       </c>
       <c r="G77" s="3"/>
       <c r="H77" t="s" s="2">
@@ -6492,12 +6539,10 @@
       <c r="J77" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="K77" t="s" s="17">
-        <v>183</v>
-      </c>
-      <c r="L77" t="s" s="18">
-        <v>274</v>
-      </c>
+      <c r="K77" t="s" s="2">
+        <v>280</v>
+      </c>
+      <c r="L77" s="4"/>
       <c r="M77" s="4"/>
       <c r="N77" s="4"/>
       <c r="O77" s="4"/>
@@ -6518,18 +6563,18 @@
     </row>
     <row r="78" ht="14.25" customHeight="1">
       <c r="A78" t="s" s="2">
-        <v>275</v>
+        <v>281</v>
       </c>
       <c r="B78" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C78" t="s" s="2">
-        <v>277</v>
+        <v>282</v>
       </c>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
       <c r="F78" t="s" s="2">
-        <v>278</v>
+        <v>283</v>
       </c>
       <c r="G78" s="3"/>
       <c r="H78" t="s" s="2">
@@ -6542,7 +6587,7 @@
         <v>19</v>
       </c>
       <c r="K78" t="s" s="2">
-        <v>279</v>
+        <v>284</v>
       </c>
       <c r="L78" s="4"/>
       <c r="M78" s="4"/>
@@ -6565,18 +6610,18 @@
     </row>
     <row r="79" ht="14.25" customHeight="1">
       <c r="A79" t="s" s="2">
-        <v>280</v>
+        <v>285</v>
       </c>
       <c r="B79" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C79" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
       <c r="F79" t="s" s="2">
-        <v>282</v>
+        <v>286</v>
       </c>
       <c r="G79" s="3"/>
       <c r="H79" t="s" s="2">
@@ -6589,7 +6634,7 @@
         <v>19</v>
       </c>
       <c r="K79" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="L79" s="4"/>
       <c r="M79" s="4"/>
@@ -6612,18 +6657,18 @@
     </row>
     <row r="80" ht="14.25" customHeight="1">
       <c r="A80" t="s" s="2">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B80" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C80" t="s" s="2">
-        <v>281</v>
+        <v>288</v>
       </c>
       <c r="D80" s="3"/>
       <c r="E80" s="3"/>
       <c r="F80" t="s" s="2">
-        <v>285</v>
+        <v>289</v>
       </c>
       <c r="G80" s="3"/>
       <c r="H80" t="s" s="2">
@@ -6636,9 +6681,11 @@
         <v>19</v>
       </c>
       <c r="K80" t="s" s="2">
-        <v>283</v>
-      </c>
-      <c r="L80" s="4"/>
+        <v>290</v>
+      </c>
+      <c r="L80" t="s" s="17">
+        <v>291</v>
+      </c>
       <c r="M80" s="4"/>
       <c r="N80" s="4"/>
       <c r="O80" s="4"/>
@@ -6659,18 +6706,18 @@
     </row>
     <row r="81" ht="14.25" customHeight="1">
       <c r="A81" t="s" s="2">
-        <v>286</v>
+        <v>292</v>
       </c>
       <c r="B81" t="s" s="2">
-        <v>276</v>
+        <v>293</v>
       </c>
       <c r="C81" t="s" s="2">
-        <v>287</v>
+        <v>294</v>
       </c>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
       <c r="F81" t="s" s="2">
-        <v>288</v>
+        <v>295</v>
       </c>
       <c r="G81" s="3"/>
       <c r="H81" t="s" s="2">
@@ -6683,10 +6730,10 @@
         <v>19</v>
       </c>
       <c r="K81" t="s" s="2">
-        <v>289</v>
-      </c>
-      <c r="L81" t="s" s="18">
-        <v>290</v>
+        <v>296</v>
+      </c>
+      <c r="L81" t="s" s="17">
+        <v>297</v>
       </c>
       <c r="M81" s="4"/>
       <c r="N81" s="4"/>
@@ -6707,115 +6754,113 @@
       <c r="AC81" s="4"/>
     </row>
     <row r="82" ht="14.25" customHeight="1">
-      <c r="A82" t="s" s="2">
-        <v>291</v>
-      </c>
-      <c r="B82" t="s" s="2">
-        <v>292</v>
-      </c>
-      <c r="C82" t="s" s="2">
-        <v>293</v>
-      </c>
-      <c r="D82" s="3"/>
-      <c r="E82" s="3"/>
-      <c r="F82" t="s" s="2">
-        <v>294</v>
-      </c>
-      <c r="G82" s="3"/>
-      <c r="H82" t="s" s="2">
+      <c r="A82" t="s" s="19">
+        <v>298</v>
+      </c>
+      <c r="B82" t="s" s="19">
+        <v>277</v>
+      </c>
+      <c r="C82" t="s" s="19">
+        <v>299</v>
+      </c>
+      <c r="D82" s="22"/>
+      <c r="E82" s="22"/>
+      <c r="F82" t="s" s="19">
+        <v>300</v>
+      </c>
+      <c r="G82" s="22"/>
+      <c r="H82" t="s" s="19">
         <v>17</v>
       </c>
-      <c r="I82" t="s" s="2">
+      <c r="I82" t="s" s="19">
         <v>18</v>
       </c>
-      <c r="J82" t="s" s="2">
+      <c r="J82" t="s" s="19">
         <v>19</v>
       </c>
-      <c r="K82" t="s" s="2">
-        <v>295</v>
-      </c>
-      <c r="L82" t="s" s="18">
-        <v>296</v>
-      </c>
-      <c r="M82" s="4"/>
-      <c r="N82" s="4"/>
-      <c r="O82" s="4"/>
-      <c r="P82" s="4"/>
-      <c r="Q82" s="4"/>
-      <c r="R82" s="4"/>
-      <c r="S82" s="4"/>
-      <c r="T82" s="4"/>
-      <c r="U82" s="4"/>
-      <c r="V82" s="4"/>
-      <c r="W82" s="4"/>
-      <c r="X82" s="4"/>
-      <c r="Y82" s="4"/>
-      <c r="Z82" s="4"/>
-      <c r="AA82" s="4"/>
-      <c r="AB82" s="4"/>
-      <c r="AC82" s="4"/>
+      <c r="K82" t="s" s="19">
+        <v>301</v>
+      </c>
+      <c r="L82" s="23"/>
+      <c r="M82" s="23"/>
+      <c r="N82" s="23"/>
+      <c r="O82" s="23"/>
+      <c r="P82" s="23"/>
+      <c r="Q82" s="23"/>
+      <c r="R82" s="23"/>
+      <c r="S82" s="23"/>
+      <c r="T82" s="23"/>
+      <c r="U82" s="23"/>
+      <c r="V82" s="23"/>
+      <c r="W82" s="23"/>
+      <c r="X82" s="23"/>
+      <c r="Y82" s="23"/>
+      <c r="Z82" s="23"/>
+      <c r="AA82" s="23"/>
+      <c r="AB82" s="23"/>
+      <c r="AC82" s="23"/>
     </row>
     <row r="83" ht="14.25" customHeight="1">
-      <c r="A83" t="s" s="20">
-        <v>297</v>
-      </c>
-      <c r="B83" t="s" s="20">
-        <v>276</v>
-      </c>
-      <c r="C83" t="s" s="20">
-        <v>298</v>
-      </c>
-      <c r="D83" s="23"/>
-      <c r="E83" s="23"/>
-      <c r="F83" t="s" s="20">
-        <v>299</v>
-      </c>
-      <c r="G83" s="23"/>
-      <c r="H83" t="s" s="20">
+      <c r="A83" t="s" s="2">
+        <v>302</v>
+      </c>
+      <c r="B83" t="s" s="2">
+        <v>277</v>
+      </c>
+      <c r="C83" t="s" s="2">
+        <v>303</v>
+      </c>
+      <c r="D83" s="3"/>
+      <c r="E83" s="3"/>
+      <c r="F83" t="s" s="2">
+        <v>304</v>
+      </c>
+      <c r="G83" s="3"/>
+      <c r="H83" t="s" s="2">
         <v>17</v>
       </c>
-      <c r="I83" t="s" s="20">
+      <c r="I83" t="s" s="2">
         <v>18</v>
       </c>
-      <c r="J83" t="s" s="20">
+      <c r="J83" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="K83" t="s" s="20">
-        <v>300</v>
-      </c>
-      <c r="L83" s="24"/>
-      <c r="M83" s="24"/>
-      <c r="N83" s="24"/>
-      <c r="O83" s="24"/>
-      <c r="P83" s="24"/>
-      <c r="Q83" s="24"/>
-      <c r="R83" s="24"/>
-      <c r="S83" s="24"/>
-      <c r="T83" s="24"/>
-      <c r="U83" s="24"/>
-      <c r="V83" s="24"/>
-      <c r="W83" s="24"/>
-      <c r="X83" s="24"/>
-      <c r="Y83" s="24"/>
-      <c r="Z83" s="24"/>
-      <c r="AA83" s="24"/>
-      <c r="AB83" s="24"/>
-      <c r="AC83" s="24"/>
+      <c r="K83" t="s" s="2">
+        <v>305</v>
+      </c>
+      <c r="L83" s="4"/>
+      <c r="M83" s="4"/>
+      <c r="N83" s="4"/>
+      <c r="O83" s="4"/>
+      <c r="P83" s="4"/>
+      <c r="Q83" s="4"/>
+      <c r="R83" s="4"/>
+      <c r="S83" s="4"/>
+      <c r="T83" s="4"/>
+      <c r="U83" s="4"/>
+      <c r="V83" s="4"/>
+      <c r="W83" s="4"/>
+      <c r="X83" s="4"/>
+      <c r="Y83" s="4"/>
+      <c r="Z83" s="4"/>
+      <c r="AA83" s="4"/>
+      <c r="AB83" s="4"/>
+      <c r="AC83" s="4"/>
     </row>
     <row r="84" ht="14.25" customHeight="1">
       <c r="A84" t="s" s="2">
-        <v>301</v>
+        <v>306</v>
       </c>
       <c r="B84" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="C84" t="s" s="2">
-        <v>302</v>
+        <v>307</v>
       </c>
       <c r="D84" s="3"/>
       <c r="E84" s="3"/>
       <c r="F84" t="s" s="2">
-        <v>303</v>
+        <v>308</v>
       </c>
       <c r="G84" s="3"/>
       <c r="H84" t="s" s="2">
@@ -6828,7 +6873,7 @@
         <v>19</v>
       </c>
       <c r="K84" t="s" s="2">
-        <v>304</v>
+        <v>309</v>
       </c>
       <c r="L84" s="4"/>
       <c r="M84" s="4"/>
@@ -6851,22 +6896,22 @@
     </row>
     <row r="85" ht="14.25" customHeight="1">
       <c r="A85" t="s" s="2">
-        <v>305</v>
+        <v>310</v>
       </c>
       <c r="B85" t="s" s="2">
-        <v>276</v>
+        <v>311</v>
       </c>
       <c r="C85" t="s" s="2">
-        <v>306</v>
+        <v>312</v>
       </c>
       <c r="D85" s="3"/>
       <c r="E85" s="3"/>
       <c r="F85" t="s" s="2">
-        <v>307</v>
+        <v>313</v>
       </c>
       <c r="G85" s="3"/>
       <c r="H85" t="s" s="2">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I85" t="s" s="2">
         <v>18</v>
@@ -6875,7 +6920,7 @@
         <v>19</v>
       </c>
       <c r="K85" t="s" s="2">
-        <v>308</v>
+        <v>314</v>
       </c>
       <c r="L85" s="4"/>
       <c r="M85" s="4"/>
@@ -6898,18 +6943,18 @@
     </row>
     <row r="86" ht="14.25" customHeight="1">
       <c r="A86" t="s" s="2">
-        <v>309</v>
+        <v>315</v>
       </c>
       <c r="B86" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C86" t="s" s="2">
-        <v>311</v>
+        <v>316</v>
       </c>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
       <c r="F86" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G86" s="3"/>
       <c r="H86" t="s" s="2">
@@ -6922,7 +6967,7 @@
         <v>19</v>
       </c>
       <c r="K86" t="s" s="2">
-        <v>313</v>
+        <v>317</v>
       </c>
       <c r="L86" s="4"/>
       <c r="M86" s="4"/>
@@ -6945,18 +6990,18 @@
     </row>
     <row r="87" ht="14.25" customHeight="1">
       <c r="A87" t="s" s="2">
-        <v>314</v>
+        <v>318</v>
       </c>
       <c r="B87" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C87" t="s" s="2">
-        <v>315</v>
+        <v>319</v>
       </c>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
       <c r="F87" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G87" s="3"/>
       <c r="H87" t="s" s="2">
@@ -6969,11 +7014,17 @@
         <v>19</v>
       </c>
       <c r="K87" t="s" s="2">
-        <v>316</v>
-      </c>
-      <c r="L87" s="4"/>
-      <c r="M87" s="4"/>
-      <c r="N87" s="4"/>
+        <v>320</v>
+      </c>
+      <c r="L87" t="s" s="2">
+        <v>321</v>
+      </c>
+      <c r="M87" t="s" s="2">
+        <v>322</v>
+      </c>
+      <c r="N87" t="s" s="2">
+        <v>323</v>
+      </c>
       <c r="O87" s="4"/>
       <c r="P87" s="4"/>
       <c r="Q87" s="4"/>
@@ -6992,18 +7043,18 @@
     </row>
     <row r="88" ht="14.25" customHeight="1">
       <c r="A88" t="s" s="2">
-        <v>317</v>
+        <v>324</v>
       </c>
       <c r="B88" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C88" t="s" s="2">
-        <v>318</v>
+        <v>325</v>
       </c>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
       <c r="F88" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G88" s="3"/>
       <c r="H88" t="s" s="2">
@@ -7016,17 +7067,11 @@
         <v>19</v>
       </c>
       <c r="K88" t="s" s="2">
-        <v>319</v>
-      </c>
-      <c r="L88" t="s" s="2">
-        <v>320</v>
-      </c>
-      <c r="M88" t="s" s="2">
-        <v>321</v>
-      </c>
-      <c r="N88" t="s" s="2">
-        <v>322</v>
-      </c>
+        <v>326</v>
+      </c>
+      <c r="L88" s="4"/>
+      <c r="M88" s="4"/>
+      <c r="N88" s="4"/>
       <c r="O88" s="4"/>
       <c r="P88" s="4"/>
       <c r="Q88" s="4"/>
@@ -7045,18 +7090,18 @@
     </row>
     <row r="89" ht="14.25" customHeight="1">
       <c r="A89" t="s" s="2">
-        <v>323</v>
+        <v>327</v>
       </c>
       <c r="B89" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C89" t="s" s="2">
-        <v>324</v>
+        <v>325</v>
       </c>
       <c r="D89" s="3"/>
       <c r="E89" s="3"/>
       <c r="F89" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G89" s="3"/>
       <c r="H89" t="s" s="2">
@@ -7069,7 +7114,7 @@
         <v>19</v>
       </c>
       <c r="K89" t="s" s="2">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="L89" s="4"/>
       <c r="M89" s="4"/>
@@ -7092,18 +7137,18 @@
     </row>
     <row r="90" ht="14.25" customHeight="1">
       <c r="A90" t="s" s="2">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C90" t="s" s="2">
-        <v>324</v>
+        <v>330</v>
       </c>
       <c r="D90" s="3"/>
       <c r="E90" s="3"/>
       <c r="F90" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G90" s="3"/>
       <c r="H90" t="s" s="2">
@@ -7116,7 +7161,7 @@
         <v>19</v>
       </c>
       <c r="K90" t="s" s="2">
-        <v>327</v>
+        <v>331</v>
       </c>
       <c r="L90" s="4"/>
       <c r="M90" s="4"/>
@@ -7139,18 +7184,18 @@
     </row>
     <row r="91" ht="14.25" customHeight="1">
       <c r="A91" t="s" s="2">
-        <v>328</v>
+        <v>332</v>
       </c>
       <c r="B91" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C91" t="s" s="2">
-        <v>329</v>
+        <v>325</v>
       </c>
       <c r="D91" s="3"/>
       <c r="E91" s="3"/>
       <c r="F91" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="G91" s="3"/>
       <c r="H91" t="s" s="2">
@@ -7163,7 +7208,7 @@
         <v>19</v>
       </c>
       <c r="K91" t="s" s="2">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="L91" s="4"/>
       <c r="M91" s="4"/>
@@ -7186,22 +7231,22 @@
     </row>
     <row r="92" ht="14.25" customHeight="1">
       <c r="A92" t="s" s="2">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="B92" t="s" s="2">
-        <v>310</v>
+        <v>335</v>
       </c>
       <c r="C92" t="s" s="2">
-        <v>324</v>
+        <v>336</v>
       </c>
       <c r="D92" s="3"/>
       <c r="E92" s="3"/>
       <c r="F92" t="s" s="2">
-        <v>312</v>
+        <v>337</v>
       </c>
       <c r="G92" s="3"/>
       <c r="H92" t="s" s="2">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I92" t="s" s="2">
         <v>18</v>
@@ -7210,7 +7255,7 @@
         <v>19</v>
       </c>
       <c r="K92" t="s" s="2">
-        <v>332</v>
+        <v>338</v>
       </c>
       <c r="L92" s="4"/>
       <c r="M92" s="4"/>
@@ -7232,23 +7277,23 @@
       <c r="AC92" s="4"/>
     </row>
     <row r="93" ht="14.25" customHeight="1">
-      <c r="A93" t="s" s="2">
-        <v>333</v>
+      <c r="A93" t="s" s="25">
+        <v>339</v>
       </c>
       <c r="B93" t="s" s="2">
-        <v>334</v>
+        <v>340</v>
       </c>
       <c r="C93" t="s" s="2">
-        <v>335</v>
+        <v>341</v>
       </c>
       <c r="D93" s="3"/>
       <c r="E93" s="3"/>
       <c r="F93" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="G93" s="3"/>
       <c r="H93" t="s" s="2">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I93" t="s" s="2">
         <v>18</v>
@@ -7257,7 +7302,7 @@
         <v>19</v>
       </c>
       <c r="K93" t="s" s="2">
-        <v>337</v>
+        <v>342</v>
       </c>
       <c r="L93" s="4"/>
       <c r="M93" s="4"/>
@@ -7279,23 +7324,23 @@
       <c r="AC93" s="4"/>
     </row>
     <row r="94" ht="14.25" customHeight="1">
-      <c r="A94" t="s" s="26">
-        <v>338</v>
+      <c r="A94" t="s" s="2">
+        <v>343</v>
       </c>
       <c r="B94" t="s" s="2">
-        <v>339</v>
+        <v>344</v>
       </c>
       <c r="C94" t="s" s="2">
-        <v>340</v>
+        <v>345</v>
       </c>
       <c r="D94" s="3"/>
       <c r="E94" s="3"/>
       <c r="F94" t="s" s="2">
-        <v>336</v>
+        <v>346</v>
       </c>
       <c r="G94" s="3"/>
       <c r="H94" t="s" s="2">
-        <v>41</v>
+        <v>17</v>
       </c>
       <c r="I94" t="s" s="2">
         <v>18</v>
@@ -7304,7 +7349,7 @@
         <v>19</v>
       </c>
       <c r="K94" t="s" s="2">
-        <v>341</v>
+        <v>347</v>
       </c>
       <c r="L94" s="4"/>
       <c r="M94" s="4"/>
@@ -7327,22 +7372,22 @@
     </row>
     <row r="95" ht="14.25" customHeight="1">
       <c r="A95" t="s" s="2">
-        <v>342</v>
+        <v>348</v>
       </c>
       <c r="B95" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C95" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D95" s="3"/>
       <c r="E95" s="3"/>
       <c r="F95" t="s" s="2">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="G95" s="3"/>
       <c r="H95" t="s" s="2">
-        <v>17</v>
+        <v>350</v>
       </c>
       <c r="I95" t="s" s="2">
         <v>18</v>
@@ -7351,9 +7396,11 @@
         <v>19</v>
       </c>
       <c r="K95" t="s" s="2">
-        <v>346</v>
-      </c>
-      <c r="L95" s="4"/>
+        <v>351</v>
+      </c>
+      <c r="L95" t="s" s="17">
+        <v>352</v>
+      </c>
       <c r="M95" s="4"/>
       <c r="N95" s="4"/>
       <c r="O95" s="4"/>
@@ -7374,22 +7421,22 @@
     </row>
     <row r="96" ht="14.25" customHeight="1">
       <c r="A96" t="s" s="2">
-        <v>347</v>
+        <v>353</v>
       </c>
       <c r="B96" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C96" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D96" s="3"/>
       <c r="E96" s="3"/>
       <c r="F96" t="s" s="2">
-        <v>348</v>
+        <v>354</v>
       </c>
       <c r="G96" s="3"/>
       <c r="H96" t="s" s="2">
-        <v>349</v>
+        <v>17</v>
       </c>
       <c r="I96" t="s" s="2">
         <v>18</v>
@@ -7398,11 +7445,9 @@
         <v>19</v>
       </c>
       <c r="K96" t="s" s="2">
-        <v>350</v>
-      </c>
-      <c r="L96" t="s" s="18">
-        <v>351</v>
-      </c>
+        <v>355</v>
+      </c>
+      <c r="L96" s="4"/>
       <c r="M96" s="4"/>
       <c r="N96" s="4"/>
       <c r="O96" s="4"/>
@@ -7423,22 +7468,22 @@
     </row>
     <row r="97" ht="14.25" customHeight="1">
       <c r="A97" t="s" s="2">
-        <v>352</v>
+        <v>356</v>
       </c>
       <c r="B97" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C97" t="s" s="2">
-        <v>344</v>
+        <v>357</v>
       </c>
       <c r="D97" s="3"/>
       <c r="E97" s="3"/>
       <c r="F97" t="s" s="2">
-        <v>353</v>
+        <v>358</v>
       </c>
       <c r="G97" s="3"/>
       <c r="H97" t="s" s="2">
-        <v>17</v>
+        <v>359</v>
       </c>
       <c r="I97" t="s" s="2">
         <v>18</v>
@@ -7447,7 +7492,7 @@
         <v>19</v>
       </c>
       <c r="K97" t="s" s="2">
-        <v>354</v>
+        <v>360</v>
       </c>
       <c r="L97" s="4"/>
       <c r="M97" s="4"/>
@@ -7470,22 +7515,22 @@
     </row>
     <row r="98" ht="14.25" customHeight="1">
       <c r="A98" t="s" s="2">
-        <v>355</v>
+        <v>361</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C98" t="s" s="2">
-        <v>356</v>
+        <v>362</v>
       </c>
       <c r="D98" s="3"/>
       <c r="E98" s="3"/>
       <c r="F98" t="s" s="2">
-        <v>357</v>
+        <v>363</v>
       </c>
       <c r="G98" s="3"/>
       <c r="H98" t="s" s="2">
-        <v>358</v>
+        <v>17</v>
       </c>
       <c r="I98" t="s" s="2">
         <v>18</v>
@@ -7494,7 +7539,7 @@
         <v>19</v>
       </c>
       <c r="K98" t="s" s="2">
-        <v>359</v>
+        <v>364</v>
       </c>
       <c r="L98" s="4"/>
       <c r="M98" s="4"/>
@@ -7517,18 +7562,18 @@
     </row>
     <row r="99" ht="14.25" customHeight="1">
       <c r="A99" t="s" s="2">
-        <v>360</v>
+        <v>365</v>
       </c>
       <c r="B99" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C99" t="s" s="2">
-        <v>361</v>
+        <v>345</v>
       </c>
       <c r="D99" s="3"/>
       <c r="E99" s="3"/>
       <c r="F99" t="s" s="2">
-        <v>362</v>
+        <v>366</v>
       </c>
       <c r="G99" s="3"/>
       <c r="H99" t="s" s="2">
@@ -7541,7 +7586,7 @@
         <v>19</v>
       </c>
       <c r="K99" t="s" s="2">
-        <v>363</v>
+        <v>367</v>
       </c>
       <c r="L99" s="4"/>
       <c r="M99" s="4"/>
@@ -7564,33 +7609,35 @@
     </row>
     <row r="100" ht="14.25" customHeight="1">
       <c r="A100" t="s" s="2">
-        <v>364</v>
+        <v>368</v>
       </c>
       <c r="B100" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C100" t="s" s="2">
-        <v>344</v>
+        <v>345</v>
       </c>
       <c r="D100" s="3"/>
       <c r="E100" s="3"/>
       <c r="F100" t="s" s="2">
-        <v>365</v>
+        <v>369</v>
       </c>
       <c r="G100" s="3"/>
       <c r="H100" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I100" t="s" s="2">
-        <v>18</v>
+        <v>29</v>
       </c>
       <c r="J100" t="s" s="2">
         <v>19</v>
       </c>
       <c r="K100" t="s" s="2">
-        <v>366</v>
-      </c>
-      <c r="L100" s="4"/>
+        <v>370</v>
+      </c>
+      <c r="L100" t="s" s="17">
+        <v>29</v>
+      </c>
       <c r="M100" s="4"/>
       <c r="N100" s="4"/>
       <c r="O100" s="4"/>
@@ -7611,35 +7658,33 @@
     </row>
     <row r="101" ht="14.25" customHeight="1">
       <c r="A101" t="s" s="2">
-        <v>367</v>
+        <v>371</v>
       </c>
       <c r="B101" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C101" t="s" s="2">
-        <v>344</v>
+        <v>372</v>
       </c>
       <c r="D101" s="3"/>
       <c r="E101" s="3"/>
       <c r="F101" t="s" s="2">
-        <v>368</v>
+        <v>373</v>
       </c>
       <c r="G101" s="3"/>
       <c r="H101" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I101" t="s" s="2">
-        <v>29</v>
+        <v>18</v>
       </c>
       <c r="J101" t="s" s="2">
         <v>19</v>
       </c>
       <c r="K101" t="s" s="2">
-        <v>369</v>
-      </c>
-      <c r="L101" t="s" s="18">
-        <v>29</v>
-      </c>
+        <v>374</v>
+      </c>
+      <c r="L101" s="4"/>
       <c r="M101" s="4"/>
       <c r="N101" s="4"/>
       <c r="O101" s="4"/>
@@ -7660,22 +7705,22 @@
     </row>
     <row r="102" ht="14.25" customHeight="1">
       <c r="A102" t="s" s="2">
-        <v>370</v>
+        <v>375</v>
       </c>
       <c r="B102" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C102" t="s" s="2">
-        <v>371</v>
+        <v>376</v>
       </c>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
       <c r="F102" t="s" s="2">
-        <v>372</v>
+        <v>377</v>
       </c>
       <c r="G102" s="3"/>
       <c r="H102" t="s" s="2">
-        <v>17</v>
+        <v>36</v>
       </c>
       <c r="I102" t="s" s="2">
         <v>18</v>
@@ -7684,7 +7729,7 @@
         <v>19</v>
       </c>
       <c r="K102" t="s" s="2">
-        <v>373</v>
+        <v>378</v>
       </c>
       <c r="L102" s="4"/>
       <c r="M102" s="4"/>
@@ -7707,22 +7752,22 @@
     </row>
     <row r="103" ht="14.25" customHeight="1">
       <c r="A103" t="s" s="2">
-        <v>374</v>
+        <v>379</v>
       </c>
       <c r="B103" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C103" t="s" s="2">
-        <v>375</v>
+        <v>345</v>
       </c>
       <c r="D103" s="3"/>
       <c r="E103" s="3"/>
       <c r="F103" t="s" s="2">
-        <v>376</v>
+        <v>380</v>
       </c>
       <c r="G103" s="3"/>
       <c r="H103" t="s" s="2">
-        <v>36</v>
+        <v>17</v>
       </c>
       <c r="I103" t="s" s="2">
         <v>18</v>
@@ -7731,7 +7776,7 @@
         <v>19</v>
       </c>
       <c r="K103" t="s" s="2">
-        <v>377</v>
+        <v>381</v>
       </c>
       <c r="L103" s="4"/>
       <c r="M103" s="4"/>
@@ -7754,18 +7799,18 @@
     </row>
     <row r="104" ht="14.25" customHeight="1">
       <c r="A104" t="s" s="2">
-        <v>378</v>
+        <v>382</v>
       </c>
       <c r="B104" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C104" t="s" s="2">
-        <v>344</v>
+        <v>383</v>
       </c>
       <c r="D104" s="3"/>
       <c r="E104" s="3"/>
       <c r="F104" t="s" s="2">
-        <v>379</v>
+        <v>384</v>
       </c>
       <c r="G104" s="3"/>
       <c r="H104" t="s" s="2">
@@ -7778,7 +7823,7 @@
         <v>19</v>
       </c>
       <c r="K104" t="s" s="2">
-        <v>380</v>
+        <v>385</v>
       </c>
       <c r="L104" s="4"/>
       <c r="M104" s="4"/>
@@ -7801,18 +7846,18 @@
     </row>
     <row r="105" ht="14.25" customHeight="1">
       <c r="A105" t="s" s="2">
-        <v>381</v>
+        <v>386</v>
       </c>
       <c r="B105" t="s" s="2">
-        <v>343</v>
+        <v>344</v>
       </c>
       <c r="C105" t="s" s="2">
-        <v>382</v>
+        <v>63</v>
       </c>
       <c r="D105" s="3"/>
       <c r="E105" s="3"/>
       <c r="F105" t="s" s="2">
-        <v>383</v>
+        <v>387</v>
       </c>
       <c r="G105" s="3"/>
       <c r="H105" t="s" s="2">
@@ -7824,10 +7869,12 @@
       <c r="J105" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="K105" t="s" s="2">
-        <v>384</v>
-      </c>
-      <c r="L105" s="4"/>
+      <c r="K105" t="s" s="6">
+        <v>388</v>
+      </c>
+      <c r="L105" t="s" s="2">
+        <v>389</v>
+      </c>
       <c r="M105" s="4"/>
       <c r="N105" s="4"/>
       <c r="O105" s="4"/>
@@ -7848,18 +7895,16 @@
     </row>
     <row r="106" ht="14.25" customHeight="1">
       <c r="A106" t="s" s="2">
-        <v>385</v>
+        <v>390</v>
       </c>
       <c r="B106" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C106" t="s" s="2">
-        <v>63</v>
-      </c>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
+        <v>344</v>
+      </c>
+      <c r="C106" s="4"/>
+      <c r="D106" s="4"/>
+      <c r="E106" s="4"/>
       <c r="F106" t="s" s="2">
-        <v>386</v>
+        <v>391</v>
       </c>
       <c r="G106" s="3"/>
       <c r="H106" t="s" s="2">
@@ -7871,12 +7916,10 @@
       <c r="J106" t="s" s="2">
         <v>19</v>
       </c>
-      <c r="K106" t="s" s="17">
-        <v>387</v>
-      </c>
-      <c r="L106" t="s" s="2">
-        <v>388</v>
-      </c>
+      <c r="K106" t="s" s="2">
+        <v>347</v>
+      </c>
+      <c r="L106" s="4"/>
       <c r="M106" s="4"/>
       <c r="N106" s="4"/>
       <c r="O106" s="4"/>
@@ -7897,29 +7940,31 @@
     </row>
     <row r="107" ht="14.25" customHeight="1">
       <c r="A107" t="s" s="2">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>343</v>
-      </c>
-      <c r="C107" s="4"/>
-      <c r="D107" s="4"/>
-      <c r="E107" s="4"/>
+        <v>393</v>
+      </c>
+      <c r="C107" t="s" s="2">
+        <v>394</v>
+      </c>
+      <c r="D107" s="3"/>
+      <c r="E107" s="3"/>
       <c r="F107" t="s" s="2">
-        <v>390</v>
+        <v>395</v>
       </c>
       <c r="G107" s="3"/>
       <c r="H107" t="s" s="2">
-        <v>17</v>
+        <v>396</v>
       </c>
       <c r="I107" t="s" s="2">
-        <v>18</v>
+        <v>397</v>
       </c>
       <c r="J107" t="s" s="2">
-        <v>19</v>
+        <v>398</v>
       </c>
       <c r="K107" t="s" s="2">
-        <v>346</v>
+        <v>399</v>
       </c>
       <c r="L107" s="4"/>
       <c r="M107" s="4"/>
@@ -7942,31 +7987,31 @@
     </row>
     <row r="108" ht="14.25" customHeight="1">
       <c r="A108" t="s" s="2">
-        <v>391</v>
+        <v>400</v>
       </c>
       <c r="B108" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C108" t="s" s="2">
-        <v>393</v>
+        <v>394</v>
       </c>
       <c r="D108" s="3"/>
       <c r="E108" s="3"/>
       <c r="F108" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G108" s="3"/>
       <c r="H108" t="s" s="2">
-        <v>395</v>
+        <v>396</v>
       </c>
       <c r="I108" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J108" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K108" t="s" s="2">
-        <v>398</v>
+        <v>399</v>
       </c>
       <c r="L108" s="4"/>
       <c r="M108" s="4"/>
@@ -7989,33 +8034,35 @@
     </row>
     <row r="109" ht="14.25" customHeight="1">
       <c r="A109" t="s" s="2">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="B109" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C109" t="s" s="2">
-        <v>393</v>
+        <v>402</v>
       </c>
       <c r="D109" s="3"/>
       <c r="E109" s="3"/>
       <c r="F109" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G109" s="3"/>
       <c r="H109" t="s" s="2">
-        <v>395</v>
+        <v>17</v>
       </c>
       <c r="I109" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J109" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K109" t="s" s="2">
-        <v>398</v>
-      </c>
-      <c r="L109" s="4"/>
+        <v>403</v>
+      </c>
+      <c r="L109" t="s" s="17">
+        <v>404</v>
+      </c>
       <c r="M109" s="4"/>
       <c r="N109" s="4"/>
       <c r="O109" s="4"/>
@@ -8036,34 +8083,34 @@
     </row>
     <row r="110" ht="14.25" customHeight="1">
       <c r="A110" t="s" s="2">
-        <v>400</v>
+        <v>405</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C110" t="s" s="2">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="D110" s="3"/>
       <c r="E110" s="3"/>
       <c r="F110" t="s" s="2">
-        <v>394</v>
+        <v>395</v>
       </c>
       <c r="G110" s="3"/>
       <c r="H110" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I110" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J110" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K110" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="L110" t="s" s="18">
         <v>403</v>
+      </c>
+      <c r="L110" t="s" s="17">
+        <v>404</v>
       </c>
       <c r="M110" s="4"/>
       <c r="N110" s="4"/>
@@ -8085,34 +8132,34 @@
     </row>
     <row r="111" ht="14.25" customHeight="1">
       <c r="A111" t="s" s="2">
-        <v>404</v>
+        <v>406</v>
       </c>
       <c r="B111" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C111" t="s" s="2">
-        <v>401</v>
+        <v>407</v>
       </c>
       <c r="D111" s="3"/>
       <c r="E111" s="3"/>
       <c r="F111" t="s" s="2">
-        <v>394</v>
+        <v>408</v>
       </c>
       <c r="G111" s="3"/>
       <c r="H111" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I111" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J111" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K111" t="s" s="2">
-        <v>402</v>
-      </c>
-      <c r="L111" t="s" s="18">
-        <v>403</v>
+        <v>409</v>
+      </c>
+      <c r="L111" t="s" s="17">
+        <v>410</v>
       </c>
       <c r="M111" s="4"/>
       <c r="N111" s="4"/>
@@ -8134,34 +8181,34 @@
     </row>
     <row r="112" ht="14.25" customHeight="1">
       <c r="A112" t="s" s="2">
-        <v>405</v>
+        <v>411</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C112" t="s" s="2">
-        <v>406</v>
+        <v>407</v>
       </c>
       <c r="D112" s="3"/>
       <c r="E112" s="3"/>
       <c r="F112" t="s" s="2">
-        <v>407</v>
+        <v>408</v>
       </c>
       <c r="G112" s="3"/>
       <c r="H112" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I112" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J112" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K112" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="L112" t="s" s="18">
         <v>409</v>
+      </c>
+      <c r="L112" t="s" s="17">
+        <v>410</v>
       </c>
       <c r="M112" s="4"/>
       <c r="N112" s="4"/>
@@ -8183,35 +8230,33 @@
     </row>
     <row r="113" ht="14.25" customHeight="1">
       <c r="A113" t="s" s="2">
-        <v>410</v>
+        <v>412</v>
       </c>
       <c r="B113" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C113" t="s" s="2">
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="D113" s="3"/>
       <c r="E113" s="3"/>
       <c r="F113" t="s" s="2">
-        <v>407</v>
+        <v>395</v>
       </c>
       <c r="G113" s="3"/>
       <c r="H113" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I113" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J113" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K113" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="L113" t="s" s="18">
-        <v>409</v>
-      </c>
+        <v>414</v>
+      </c>
+      <c r="L113" s="4"/>
       <c r="M113" s="4"/>
       <c r="N113" s="4"/>
       <c r="O113" s="4"/>
@@ -8232,31 +8277,31 @@
     </row>
     <row r="114" ht="14.25" customHeight="1">
       <c r="A114" t="s" s="2">
-        <v>411</v>
+        <v>415</v>
       </c>
       <c r="B114" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C114" t="s" s="2">
-        <v>412</v>
+        <v>416</v>
       </c>
       <c r="D114" s="3"/>
       <c r="E114" s="3"/>
       <c r="F114" t="s" s="2">
-        <v>394</v>
+        <v>417</v>
       </c>
       <c r="G114" s="3"/>
       <c r="H114" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I114" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J114" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K114" t="s" s="2">
-        <v>413</v>
+        <v>418</v>
       </c>
       <c r="L114" s="4"/>
       <c r="M114" s="4"/>
@@ -8277,33 +8322,33 @@
       <c r="AB114" s="4"/>
       <c r="AC114" s="4"/>
     </row>
-    <row r="115" ht="14.25" customHeight="1">
+    <row r="115" ht="13.75" customHeight="1">
       <c r="A115" t="s" s="2">
-        <v>414</v>
+        <v>419</v>
       </c>
       <c r="B115" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C115" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D115" s="3"/>
       <c r="E115" s="3"/>
       <c r="F115" t="s" s="2">
-        <v>416</v>
+        <v>420</v>
       </c>
       <c r="G115" s="3"/>
       <c r="H115" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I115" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J115" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K115" t="s" s="2">
-        <v>417</v>
+        <v>409</v>
       </c>
       <c r="L115" s="4"/>
       <c r="M115" s="4"/>
@@ -8324,35 +8369,37 @@
       <c r="AB115" s="4"/>
       <c r="AC115" s="4"/>
     </row>
-    <row r="116" ht="13.75" customHeight="1">
+    <row r="116" ht="14.25" customHeight="1">
       <c r="A116" t="s" s="2">
-        <v>418</v>
+        <v>421</v>
       </c>
       <c r="B116" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C116" t="s" s="2">
-        <v>415</v>
+        <v>416</v>
       </c>
       <c r="D116" s="3"/>
       <c r="E116" s="3"/>
       <c r="F116" t="s" s="2">
-        <v>419</v>
+        <v>422</v>
       </c>
       <c r="G116" s="3"/>
       <c r="H116" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I116" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J116" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K116" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="L116" s="4"/>
+        <v>409</v>
+      </c>
+      <c r="L116" t="s" s="17">
+        <v>423</v>
+      </c>
       <c r="M116" s="4"/>
       <c r="N116" s="4"/>
       <c r="O116" s="4"/>
@@ -8373,34 +8420,34 @@
     </row>
     <row r="117" ht="14.25" customHeight="1">
       <c r="A117" t="s" s="2">
-        <v>420</v>
+        <v>424</v>
       </c>
       <c r="B117" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C117" t="s" s="2">
-        <v>415</v>
+        <v>425</v>
       </c>
       <c r="D117" s="3"/>
       <c r="E117" s="3"/>
       <c r="F117" t="s" s="2">
-        <v>421</v>
+        <v>426</v>
       </c>
       <c r="G117" s="3"/>
       <c r="H117" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I117" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J117" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K117" t="s" s="2">
-        <v>408</v>
-      </c>
-      <c r="L117" t="s" s="18">
-        <v>422</v>
+        <v>427</v>
+      </c>
+      <c r="L117" t="s" s="17">
+        <v>423</v>
       </c>
       <c r="M117" s="4"/>
       <c r="N117" s="4"/>
@@ -8422,34 +8469,34 @@
     </row>
     <row r="118" ht="14.25" customHeight="1">
       <c r="A118" t="s" s="2">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="B118" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C118" t="s" s="2">
-        <v>424</v>
+        <v>429</v>
       </c>
       <c r="D118" s="3"/>
       <c r="E118" s="3"/>
       <c r="F118" t="s" s="2">
-        <v>425</v>
+        <v>430</v>
       </c>
       <c r="G118" s="3"/>
       <c r="H118" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I118" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J118" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="K118" t="s" s="2">
-        <v>426</v>
-      </c>
-      <c r="L118" t="s" s="18">
-        <v>422</v>
+        <v>398</v>
+      </c>
+      <c r="K118" t="s" s="6">
+        <v>431</v>
+      </c>
+      <c r="L118" t="s" s="17">
+        <v>423</v>
       </c>
       <c r="M118" s="4"/>
       <c r="N118" s="4"/>
@@ -8471,34 +8518,34 @@
     </row>
     <row r="119" ht="14.25" customHeight="1">
       <c r="A119" t="s" s="2">
-        <v>427</v>
+        <v>432</v>
       </c>
       <c r="B119" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C119" t="s" s="2">
-        <v>428</v>
+        <v>433</v>
       </c>
       <c r="D119" s="3"/>
       <c r="E119" s="3"/>
       <c r="F119" t="s" s="2">
-        <v>429</v>
+        <v>430</v>
       </c>
       <c r="G119" s="3"/>
       <c r="H119" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I119" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J119" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="K119" t="s" s="17">
-        <v>430</v>
-      </c>
-      <c r="L119" t="s" s="18">
-        <v>422</v>
+        <v>398</v>
+      </c>
+      <c r="K119" t="s" s="6">
+        <v>434</v>
+      </c>
+      <c r="L119" t="s" s="2">
+        <v>435</v>
       </c>
       <c r="M119" s="4"/>
       <c r="N119" s="4"/>
@@ -8520,35 +8567,33 @@
     </row>
     <row r="120" ht="14.25" customHeight="1">
       <c r="A120" t="s" s="2">
-        <v>431</v>
+        <v>436</v>
       </c>
       <c r="B120" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C120" t="s" s="2">
-        <v>432</v>
+        <v>437</v>
       </c>
       <c r="D120" s="3"/>
       <c r="E120" s="3"/>
       <c r="F120" t="s" s="2">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="G120" s="3"/>
       <c r="H120" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I120" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J120" t="s" s="2">
-        <v>397</v>
-      </c>
-      <c r="K120" t="s" s="17">
-        <v>433</v>
-      </c>
-      <c r="L120" t="s" s="2">
-        <v>434</v>
-      </c>
+        <v>398</v>
+      </c>
+      <c r="K120" t="s" s="2">
+        <v>427</v>
+      </c>
+      <c r="L120" s="4"/>
       <c r="M120" s="4"/>
       <c r="N120" s="4"/>
       <c r="O120" s="4"/>
@@ -8569,31 +8614,31 @@
     </row>
     <row r="121" ht="14.25" customHeight="1">
       <c r="A121" t="s" s="2">
-        <v>435</v>
+        <v>438</v>
       </c>
       <c r="B121" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C121" t="s" s="2">
-        <v>436</v>
+        <v>437</v>
       </c>
       <c r="D121" s="3"/>
       <c r="E121" s="3"/>
       <c r="F121" t="s" s="2">
-        <v>416</v>
+        <v>417</v>
       </c>
       <c r="G121" s="3"/>
       <c r="H121" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I121" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J121" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K121" t="s" s="2">
-        <v>426</v>
+        <v>427</v>
       </c>
       <c r="L121" s="4"/>
       <c r="M121" s="4"/>
@@ -8616,31 +8661,31 @@
     </row>
     <row r="122" ht="14.25" customHeight="1">
       <c r="A122" t="s" s="2">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="B122" t="s" s="2">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="C122" t="s" s="2">
-        <v>436</v>
+        <v>440</v>
       </c>
       <c r="D122" s="3"/>
       <c r="E122" s="3"/>
       <c r="F122" t="s" s="2">
-        <v>416</v>
+        <v>441</v>
       </c>
       <c r="G122" s="3"/>
       <c r="H122" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I122" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J122" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K122" t="s" s="2">
-        <v>426</v>
+        <v>442</v>
       </c>
       <c r="L122" s="4"/>
       <c r="M122" s="4"/>
@@ -8663,31 +8708,31 @@
     </row>
     <row r="123" ht="14.25" customHeight="1">
       <c r="A123" t="s" s="2">
-        <v>438</v>
+        <v>443</v>
       </c>
       <c r="B123" t="s" s="2">
-        <v>392</v>
+        <v>13</v>
       </c>
       <c r="C123" t="s" s="2">
-        <v>439</v>
+        <v>444</v>
       </c>
       <c r="D123" s="3"/>
       <c r="E123" s="3"/>
       <c r="F123" t="s" s="2">
-        <v>440</v>
+        <v>445</v>
       </c>
       <c r="G123" s="3"/>
       <c r="H123" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I123" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J123" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K123" t="s" s="2">
-        <v>441</v>
+        <v>409</v>
       </c>
       <c r="L123" s="4"/>
       <c r="M123" s="4"/>
@@ -8710,31 +8755,31 @@
     </row>
     <row r="124" ht="14.25" customHeight="1">
       <c r="A124" t="s" s="2">
-        <v>442</v>
+        <v>446</v>
       </c>
       <c r="B124" t="s" s="2">
         <v>13</v>
       </c>
       <c r="C124" t="s" s="2">
-        <v>443</v>
+        <v>447</v>
       </c>
       <c r="D124" s="3"/>
       <c r="E124" s="3"/>
       <c r="F124" t="s" s="2">
-        <v>444</v>
+        <v>448</v>
       </c>
       <c r="G124" s="3"/>
       <c r="H124" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I124" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J124" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K124" t="s" s="2">
-        <v>408</v>
+        <v>449</v>
       </c>
       <c r="L124" s="4"/>
       <c r="M124" s="4"/>
@@ -8757,31 +8802,31 @@
     </row>
     <row r="125" ht="14.25" customHeight="1">
       <c r="A125" t="s" s="2">
-        <v>445</v>
+        <v>450</v>
       </c>
       <c r="B125" t="s" s="2">
         <v>13</v>
       </c>
       <c r="C125" t="s" s="2">
-        <v>446</v>
+        <v>451</v>
       </c>
       <c r="D125" s="3"/>
       <c r="E125" s="3"/>
       <c r="F125" t="s" s="2">
-        <v>447</v>
+        <v>63</v>
       </c>
       <c r="G125" s="3"/>
       <c r="H125" t="s" s="2">
-        <v>17</v>
+        <v>63</v>
       </c>
       <c r="I125" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J125" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K125" t="s" s="2">
-        <v>448</v>
+        <v>452</v>
       </c>
       <c r="L125" s="4"/>
       <c r="M125" s="4"/>
@@ -8804,33 +8849,35 @@
     </row>
     <row r="126" ht="14.25" customHeight="1">
       <c r="A126" t="s" s="2">
-        <v>449</v>
+        <v>453</v>
       </c>
       <c r="B126" t="s" s="2">
         <v>13</v>
       </c>
       <c r="C126" t="s" s="2">
-        <v>450</v>
+        <v>454</v>
       </c>
       <c r="D126" s="3"/>
       <c r="E126" s="3"/>
       <c r="F126" t="s" s="2">
-        <v>63</v>
+        <v>455</v>
       </c>
       <c r="G126" s="3"/>
       <c r="H126" t="s" s="2">
-        <v>63</v>
+        <v>17</v>
       </c>
       <c r="I126" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J126" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K126" t="s" s="2">
-        <v>451</v>
-      </c>
-      <c r="L126" s="4"/>
+        <v>456</v>
+      </c>
+      <c r="L126" t="s" s="2">
+        <v>457</v>
+      </c>
       <c r="M126" s="4"/>
       <c r="N126" s="4"/>
       <c r="O126" s="4"/>
@@ -8851,35 +8898,33 @@
     </row>
     <row r="127" ht="14.25" customHeight="1">
       <c r="A127" t="s" s="2">
-        <v>452</v>
+        <v>458</v>
       </c>
       <c r="B127" t="s" s="2">
         <v>13</v>
       </c>
       <c r="C127" t="s" s="2">
-        <v>453</v>
+        <v>459</v>
       </c>
       <c r="D127" s="3"/>
       <c r="E127" s="3"/>
       <c r="F127" t="s" s="2">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="G127" s="3"/>
       <c r="H127" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I127" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J127" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K127" t="s" s="2">
-        <v>455</v>
-      </c>
-      <c r="L127" t="s" s="2">
-        <v>456</v>
-      </c>
+        <v>461</v>
+      </c>
+      <c r="L127" s="3"/>
       <c r="M127" s="4"/>
       <c r="N127" s="4"/>
       <c r="O127" s="4"/>
@@ -8900,31 +8945,31 @@
     </row>
     <row r="128" ht="14.25" customHeight="1">
       <c r="A128" t="s" s="2">
-        <v>457</v>
+        <v>462</v>
       </c>
       <c r="B128" t="s" s="2">
         <v>13</v>
       </c>
       <c r="C128" t="s" s="2">
-        <v>458</v>
+        <v>463</v>
       </c>
       <c r="D128" s="3"/>
       <c r="E128" s="3"/>
       <c r="F128" t="s" s="2">
-        <v>459</v>
+        <v>464</v>
       </c>
       <c r="G128" s="3"/>
       <c r="H128" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I128" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J128" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K128" t="s" s="2">
-        <v>460</v>
+        <v>465</v>
       </c>
       <c r="L128" s="3"/>
       <c r="M128" s="4"/>
@@ -8947,33 +8992,33 @@
     </row>
     <row r="129" ht="14.25" customHeight="1">
       <c r="A129" t="s" s="2">
-        <v>461</v>
+        <v>466</v>
       </c>
       <c r="B129" t="s" s="2">
         <v>13</v>
       </c>
       <c r="C129" t="s" s="2">
-        <v>462</v>
+        <v>467</v>
       </c>
       <c r="D129" s="3"/>
       <c r="E129" s="3"/>
       <c r="F129" t="s" s="2">
-        <v>463</v>
+        <v>468</v>
       </c>
       <c r="G129" s="3"/>
       <c r="H129" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I129" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J129" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K129" t="s" s="2">
-        <v>464</v>
-      </c>
-      <c r="L129" s="3"/>
+        <v>465</v>
+      </c>
+      <c r="L129" s="4"/>
       <c r="M129" s="4"/>
       <c r="N129" s="4"/>
       <c r="O129" s="4"/>
@@ -8994,31 +9039,31 @@
     </row>
     <row r="130" ht="14.25" customHeight="1">
       <c r="A130" t="s" s="2">
-        <v>465</v>
+        <v>469</v>
       </c>
       <c r="B130" t="s" s="2">
         <v>13</v>
       </c>
       <c r="C130" t="s" s="2">
-        <v>466</v>
+        <v>467</v>
       </c>
       <c r="D130" s="3"/>
       <c r="E130" s="3"/>
       <c r="F130" t="s" s="2">
-        <v>467</v>
+        <v>468</v>
       </c>
       <c r="G130" s="3"/>
       <c r="H130" t="s" s="2">
         <v>17</v>
       </c>
       <c r="I130" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J130" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K130" t="s" s="2">
-        <v>464</v>
+        <v>470</v>
       </c>
       <c r="L130" s="4"/>
       <c r="M130" s="4"/>
@@ -9041,33 +9086,35 @@
     </row>
     <row r="131" ht="14.25" customHeight="1">
       <c r="A131" t="s" s="2">
-        <v>468</v>
+        <v>471</v>
       </c>
       <c r="B131" t="s" s="2">
-        <v>13</v>
+        <v>311</v>
       </c>
       <c r="C131" t="s" s="2">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="D131" s="3"/>
       <c r="E131" s="3"/>
       <c r="F131" t="s" s="2">
-        <v>467</v>
+        <v>473</v>
       </c>
       <c r="G131" s="3"/>
       <c r="H131" t="s" s="2">
-        <v>17</v>
+        <v>41</v>
       </c>
       <c r="I131" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J131" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K131" t="s" s="2">
-        <v>469</v>
-      </c>
-      <c r="L131" s="4"/>
+        <v>474</v>
+      </c>
+      <c r="L131" t="s" s="2">
+        <v>475</v>
+      </c>
       <c r="M131" s="4"/>
       <c r="N131" s="4"/>
       <c r="O131" s="4"/>
@@ -9088,35 +9135,33 @@
     </row>
     <row r="132" ht="14.25" customHeight="1">
       <c r="A132" t="s" s="2">
-        <v>470</v>
+        <v>476</v>
       </c>
       <c r="B132" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C132" t="s" s="2">
-        <v>471</v>
+        <v>325</v>
       </c>
       <c r="D132" s="3"/>
       <c r="E132" s="3"/>
       <c r="F132" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G132" s="3"/>
       <c r="H132" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I132" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J132" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K132" t="s" s="2">
-        <v>473</v>
-      </c>
-      <c r="L132" t="s" s="2">
         <v>474</v>
       </c>
+      <c r="L132" s="4"/>
       <c r="M132" s="4"/>
       <c r="N132" s="4"/>
       <c r="O132" s="4"/>
@@ -9137,31 +9182,31 @@
     </row>
     <row r="133" ht="14.25" customHeight="1">
       <c r="A133" t="s" s="2">
-        <v>475</v>
+        <v>477</v>
       </c>
       <c r="B133" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C133" t="s" s="2">
-        <v>324</v>
+        <v>478</v>
       </c>
       <c r="D133" s="3"/>
       <c r="E133" s="3"/>
       <c r="F133" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G133" s="3"/>
       <c r="H133" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I133" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J133" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K133" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L133" s="4"/>
       <c r="M133" s="4"/>
@@ -9184,31 +9229,31 @@
     </row>
     <row r="134" ht="14.25" customHeight="1">
       <c r="A134" t="s" s="2">
-        <v>476</v>
+        <v>479</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C134" t="s" s="2">
-        <v>477</v>
+        <v>480</v>
       </c>
       <c r="D134" s="3"/>
       <c r="E134" s="3"/>
       <c r="F134" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G134" s="3"/>
       <c r="H134" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I134" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J134" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K134" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L134" s="4"/>
       <c r="M134" s="4"/>
@@ -9231,31 +9276,31 @@
     </row>
     <row r="135" ht="14.25" customHeight="1">
       <c r="A135" t="s" s="2">
-        <v>478</v>
+        <v>481</v>
       </c>
       <c r="B135" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C135" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D135" s="3"/>
       <c r="E135" s="3"/>
       <c r="F135" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G135" s="3"/>
       <c r="H135" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I135" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J135" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K135" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L135" s="4"/>
       <c r="M135" s="4"/>
@@ -9278,31 +9323,31 @@
     </row>
     <row r="136" ht="14.25" customHeight="1">
       <c r="A136" t="s" s="2">
+        <v>482</v>
+      </c>
+      <c r="B136" t="s" s="2">
+        <v>311</v>
+      </c>
+      <c r="C136" t="s" s="2">
         <v>480</v>
-      </c>
-      <c r="B136" t="s" s="2">
-        <v>310</v>
-      </c>
-      <c r="C136" t="s" s="2">
-        <v>479</v>
       </c>
       <c r="D136" s="3"/>
       <c r="E136" s="3"/>
       <c r="F136" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G136" s="3"/>
       <c r="H136" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I136" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J136" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K136" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L136" s="4"/>
       <c r="M136" s="4"/>
@@ -9325,31 +9370,31 @@
     </row>
     <row r="137" ht="14.25" customHeight="1">
       <c r="A137" t="s" s="2">
-        <v>481</v>
+        <v>483</v>
       </c>
       <c r="B137" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C137" t="s" s="2">
-        <v>479</v>
+        <v>484</v>
       </c>
       <c r="D137" s="3"/>
       <c r="E137" s="3"/>
       <c r="F137" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G137" s="3"/>
       <c r="H137" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I137" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J137" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K137" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L137" s="4"/>
       <c r="M137" s="4"/>
@@ -9372,31 +9417,31 @@
     </row>
     <row r="138" ht="14.25" customHeight="1">
       <c r="A138" t="s" s="2">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="B138" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C138" t="s" s="2">
-        <v>483</v>
+        <v>480</v>
       </c>
       <c r="D138" s="3"/>
       <c r="E138" s="3"/>
       <c r="F138" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G138" s="3"/>
       <c r="H138" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I138" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J138" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K138" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L138" s="4"/>
       <c r="M138" s="4"/>
@@ -9419,31 +9464,31 @@
     </row>
     <row r="139" ht="14.25" customHeight="1">
       <c r="A139" t="s" s="2">
-        <v>484</v>
+        <v>486</v>
       </c>
       <c r="B139" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="C139" t="s" s="2">
-        <v>479</v>
+        <v>480</v>
       </c>
       <c r="D139" s="3"/>
       <c r="E139" s="3"/>
       <c r="F139" t="s" s="2">
-        <v>472</v>
+        <v>473</v>
       </c>
       <c r="G139" s="3"/>
       <c r="H139" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I139" t="s" s="2">
-        <v>396</v>
+        <v>397</v>
       </c>
       <c r="J139" t="s" s="2">
-        <v>397</v>
+        <v>398</v>
       </c>
       <c r="K139" t="s" s="2">
-        <v>473</v>
+        <v>474</v>
       </c>
       <c r="L139" s="4"/>
       <c r="M139" s="4"/>
@@ -9466,31 +9511,29 @@
     </row>
     <row r="140" ht="14.25" customHeight="1">
       <c r="A140" t="s" s="2">
-        <v>485</v>
+        <v>487</v>
       </c>
       <c r="B140" t="s" s="2">
-        <v>310</v>
+        <v>13</v>
       </c>
       <c r="C140" t="s" s="2">
-        <v>479</v>
+        <v>488</v>
       </c>
       <c r="D140" s="3"/>
       <c r="E140" s="3"/>
       <c r="F140" t="s" s="2">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="G140" s="3"/>
       <c r="H140" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I140" t="s" s="2">
-        <v>396</v>
-      </c>
-      <c r="J140" t="s" s="2">
-        <v>397</v>
-      </c>
+        <v>490</v>
+      </c>
+      <c r="J140" s="4"/>
       <c r="K140" t="s" s="2">
-        <v>473</v>
+        <v>491</v>
       </c>
       <c r="L140" s="4"/>
       <c r="M140" s="4"/>
@@ -9513,29 +9556,29 @@
     </row>
     <row r="141" ht="14.25" customHeight="1">
       <c r="A141" t="s" s="2">
-        <v>486</v>
+        <v>492</v>
       </c>
       <c r="B141" t="s" s="2">
         <v>13</v>
       </c>
       <c r="C141" t="s" s="2">
-        <v>487</v>
+        <v>493</v>
       </c>
       <c r="D141" s="3"/>
       <c r="E141" s="3"/>
       <c r="F141" t="s" s="2">
-        <v>488</v>
+        <v>494</v>
       </c>
       <c r="G141" s="3"/>
       <c r="H141" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I141" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J141" s="4"/>
       <c r="K141" t="s" s="2">
-        <v>490</v>
+        <v>495</v>
       </c>
       <c r="L141" s="4"/>
       <c r="M141" s="4"/>
@@ -9558,29 +9601,29 @@
     </row>
     <row r="142" ht="14.25" customHeight="1">
       <c r="A142" t="s" s="2">
-        <v>491</v>
+        <v>496</v>
       </c>
       <c r="B142" t="s" s="2">
         <v>13</v>
       </c>
       <c r="C142" t="s" s="2">
-        <v>492</v>
+        <v>497</v>
       </c>
       <c r="D142" s="3"/>
       <c r="E142" s="3"/>
       <c r="F142" t="s" s="2">
-        <v>493</v>
+        <v>489</v>
       </c>
       <c r="G142" s="3"/>
       <c r="H142" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I142" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J142" s="4"/>
       <c r="K142" t="s" s="2">
-        <v>494</v>
+        <v>498</v>
       </c>
       <c r="L142" s="4"/>
       <c r="M142" s="4"/>
@@ -9603,29 +9646,27 @@
     </row>
     <row r="143" ht="14.25" customHeight="1">
       <c r="A143" t="s" s="2">
-        <v>495</v>
+        <v>499</v>
       </c>
       <c r="B143" t="s" s="2">
         <v>13</v>
       </c>
       <c r="C143" t="s" s="2">
-        <v>496</v>
+        <v>500</v>
       </c>
       <c r="D143" s="3"/>
       <c r="E143" s="3"/>
-      <c r="F143" t="s" s="2">
-        <v>488</v>
-      </c>
+      <c r="F143" s="3"/>
       <c r="G143" s="3"/>
       <c r="H143" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I143" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J143" s="4"/>
       <c r="K143" t="s" s="2">
-        <v>497</v>
+        <v>501</v>
       </c>
       <c r="L143" s="4"/>
       <c r="M143" s="4"/>
@@ -9648,13 +9689,13 @@
     </row>
     <row r="144" ht="14.25" customHeight="1">
       <c r="A144" t="s" s="2">
-        <v>498</v>
+        <v>502</v>
       </c>
       <c r="B144" t="s" s="2">
         <v>13</v>
       </c>
       <c r="C144" t="s" s="2">
-        <v>499</v>
+        <v>503</v>
       </c>
       <c r="D144" s="3"/>
       <c r="E144" s="3"/>
@@ -9664,11 +9705,11 @@
         <v>41</v>
       </c>
       <c r="I144" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J144" s="4"/>
       <c r="K144" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L144" s="4"/>
       <c r="M144" s="4"/>
@@ -9691,13 +9732,13 @@
     </row>
     <row r="145" ht="14.25" customHeight="1">
       <c r="A145" t="s" s="2">
-        <v>501</v>
+        <v>504</v>
       </c>
       <c r="B145" t="s" s="2">
         <v>13</v>
       </c>
       <c r="C145" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D145" s="3"/>
       <c r="E145" s="3"/>
@@ -9707,11 +9748,11 @@
         <v>41</v>
       </c>
       <c r="I145" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J145" s="4"/>
       <c r="K145" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L145" s="4"/>
       <c r="M145" s="4"/>
@@ -9734,13 +9775,13 @@
     </row>
     <row r="146" ht="14.25" customHeight="1">
       <c r="A146" t="s" s="2">
-        <v>503</v>
+        <v>505</v>
       </c>
       <c r="B146" t="s" s="2">
         <v>13</v>
       </c>
       <c r="C146" t="s" s="2">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="D146" s="3"/>
       <c r="E146" s="3"/>
@@ -9750,11 +9791,11 @@
         <v>41</v>
       </c>
       <c r="I146" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J146" s="4"/>
       <c r="K146" t="s" s="2">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="L146" s="4"/>
       <c r="M146" s="4"/>
@@ -9777,13 +9818,13 @@
     </row>
     <row r="147" ht="14.25" customHeight="1">
       <c r="A147" t="s" s="2">
-        <v>504</v>
+        <v>506</v>
       </c>
       <c r="B147" t="s" s="2">
         <v>13</v>
       </c>
       <c r="C147" t="s" s="2">
-        <v>502</v>
+        <v>507</v>
       </c>
       <c r="D147" s="3"/>
       <c r="E147" s="3"/>
@@ -9793,11 +9834,11 @@
         <v>41</v>
       </c>
       <c r="I147" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J147" s="4"/>
       <c r="K147" t="s" s="2">
-        <v>500</v>
+        <v>508</v>
       </c>
       <c r="L147" s="4"/>
       <c r="M147" s="4"/>
@@ -9820,27 +9861,25 @@
     </row>
     <row r="148" ht="14.25" customHeight="1">
       <c r="A148" t="s" s="2">
-        <v>505</v>
+        <v>509</v>
       </c>
       <c r="B148" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="C148" t="s" s="2">
-        <v>506</v>
-      </c>
-      <c r="D148" s="3"/>
-      <c r="E148" s="3"/>
+      <c r="C148" s="4"/>
+      <c r="D148" s="4"/>
+      <c r="E148" s="4"/>
       <c r="F148" s="3"/>
       <c r="G148" s="3"/>
       <c r="H148" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I148" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J148" s="4"/>
       <c r="K148" t="s" s="2">
-        <v>507</v>
+        <v>510</v>
       </c>
       <c r="L148" s="4"/>
       <c r="M148" s="4"/>
@@ -9863,25 +9902,27 @@
     </row>
     <row r="149" ht="14.25" customHeight="1">
       <c r="A149" t="s" s="2">
-        <v>508</v>
+        <v>511</v>
       </c>
       <c r="B149" t="s" s="2">
         <v>13</v>
       </c>
-      <c r="C149" s="4"/>
-      <c r="D149" s="4"/>
-      <c r="E149" s="4"/>
+      <c r="C149" t="s" s="2">
+        <v>43</v>
+      </c>
+      <c r="D149" s="3"/>
+      <c r="E149" s="3"/>
       <c r="F149" s="3"/>
       <c r="G149" s="3"/>
       <c r="H149" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I149" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J149" s="4"/>
-      <c r="K149" t="s" s="2">
-        <v>509</v>
+      <c r="K149" t="s" s="17">
+        <v>512</v>
       </c>
       <c r="L149" s="4"/>
       <c r="M149" s="4"/>
@@ -9904,13 +9945,13 @@
     </row>
     <row r="150" ht="14.25" customHeight="1">
       <c r="A150" t="s" s="2">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="B150" t="s" s="2">
         <v>13</v>
       </c>
       <c r="C150" t="s" s="2">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="D150" s="3"/>
       <c r="E150" s="3"/>
@@ -9920,11 +9961,11 @@
         <v>41</v>
       </c>
       <c r="I150" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J150" s="4"/>
-      <c r="K150" t="s" s="18">
-        <v>511</v>
+      <c r="K150" t="s" s="2">
+        <v>514</v>
       </c>
       <c r="L150" s="4"/>
       <c r="M150" s="4"/>
@@ -9947,7 +9988,7 @@
     </row>
     <row r="151" ht="14.25" customHeight="1">
       <c r="A151" t="s" s="2">
-        <v>512</v>
+        <v>515</v>
       </c>
       <c r="B151" t="s" s="2">
         <v>13</v>
@@ -9957,17 +9998,17 @@
       </c>
       <c r="D151" s="3"/>
       <c r="E151" s="3"/>
-      <c r="F151" s="3"/>
+      <c r="F151" s="4"/>
       <c r="G151" s="3"/>
       <c r="H151" t="s" s="2">
         <v>41</v>
       </c>
       <c r="I151" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J151" s="4"/>
       <c r="K151" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L151" s="4"/>
       <c r="M151" s="4"/>
@@ -9990,7 +10031,7 @@
     </row>
     <row r="152" ht="14.25" customHeight="1">
       <c r="A152" t="s" s="2">
-        <v>514</v>
+        <v>516</v>
       </c>
       <c r="B152" t="s" s="2">
         <v>13</v>
@@ -10006,11 +10047,11 @@
         <v>41</v>
       </c>
       <c r="I152" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J152" s="4"/>
       <c r="K152" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L152" s="4"/>
       <c r="M152" s="4"/>
@@ -10033,7 +10074,7 @@
     </row>
     <row r="153" ht="14.25" customHeight="1">
       <c r="A153" t="s" s="2">
-        <v>515</v>
+        <v>517</v>
       </c>
       <c r="B153" t="s" s="2">
         <v>13</v>
@@ -10049,11 +10090,11 @@
         <v>41</v>
       </c>
       <c r="I153" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J153" s="4"/>
       <c r="K153" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L153" s="4"/>
       <c r="M153" s="4"/>
@@ -10076,7 +10117,7 @@
     </row>
     <row r="154" ht="14.25" customHeight="1">
       <c r="A154" t="s" s="2">
-        <v>516</v>
+        <v>518</v>
       </c>
       <c r="B154" t="s" s="2">
         <v>13</v>
@@ -10092,11 +10133,11 @@
         <v>41</v>
       </c>
       <c r="I154" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J154" s="4"/>
       <c r="K154" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L154" s="4"/>
       <c r="M154" s="4"/>
@@ -10119,7 +10160,7 @@
     </row>
     <row r="155" ht="14.25" customHeight="1">
       <c r="A155" t="s" s="2">
-        <v>517</v>
+        <v>519</v>
       </c>
       <c r="B155" t="s" s="2">
         <v>13</v>
@@ -10135,11 +10176,11 @@
         <v>41</v>
       </c>
       <c r="I155" t="s" s="2">
-        <v>489</v>
+        <v>490</v>
       </c>
       <c r="J155" s="4"/>
       <c r="K155" t="s" s="2">
-        <v>513</v>
+        <v>514</v>
       </c>
       <c r="L155" s="4"/>
       <c r="M155" s="4"/>
@@ -10162,28 +10203,22 @@
     </row>
     <row r="156" ht="14.25" customHeight="1">
       <c r="A156" t="s" s="2">
-        <v>518</v>
-      </c>
-      <c r="B156" t="s" s="2">
-        <v>13</v>
-      </c>
-      <c r="C156" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="D156" s="3"/>
-      <c r="E156" s="3"/>
+        <v>520</v>
+      </c>
+      <c r="B156" s="3"/>
+      <c r="C156" s="4"/>
+      <c r="D156" s="4"/>
+      <c r="E156" s="4"/>
       <c r="F156" s="4"/>
-      <c r="G156" s="3"/>
-      <c r="H156" t="s" s="2">
-        <v>41</v>
-      </c>
+      <c r="G156" s="4"/>
+      <c r="H156" s="4"/>
       <c r="I156" t="s" s="2">
-        <v>489</v>
-      </c>
-      <c r="J156" s="4"/>
-      <c r="K156" t="s" s="2">
-        <v>513</v>
-      </c>
+        <v>521</v>
+      </c>
+      <c r="J156" t="s" s="2">
+        <v>522</v>
+      </c>
+      <c r="K156" s="4"/>
       <c r="L156" s="4"/>
       <c r="M156" s="4"/>
       <c r="N156" s="4"/>
@@ -10205,7 +10240,7 @@
     </row>
     <row r="157" ht="14.25" customHeight="1">
       <c r="A157" t="s" s="2">
-        <v>519</v>
+        <v>523</v>
       </c>
       <c r="B157" s="3"/>
       <c r="C157" s="4"/>
@@ -10215,10 +10250,10 @@
       <c r="G157" s="4"/>
       <c r="H157" s="4"/>
       <c r="I157" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="J157" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K157" s="4"/>
       <c r="L157" s="4"/>
@@ -10242,20 +10277,24 @@
     </row>
     <row r="158" ht="14.25" customHeight="1">
       <c r="A158" t="s" s="2">
-        <v>522</v>
-      </c>
-      <c r="B158" s="3"/>
+        <v>524</v>
+      </c>
+      <c r="B158" t="s" s="2">
+        <v>525</v>
+      </c>
       <c r="C158" s="4"/>
       <c r="D158" s="4"/>
       <c r="E158" s="4"/>
       <c r="F158" s="4"/>
-      <c r="G158" s="4"/>
-      <c r="H158" s="4"/>
+      <c r="G158" s="3"/>
+      <c r="H158" t="s" s="2">
+        <v>17</v>
+      </c>
       <c r="I158" t="s" s="2">
-        <v>520</v>
+        <v>521</v>
       </c>
       <c r="J158" t="s" s="2">
-        <v>521</v>
+        <v>522</v>
       </c>
       <c r="K158" s="4"/>
       <c r="L158" s="4"/>
@@ -10279,26 +10318,22 @@
     </row>
     <row r="159" ht="14.25" customHeight="1">
       <c r="A159" t="s" s="2">
-        <v>523</v>
-      </c>
-      <c r="B159" t="s" s="2">
-        <v>524</v>
-      </c>
+        <v>526</v>
+      </c>
+      <c r="B159" s="3"/>
       <c r="C159" s="4"/>
       <c r="D159" s="4"/>
       <c r="E159" s="4"/>
       <c r="F159" s="4"/>
       <c r="G159" s="3"/>
-      <c r="H159" t="s" s="2">
-        <v>17</v>
-      </c>
+      <c r="H159" s="3"/>
       <c r="I159" t="s" s="2">
-        <v>520</v>
-      </c>
-      <c r="J159" t="s" s="2">
-        <v>521</v>
-      </c>
-      <c r="K159" s="4"/>
+        <v>527</v>
+      </c>
+      <c r="J159" s="3"/>
+      <c r="K159" t="s" s="17">
+        <v>528</v>
+      </c>
       <c r="L159" s="4"/>
       <c r="M159" s="4"/>
       <c r="N159" s="4"/>
@@ -10319,23 +10354,19 @@
       <c r="AC159" s="4"/>
     </row>
     <row r="160" ht="14.25" customHeight="1">
-      <c r="A160" t="s" s="2">
-        <v>525</v>
-      </c>
+      <c r="A160" s="4"/>
       <c r="B160" s="3"/>
       <c r="C160" s="4"/>
       <c r="D160" s="4"/>
       <c r="E160" s="4"/>
       <c r="F160" s="4"/>
-      <c r="G160" s="3"/>
-      <c r="H160" s="3"/>
+      <c r="G160" s="4"/>
+      <c r="H160" s="4"/>
       <c r="I160" t="s" s="2">
-        <v>526</v>
-      </c>
-      <c r="J160" s="3"/>
-      <c r="K160" t="s" s="18">
-        <v>527</v>
-      </c>
+        <v>529</v>
+      </c>
+      <c r="J160" s="4"/>
+      <c r="K160" s="4"/>
       <c r="L160" s="4"/>
       <c r="M160" s="4"/>
       <c r="N160" s="4"/>
@@ -10365,7 +10396,7 @@
       <c r="G161" s="4"/>
       <c r="H161" s="4"/>
       <c r="I161" t="s" s="2">
-        <v>528</v>
+        <v>530</v>
       </c>
       <c r="J161" s="4"/>
       <c r="K161" s="4"/>
@@ -10397,9 +10428,7 @@
       <c r="F162" s="4"/>
       <c r="G162" s="4"/>
       <c r="H162" s="4"/>
-      <c r="I162" t="s" s="2">
-        <v>529</v>
-      </c>
+      <c r="I162" s="4"/>
       <c r="J162" s="4"/>
       <c r="K162" s="4"/>
       <c r="L162" s="4"/>
@@ -10421,41 +10450,10 @@
       <c r="AB162" s="4"/>
       <c r="AC162" s="4"/>
     </row>
-    <row r="163" ht="14.25" customHeight="1">
-      <c r="A163" s="4"/>
-      <c r="B163" s="3"/>
-      <c r="C163" s="4"/>
-      <c r="D163" s="4"/>
-      <c r="E163" s="4"/>
-      <c r="F163" s="4"/>
-      <c r="G163" s="4"/>
-      <c r="H163" s="4"/>
-      <c r="I163" s="4"/>
-      <c r="J163" s="4"/>
-      <c r="K163" s="4"/>
-      <c r="L163" s="4"/>
-      <c r="M163" s="4"/>
-      <c r="N163" s="4"/>
-      <c r="O163" s="4"/>
-      <c r="P163" s="4"/>
-      <c r="Q163" s="4"/>
-      <c r="R163" s="4"/>
-      <c r="S163" s="4"/>
-      <c r="T163" s="4"/>
-      <c r="U163" s="4"/>
-      <c r="V163" s="4"/>
-      <c r="W163" s="4"/>
-      <c r="X163" s="4"/>
-      <c r="Y163" s="4"/>
-      <c r="Z163" s="4"/>
-      <c r="AA163" s="4"/>
-      <c r="AB163" s="4"/>
-      <c r="AC163" s="4"/>
-    </row>
   </sheetData>
   <mergeCells count="2">
-    <mergeCell ref="K46:T46"/>
     <mergeCell ref="K45:T45"/>
+    <mergeCell ref="K44:T44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0" footer="0"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="100" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
@@ -10473,14 +10471,14 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.8333" defaultRowHeight="14" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col min="1" max="1" width="39.8516" style="27" customWidth="1"/>
-    <col min="2" max="5" width="10.8516" style="27" customWidth="1"/>
-    <col min="6" max="16384" width="10.8516" style="27" customWidth="1"/>
+    <col min="1" max="1" width="39.8516" style="26" customWidth="1"/>
+    <col min="2" max="5" width="10.8516" style="26" customWidth="1"/>
+    <col min="6" max="16384" width="10.8516" style="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" ht="14.6" customHeight="1">
-      <c r="A1" t="s" s="18">
-        <v>530</v>
+      <c r="A1" t="s" s="17">
+        <v>531</v>
       </c>
       <c r="B1" s="4"/>
       <c r="C1" s="4"/>
@@ -10489,7 +10487,7 @@
     </row>
     <row r="2" ht="15" customHeight="1">
       <c r="A2" t="s" s="2">
-        <v>336</v>
+        <v>337</v>
       </c>
       <c r="B2" s="4"/>
       <c r="C2" s="4"/>
@@ -10498,7 +10496,7 @@
     </row>
     <row r="3" ht="15" customHeight="1">
       <c r="A3" t="s" s="2">
-        <v>372</v>
+        <v>373</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -10507,7 +10505,7 @@
     </row>
     <row r="4" ht="15" customHeight="1">
       <c r="A4" t="s" s="2">
-        <v>376</v>
+        <v>377</v>
       </c>
       <c r="B4" s="4"/>
       <c r="C4" s="4"/>
@@ -10516,7 +10514,7 @@
     </row>
     <row r="5" ht="15" customHeight="1">
       <c r="A5" t="s" s="2">
-        <v>383</v>
+        <v>384</v>
       </c>
       <c r="B5" s="4"/>
       <c r="C5" s="4"/>
@@ -10525,7 +10523,7 @@
     </row>
     <row r="6" ht="15" customHeight="1">
       <c r="A6" t="s" s="2">
-        <v>353</v>
+        <v>354</v>
       </c>
       <c r="B6" s="4"/>
       <c r="C6" s="4"/>
@@ -10561,7 +10559,7 @@
     </row>
     <row r="10" ht="15" customHeight="1">
       <c r="A10" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="B10" s="4"/>
       <c r="C10" s="4"/>
@@ -10570,7 +10568,7 @@
     </row>
     <row r="11" ht="15" customHeight="1">
       <c r="A11" t="s" s="2">
-        <v>345</v>
+        <v>346</v>
       </c>
       <c r="B11" s="4"/>
       <c r="C11" s="4"/>
@@ -10579,7 +10577,7 @@
     </row>
     <row r="12" ht="15" customHeight="1">
       <c r="A12" t="s" s="2">
-        <v>357</v>
+        <v>358</v>
       </c>
       <c r="B12" s="4"/>
       <c r="C12" s="4"/>
@@ -10588,7 +10586,7 @@
     </row>
     <row r="13" ht="15" customHeight="1">
       <c r="A13" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="B13" s="4"/>
       <c r="C13" s="4"/>
@@ -10597,7 +10595,7 @@
     </row>
     <row r="14" ht="15" customHeight="1">
       <c r="A14" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="B14" s="4"/>
       <c r="C14" s="4"/>
@@ -10615,7 +10613,7 @@
     </row>
     <row r="16" ht="15" customHeight="1">
       <c r="A16" t="s" s="2">
-        <v>531</v>
+        <v>532</v>
       </c>
       <c r="B16" s="4"/>
       <c r="C16" s="4"/>
@@ -10624,7 +10622,7 @@
     </row>
     <row r="17" ht="15" customHeight="1">
       <c r="A17" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="B17" s="4"/>
       <c r="C17" s="4"/>
@@ -10633,7 +10631,7 @@
     </row>
     <row r="18" ht="15" customHeight="1">
       <c r="A18" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="B18" s="4"/>
       <c r="C18" s="4"/>
@@ -10642,7 +10640,7 @@
     </row>
     <row r="19" ht="15" customHeight="1">
       <c r="A19" t="s" s="2">
-        <v>532</v>
+        <v>533</v>
       </c>
       <c r="B19" s="4"/>
       <c r="C19" s="4"/>
@@ -10651,7 +10649,7 @@
     </row>
     <row r="20" ht="15" customHeight="1">
       <c r="A20" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="B20" s="4"/>
       <c r="C20" s="4"/>
@@ -10660,7 +10658,7 @@
     </row>
     <row r="21" ht="15" customHeight="1">
       <c r="A21" t="s" s="2">
-        <v>533</v>
+        <v>534</v>
       </c>
       <c r="B21" s="4"/>
       <c r="C21" s="4"/>
@@ -10669,7 +10667,7 @@
     </row>
     <row r="22" ht="15" customHeight="1">
       <c r="A22" t="s" s="2">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="B22" s="4"/>
       <c r="C22" s="4"/>
@@ -10678,7 +10676,7 @@
     </row>
     <row r="23" ht="15" customHeight="1">
       <c r="A23" t="s" s="2">
-        <v>534</v>
+        <v>535</v>
       </c>
       <c r="B23" s="4"/>
       <c r="C23" s="4"/>
@@ -10687,7 +10685,7 @@
     </row>
     <row r="24" ht="15" customHeight="1">
       <c r="A24" t="s" s="2">
-        <v>193</v>
+        <v>192</v>
       </c>
       <c r="B24" s="4"/>
       <c r="C24" s="4"/>
@@ -10696,7 +10694,7 @@
     </row>
     <row r="25" ht="15" customHeight="1">
       <c r="A25" t="s" s="2">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B25" s="4"/>
       <c r="C25" s="4"/>
@@ -10732,7 +10730,7 @@
     </row>
     <row r="29" ht="15" customHeight="1">
       <c r="A29" t="s" s="2">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B29" s="4"/>
       <c r="C29" s="4"/>
@@ -10741,7 +10739,7 @@
     </row>
     <row r="30" ht="15" customHeight="1">
       <c r="A30" t="s" s="2">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B30" s="4"/>
       <c r="C30" s="4"/>
@@ -10750,7 +10748,7 @@
     </row>
     <row r="31" ht="15" customHeight="1">
       <c r="A31" t="s" s="2">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B31" s="4"/>
       <c r="C31" s="4"/>
@@ -10759,7 +10757,7 @@
     </row>
     <row r="32" ht="15" customHeight="1">
       <c r="A32" t="s" s="2">
-        <v>182</v>
+        <v>536</v>
       </c>
       <c r="B32" s="4"/>
       <c r="C32" s="4"/>
@@ -10768,7 +10766,7 @@
     </row>
     <row r="33" ht="15" customHeight="1">
       <c r="A33" t="s" s="2">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="B33" s="4"/>
       <c r="C33" s="4"/>
@@ -10777,7 +10775,7 @@
     </row>
     <row r="34" ht="15" customHeight="1">
       <c r="A34" t="s" s="2">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B34" s="4"/>
       <c r="C34" s="4"/>
@@ -10786,7 +10784,7 @@
     </row>
     <row r="35" ht="15" customHeight="1">
       <c r="A35" t="s" s="2">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B35" s="4"/>
       <c r="C35" s="4"/>
@@ -10795,7 +10793,7 @@
     </row>
     <row r="36" ht="15" customHeight="1">
       <c r="A36" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="B36" s="4"/>
       <c r="C36" s="4"/>
@@ -10804,7 +10802,7 @@
     </row>
     <row r="37" ht="15" customHeight="1">
       <c r="A37" t="s" s="2">
-        <v>368</v>
+        <v>369</v>
       </c>
       <c r="B37" s="4"/>
       <c r="C37" s="4"/>
@@ -10813,7 +10811,7 @@
     </row>
     <row r="38" ht="15" customHeight="1">
       <c r="A38" t="s" s="2">
-        <v>362</v>
+        <v>363</v>
       </c>
       <c r="B38" s="4"/>
       <c r="C38" s="4"/>
@@ -10822,7 +10820,7 @@
     </row>
     <row r="39" ht="15" customHeight="1">
       <c r="A39" t="s" s="2">
-        <v>535</v>
+        <v>537</v>
       </c>
       <c r="B39" s="4"/>
       <c r="C39" s="4"/>
@@ -10840,7 +10838,7 @@
     </row>
     <row r="41" ht="15" customHeight="1">
       <c r="A41" t="s" s="2">
-        <v>139</v>
+        <v>538</v>
       </c>
       <c r="B41" s="4"/>
       <c r="C41" s="4"/>
@@ -10849,7 +10847,7 @@
     </row>
     <row r="42" ht="15" customHeight="1">
       <c r="A42" t="s" s="2">
-        <v>348</v>
+        <v>349</v>
       </c>
       <c r="B42" s="4"/>
       <c r="C42" s="4"/>
@@ -10858,7 +10856,7 @@
     </row>
     <row r="43" ht="15" customHeight="1">
       <c r="A43" t="s" s="2">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B43" s="4"/>
       <c r="C43" s="4"/>
@@ -10867,7 +10865,7 @@
     </row>
     <row r="44" ht="15" customHeight="1">
       <c r="A44" t="s" s="2">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B44" s="4"/>
       <c r="C44" s="4"/>
@@ -10876,7 +10874,7 @@
     </row>
     <row r="45" ht="15" customHeight="1">
       <c r="A45" t="s" s="2">
-        <v>172</v>
+        <v>539</v>
       </c>
       <c r="B45" s="4"/>
       <c r="C45" s="4"/>
@@ -10885,7 +10883,7 @@
     </row>
     <row r="46" ht="15" customHeight="1">
       <c r="A46" t="s" s="2">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="B46" s="4"/>
       <c r="C46" s="4"/>
@@ -10894,7 +10892,7 @@
     </row>
     <row r="47" ht="15" customHeight="1">
       <c r="A47" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="B47" s="4"/>
       <c r="C47" s="4"/>
@@ -10903,7 +10901,7 @@
     </row>
     <row r="48" ht="15" customHeight="1">
       <c r="A48" t="s" s="2">
-        <v>386</v>
+        <v>387</v>
       </c>
       <c r="B48" s="4"/>
       <c r="C48" s="4"/>
@@ -10921,7 +10919,7 @@
     </row>
     <row r="50" ht="15" customHeight="1">
       <c r="A50" t="s" s="2">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B50" s="4"/>
       <c r="C50" s="4"/>
@@ -10930,7 +10928,7 @@
     </row>
     <row r="51" ht="15" customHeight="1">
       <c r="A51" t="s" s="2">
-        <v>390</v>
+        <v>391</v>
       </c>
       <c r="B51" s="4"/>
       <c r="C51" s="4"/>
@@ -10939,7 +10937,7 @@
     </row>
     <row r="52" ht="15" customHeight="1">
       <c r="A52" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="B52" s="4"/>
       <c r="C52" s="4"/>
@@ -10948,7 +10946,7 @@
     </row>
     <row r="53" ht="15" customHeight="1">
       <c r="A53" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="B53" s="4"/>
       <c r="C53" s="4"/>
@@ -10957,7 +10955,7 @@
     </row>
     <row r="54" ht="15" customHeight="1">
       <c r="A54" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B54" s="4"/>
       <c r="C54" s="4"/>
